--- a/public/download/tran2.xlsx
+++ b/public/download/tran2.xlsx
@@ -399,7 +399,7 @@
         <v>-0.01</v>
       </c>
       <c r="C2">
-        <v>15.621416666666619</v>
+        <v>11.506263333333342</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +410,7 @@
         <v>-0.012</v>
       </c>
       <c r="C3">
-        <v>15.692146666666606</v>
+        <v>10.682326666666635</v>
       </c>
     </row>
     <row r="4">
@@ -421,7 +421,7 @@
         <v>-0.014</v>
       </c>
       <c r="C4">
-        <v>15.692146666666606</v>
+        <v>8.207449999999957</v>
       </c>
     </row>
     <row r="5">
@@ -432,7 +432,7 @@
         <v>-0.016</v>
       </c>
       <c r="C5">
-        <v>15.692146666666606</v>
+        <v>8.402289999999955</v>
       </c>
     </row>
     <row r="6">
@@ -443,7 +443,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C6">
-        <v>15.692146666666606</v>
+        <v>7.413823333333293</v>
       </c>
     </row>
     <row r="7">
@@ -454,7 +454,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C7">
-        <v>15.692146666666606</v>
+        <v>7.554359999999974</v>
       </c>
     </row>
     <row r="8">
@@ -465,7 +465,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C8">
-        <v>15.692146666666606</v>
+        <v>7.437323333333325</v>
       </c>
     </row>
     <row r="9">
@@ -476,7 +476,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C9">
-        <v>15.692146666666606</v>
+        <v>7.007656666666624</v>
       </c>
     </row>
     <row r="10">
@@ -487,7 +487,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C10">
-        <v>15.692146666666606</v>
+        <v>5.502939999999967</v>
       </c>
     </row>
     <row r="11">
@@ -498,7 +498,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C11">
-        <v>15.692146666666606</v>
+        <v>5.4684099999999685</v>
       </c>
     </row>
     <row r="12">
@@ -509,7 +509,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C12">
-        <v>15.692146666666606</v>
+        <v>4.3320066666666435</v>
       </c>
     </row>
     <row r="13">
@@ -520,7 +520,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C13">
-        <v>15.692146666666606</v>
+        <v>4.235286666666658</v>
       </c>
     </row>
     <row r="14">
@@ -531,7 +531,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C14">
-        <v>15.692146666666606</v>
+        <v>3.9193866666666395</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C15">
-        <v>15.692146666666606</v>
+        <v>4.049073333333316</v>
       </c>
     </row>
     <row r="16">
@@ -553,7 +553,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C16">
-        <v>15.692146666666606</v>
+        <v>4.192693333333315</v>
       </c>
     </row>
     <row r="17">
@@ -564,7 +564,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C17">
-        <v>15.692146666666606</v>
+        <v>5.781093333333294</v>
       </c>
     </row>
     <row r="18">
@@ -575,7 +575,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C18">
-        <v>15.692146666666606</v>
+        <v>4.9368566666666425</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C19">
-        <v>15.692146666666606</v>
+        <v>5.838476666666622</v>
       </c>
     </row>
     <row r="20">
@@ -597,7 +597,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C20">
-        <v>15.692146666666606</v>
+        <v>5.838476666666622</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C21">
-        <v>15.692146666666606</v>
+        <v>7.3767099999999655</v>
       </c>
     </row>
     <row r="22">
@@ -619,7 +619,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C22">
-        <v>15.692146666666606</v>
+        <v>7.26064999999998</v>
       </c>
     </row>
     <row r="23">
@@ -630,7 +630,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C23">
-        <v>15.692146666666606</v>
+        <v>7.6027299999999896</v>
       </c>
     </row>
     <row r="24">
@@ -641,7 +641,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C24">
-        <v>15.692146666666606</v>
+        <v>7.1300433333333135</v>
       </c>
     </row>
     <row r="25">
@@ -652,7 +652,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C25">
-        <v>15.692146666666606</v>
+        <v>6.037839999999979</v>
       </c>
     </row>
     <row r="26">
@@ -663,7 +663,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C26">
-        <v>15.692146666666606</v>
+        <v>5.7750866666666525</v>
       </c>
     </row>
     <row r="27">
@@ -674,7 +674,7 @@
         <v>-0.01</v>
       </c>
       <c r="C27">
-        <v>14.686256666666662</v>
+        <v>12.576440000000048</v>
       </c>
     </row>
     <row r="28">
@@ -685,7 +685,7 @@
         <v>-0.012</v>
       </c>
       <c r="C28">
-        <v>14.73049333333332</v>
+        <v>11.38779333333332</v>
       </c>
     </row>
     <row r="29">
@@ -696,7 +696,7 @@
         <v>-0.014</v>
       </c>
       <c r="C29">
-        <v>14.73049333333332</v>
+        <v>8.751746666666614</v>
       </c>
     </row>
     <row r="30">
@@ -707,7 +707,7 @@
         <v>-0.016</v>
       </c>
       <c r="C30">
-        <v>14.73049333333332</v>
+        <v>8.74582666666663</v>
       </c>
     </row>
     <row r="31">
@@ -718,7 +718,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C31">
-        <v>14.73049333333332</v>
+        <v>7.794646666666666</v>
       </c>
     </row>
     <row r="32">
@@ -729,7 +729,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C32">
-        <v>14.73049333333332</v>
+        <v>8.621646666666683</v>
       </c>
     </row>
     <row r="33">
@@ -740,7 +740,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C33">
-        <v>14.73049333333332</v>
+        <v>7.786170000000007</v>
       </c>
     </row>
     <row r="34">
@@ -751,7 +751,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C34">
-        <v>14.73049333333332</v>
+        <v>7.410173333333319</v>
       </c>
     </row>
     <row r="35">
@@ -762,7 +762,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C35">
-        <v>14.73049333333332</v>
+        <v>7.548540000000002</v>
       </c>
     </row>
     <row r="36">
@@ -773,7 +773,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C36">
-        <v>14.73049333333332</v>
+        <v>6.618833333333309</v>
       </c>
     </row>
     <row r="37">
@@ -784,7 +784,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C37">
-        <v>14.73049333333332</v>
+        <v>5.145763333333321</v>
       </c>
     </row>
     <row r="38">
@@ -795,7 +795,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C38">
-        <v>14.73049333333332</v>
+        <v>5.025569999999979</v>
       </c>
     </row>
     <row r="39">
@@ -806,7 +806,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C39">
-        <v>14.73049333333332</v>
+        <v>4.679593333333287</v>
       </c>
     </row>
     <row r="40">
@@ -817,7 +817,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C40">
-        <v>14.73049333333332</v>
+        <v>4.809279999999963</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C41">
-        <v>14.73049333333332</v>
+        <v>4.9528999999999614</v>
       </c>
     </row>
     <row r="42">
@@ -839,7 +839,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C42">
-        <v>14.73049333333332</v>
+        <v>6.536176666666639</v>
       </c>
     </row>
     <row r="43">
@@ -850,7 +850,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C43">
-        <v>14.73049333333332</v>
+        <v>5.498446666666628</v>
       </c>
     </row>
     <row r="44">
@@ -861,7 +861,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C44">
-        <v>14.73049333333332</v>
+        <v>6.344276666666625</v>
       </c>
     </row>
     <row r="45">
@@ -872,7 +872,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C45">
-        <v>14.73049333333332</v>
+        <v>6.344276666666625</v>
       </c>
     </row>
     <row r="46">
@@ -883,7 +883,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C46">
-        <v>14.73049333333332</v>
+        <v>7.788006666666641</v>
       </c>
     </row>
     <row r="47">
@@ -894,7 +894,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C47">
-        <v>14.73049333333332</v>
+        <v>7.619196666666653</v>
       </c>
     </row>
     <row r="48">
@@ -905,7 +905,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C48">
-        <v>14.73049333333332</v>
+        <v>7.961276666666663</v>
       </c>
     </row>
     <row r="49">
@@ -916,7 +916,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C49">
-        <v>14.73049333333332</v>
+        <v>7.488589999999988</v>
       </c>
     </row>
     <row r="50">
@@ -927,7 +927,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C50">
-        <v>14.73049333333332</v>
+        <v>6.382066666666655</v>
       </c>
     </row>
     <row r="51">
@@ -938,7 +938,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C51">
-        <v>14.73049333333332</v>
+        <v>6.051329999999988</v>
       </c>
     </row>
     <row r="52">
@@ -949,7 +949,7 @@
         <v>-0.01</v>
       </c>
       <c r="C52">
-        <v>15.357859999999999</v>
+        <v>14.394110000000069</v>
       </c>
     </row>
     <row r="53">
@@ -960,7 +960,7 @@
         <v>-0.012</v>
       </c>
       <c r="C53">
-        <v>15.584810000000024</v>
+        <v>14.984703333333337</v>
       </c>
     </row>
     <row r="54">
@@ -971,7 +971,7 @@
         <v>-0.014</v>
       </c>
       <c r="C54">
-        <v>15.584810000000024</v>
+        <v>12.234356666666656</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         <v>-0.016</v>
       </c>
       <c r="C55">
-        <v>15.584810000000024</v>
+        <v>12.537573333333304</v>
       </c>
     </row>
     <row r="56">
@@ -993,7 +993,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C56">
-        <v>15.584810000000024</v>
+        <v>10.55883666666665</v>
       </c>
     </row>
     <row r="57">
@@ -1004,7 +1004,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C57">
-        <v>15.584810000000024</v>
+        <v>10.617776666666657</v>
       </c>
     </row>
     <row r="58">
@@ -1015,7 +1015,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C58">
-        <v>15.584810000000024</v>
+        <v>9.05743000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1026,7 +1026,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C59">
-        <v>15.584810000000024</v>
+        <v>8.016050000000007</v>
       </c>
     </row>
     <row r="60">
@@ -1037,7 +1037,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C60">
-        <v>15.584810000000024</v>
+        <v>8.268800000000018</v>
       </c>
     </row>
     <row r="61">
@@ -1048,7 +1048,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C61">
-        <v>15.584810000000024</v>
+        <v>8.304836666666688</v>
       </c>
     </row>
     <row r="62">
@@ -1059,7 +1059,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C62">
-        <v>15.584810000000024</v>
+        <v>6.519299999999988</v>
       </c>
     </row>
     <row r="63">
@@ -1070,7 +1070,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C63">
-        <v>15.584810000000024</v>
+        <v>5.646800000000004</v>
       </c>
     </row>
     <row r="64">
@@ -1081,7 +1081,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C64">
-        <v>15.584810000000024</v>
+        <v>5.1493499999999885</v>
       </c>
     </row>
     <row r="65">
@@ -1092,7 +1092,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C65">
-        <v>15.584810000000024</v>
+        <v>5.2790366666666655</v>
       </c>
     </row>
     <row r="66">
@@ -1103,7 +1103,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C66">
-        <v>15.584810000000024</v>
+        <v>5.422656666666663</v>
       </c>
     </row>
     <row r="67">
@@ -1114,7 +1114,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C67">
-        <v>15.584810000000024</v>
+        <v>7.003493333333324</v>
       </c>
     </row>
     <row r="68">
@@ -1125,7 +1125,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C68">
-        <v>15.584810000000024</v>
+        <v>6.039896666666645</v>
       </c>
     </row>
     <row r="69">
@@ -1136,7 +1136,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C69">
-        <v>15.584810000000024</v>
+        <v>6.806469999999972</v>
       </c>
     </row>
     <row r="70">
@@ -1147,7 +1147,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C70">
-        <v>15.584810000000024</v>
+        <v>6.806469999999972</v>
       </c>
     </row>
     <row r="71">
@@ -1158,7 +1158,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C71">
-        <v>15.584810000000024</v>
+        <v>8.288646666666637</v>
       </c>
     </row>
     <row r="72">
@@ -1169,7 +1169,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C72">
-        <v>15.584810000000024</v>
+        <v>8.070873333333338</v>
       </c>
     </row>
     <row r="73">
@@ -1180,7 +1180,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C73">
-        <v>15.584810000000024</v>
+        <v>8.41295333333333</v>
       </c>
     </row>
     <row r="74">
@@ -1191,7 +1191,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C74">
-        <v>15.584810000000024</v>
+        <v>7.935689999999984</v>
       </c>
     </row>
     <row r="75">
@@ -1202,7 +1202,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C75">
-        <v>15.584810000000024</v>
+        <v>6.729259999999991</v>
       </c>
     </row>
     <row r="76">
@@ -1213,7 +1213,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C76">
-        <v>15.584810000000024</v>
+        <v>6.400056666666652</v>
       </c>
     </row>
     <row r="77">
@@ -1224,7 +1224,7 @@
         <v>-0.01</v>
       </c>
       <c r="C77">
-        <v>17.32429666666663</v>
+        <v>15.406710000000052</v>
       </c>
     </row>
     <row r="78">
@@ -1235,7 +1235,7 @@
         <v>-0.012</v>
       </c>
       <c r="C78">
-        <v>17.32429666666663</v>
+        <v>15.934423333333294</v>
       </c>
     </row>
     <row r="79">
@@ -1246,7 +1246,7 @@
         <v>-0.014</v>
       </c>
       <c r="C79">
-        <v>17.32429666666663</v>
+        <v>13.040466666666628</v>
       </c>
     </row>
     <row r="80">
@@ -1257,7 +1257,7 @@
         <v>-0.016</v>
       </c>
       <c r="C80">
-        <v>17.32429666666663</v>
+        <v>13.319433333333297</v>
       </c>
     </row>
     <row r="81">
@@ -1268,7 +1268,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C81">
-        <v>17.32429666666663</v>
+        <v>11.383799999999951</v>
       </c>
     </row>
     <row r="82">
@@ -1279,7 +1279,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C82">
-        <v>17.32429666666663</v>
+        <v>11.413146666666648</v>
       </c>
     </row>
     <row r="83">
@@ -1290,7 +1290,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C83">
-        <v>17.32429666666663</v>
+        <v>9.697389999999965</v>
       </c>
     </row>
     <row r="84">
@@ -1301,7 +1301,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C84">
-        <v>17.32429666666663</v>
+        <v>8.501453333333302</v>
       </c>
     </row>
     <row r="85">
@@ -1312,7 +1312,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C85">
-        <v>17.32429666666663</v>
+        <v>8.78843333333335</v>
       </c>
     </row>
     <row r="86">
@@ -1323,7 +1323,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C86">
-        <v>17.32429666666663</v>
+        <v>8.82447000000002</v>
       </c>
     </row>
     <row r="87">
@@ -1334,7 +1334,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C87">
-        <v>17.32429666666663</v>
+        <v>7.038933333333337</v>
       </c>
     </row>
     <row r="88">
@@ -1345,7 +1345,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C88">
-        <v>17.32429666666663</v>
+        <v>5.913863333333325</v>
       </c>
     </row>
     <row r="89">
@@ -1356,7 +1356,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C89">
-        <v>17.32429666666663</v>
+        <v>5.416413333333328</v>
       </c>
     </row>
     <row r="90">
@@ -1367,7 +1367,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C90">
-        <v>17.32429666666663</v>
+        <v>5.546099999999987</v>
       </c>
     </row>
     <row r="91">
@@ -1378,7 +1378,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C91">
-        <v>17.32429666666663</v>
+        <v>5.689720000000004</v>
       </c>
     </row>
     <row r="92">
@@ -1389,7 +1389,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C92">
-        <v>17.32429666666663</v>
+        <v>7.125746666666677</v>
       </c>
     </row>
     <row r="93">
@@ -1400,7 +1400,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C93">
-        <v>17.32429666666663</v>
+        <v>6.05459666666665</v>
       </c>
     </row>
     <row r="94">
@@ -1411,7 +1411,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C94">
-        <v>17.32429666666663</v>
+        <v>6.8779899999999925</v>
       </c>
     </row>
     <row r="95">
@@ -1422,7 +1422,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C95">
-        <v>17.32429666666663</v>
+        <v>6.8779899999999925</v>
       </c>
     </row>
     <row r="96">
@@ -1433,7 +1433,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C96">
-        <v>17.32429666666663</v>
+        <v>8.280909999999988</v>
       </c>
     </row>
     <row r="97">
@@ -1444,7 +1444,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C97">
-        <v>17.32429666666663</v>
+        <v>8.083123333333333</v>
       </c>
     </row>
     <row r="98">
@@ -1455,7 +1455,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C98">
-        <v>17.32429666666663</v>
+        <v>8.425203333333343</v>
       </c>
     </row>
     <row r="99">
@@ -1466,7 +1466,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C99">
-        <v>17.32429666666663</v>
+        <v>7.89897666666665</v>
       </c>
     </row>
     <row r="100">
@@ -1477,7 +1477,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C100">
-        <v>17.32429666666663</v>
+        <v>6.692546666666659</v>
       </c>
     </row>
     <row r="101">
@@ -1488,7 +1488,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C101">
-        <v>17.32429666666663</v>
+        <v>6.363343333333319</v>
       </c>
     </row>
     <row r="102">
@@ -1499,7 +1499,7 @@
         <v>-0.01</v>
       </c>
       <c r="C102">
-        <v>17.89092333333334</v>
+        <v>16.920150000000053</v>
       </c>
     </row>
     <row r="103">
@@ -1510,7 +1510,7 @@
         <v>-0.012</v>
       </c>
       <c r="C103">
-        <v>17.89092333333334</v>
+        <v>17.343059999999998</v>
       </c>
     </row>
     <row r="104">
@@ -1521,7 +1521,7 @@
         <v>-0.014</v>
       </c>
       <c r="C104">
-        <v>17.89092333333334</v>
+        <v>14.177259999999988</v>
       </c>
     </row>
     <row r="105">
@@ -1532,7 +1532,7 @@
         <v>-0.016</v>
       </c>
       <c r="C105">
-        <v>17.89092333333334</v>
+        <v>14.267163333333277</v>
       </c>
     </row>
     <row r="106">
@@ -1543,7 +1543,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C106">
-        <v>17.89092333333334</v>
+        <v>12.270689999999982</v>
       </c>
     </row>
     <row r="107">
@@ -1554,7 +1554,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C107">
-        <v>17.89092333333334</v>
+        <v>12.289066666666674</v>
       </c>
     </row>
     <row r="108">
@@ -1565,7 +1565,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C108">
-        <v>17.89092333333334</v>
+        <v>10.526056666666667</v>
       </c>
     </row>
     <row r="109">
@@ -1576,7 +1576,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C109">
-        <v>17.89092333333334</v>
+        <v>9.074339999999967</v>
       </c>
     </row>
     <row r="110">
@@ -1587,7 +1587,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C110">
-        <v>17.89092333333334</v>
+        <v>9.49954999999998</v>
       </c>
     </row>
     <row r="111">
@@ -1598,7 +1598,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C111">
-        <v>17.89092333333334</v>
+        <v>9.490796666666654</v>
       </c>
     </row>
     <row r="112">
@@ -1609,7 +1609,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C112">
-        <v>17.89092333333334</v>
+        <v>7.648316666666649</v>
       </c>
     </row>
     <row r="113">
@@ -1620,7 +1620,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C113">
-        <v>17.89092333333334</v>
+        <v>6.45784333333332</v>
       </c>
     </row>
     <row r="114">
@@ -1631,7 +1631,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C114">
-        <v>17.89092333333334</v>
+        <v>5.924709999999986</v>
       </c>
     </row>
     <row r="115">
@@ -1642,7 +1642,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C115">
-        <v>17.89092333333334</v>
+        <v>6.054396666666662</v>
       </c>
     </row>
     <row r="116">
@@ -1653,7 +1653,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C116">
-        <v>17.89092333333334</v>
+        <v>6.1980166666666605</v>
       </c>
     </row>
     <row r="117">
@@ -1664,7 +1664,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C117">
-        <v>17.89092333333334</v>
+        <v>7.561673333333337</v>
       </c>
     </row>
     <row r="118">
@@ -1675,7 +1675,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C118">
-        <v>17.89092333333334</v>
+        <v>6.097329999999981</v>
       </c>
     </row>
     <row r="119">
@@ -1686,7 +1686,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C119">
-        <v>17.89092333333334</v>
+        <v>6.924816666666629</v>
       </c>
     </row>
     <row r="120">
@@ -1697,7 +1697,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C120">
-        <v>17.89092333333334</v>
+        <v>6.924816666666629</v>
       </c>
     </row>
     <row r="121">
@@ -1708,7 +1708,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C121">
-        <v>17.89092333333334</v>
+        <v>8.38455666666664</v>
       </c>
     </row>
     <row r="122">
@@ -1719,7 +1719,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C122">
-        <v>17.89092333333334</v>
+        <v>8.107513333333333</v>
       </c>
     </row>
     <row r="123">
@@ -1730,7 +1730,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C123">
-        <v>17.89092333333334</v>
+        <v>8.449593333333326</v>
       </c>
     </row>
     <row r="124">
@@ -1741,7 +1741,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C124">
-        <v>17.89092333333334</v>
+        <v>7.923366666666652</v>
       </c>
     </row>
     <row r="125">
@@ -1752,7 +1752,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C125">
-        <v>17.89092333333334</v>
+        <v>6.716936666666659</v>
       </c>
     </row>
     <row r="126">
@@ -1763,7 +1763,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C126">
-        <v>17.89092333333334</v>
+        <v>6.38773333333332</v>
       </c>
     </row>
     <row r="127">
@@ -1774,7 +1774,7 @@
         <v>-0.01</v>
       </c>
       <c r="C127">
-        <v>19.771490000000046</v>
+        <v>20.18065666666672</v>
       </c>
     </row>
     <row r="128">
@@ -1785,7 +1785,7 @@
         <v>-0.012</v>
       </c>
       <c r="C128">
-        <v>19.771490000000046</v>
+        <v>21.04655333333331</v>
       </c>
     </row>
     <row r="129">
@@ -1796,7 +1796,7 @@
         <v>-0.014</v>
       </c>
       <c r="C129">
-        <v>19.771490000000046</v>
+        <v>16.717053333333315</v>
       </c>
     </row>
     <row r="130">
@@ -1807,7 +1807,7 @@
         <v>-0.016</v>
       </c>
       <c r="C130">
-        <v>19.771490000000046</v>
+        <v>16.228879999999986</v>
       </c>
     </row>
     <row r="131">
@@ -1818,7 +1818,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C131">
-        <v>19.771490000000046</v>
+        <v>14.07258666666661</v>
       </c>
     </row>
     <row r="132">
@@ -1829,7 +1829,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C132">
-        <v>19.771490000000046</v>
+        <v>14.480346666666662</v>
       </c>
     </row>
     <row r="133">
@@ -1840,7 +1840,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C133">
-        <v>19.771490000000046</v>
+        <v>12.08165999999998</v>
       </c>
     </row>
     <row r="134">
@@ -1851,7 +1851,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C134">
-        <v>19.771490000000046</v>
+        <v>10.522439999999978</v>
       </c>
     </row>
     <row r="135">
@@ -1862,7 +1862,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C135">
-        <v>19.771490000000046</v>
+        <v>11.733833333333337</v>
       </c>
     </row>
     <row r="136">
@@ -1873,7 +1873,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C136">
-        <v>19.771490000000046</v>
+        <v>11.792846666666625</v>
       </c>
     </row>
     <row r="137">
@@ -1884,7 +1884,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C137">
-        <v>19.771490000000046</v>
+        <v>9.24079333333331</v>
       </c>
     </row>
     <row r="138">
@@ -1895,7 +1895,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C138">
-        <v>19.771490000000046</v>
+        <v>7.9607633333333</v>
       </c>
     </row>
     <row r="139">
@@ -1906,7 +1906,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C139">
-        <v>19.771490000000046</v>
+        <v>7.27131666666664</v>
       </c>
     </row>
     <row r="140">
@@ -1917,7 +1917,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C140">
-        <v>19.771490000000046</v>
+        <v>7.401003333333317</v>
       </c>
     </row>
     <row r="141">
@@ -1928,7 +1928,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C141">
-        <v>19.771490000000046</v>
+        <v>7.544623333333315</v>
       </c>
     </row>
     <row r="142">
@@ -1939,7 +1939,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C142">
-        <v>19.771490000000046</v>
+        <v>8.736149999999972</v>
       </c>
     </row>
     <row r="143">
@@ -1950,7 +1950,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C143">
-        <v>19.771490000000046</v>
+        <v>6.80962333333332</v>
       </c>
     </row>
     <row r="144">
@@ -1961,7 +1961,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C144">
-        <v>19.771490000000046</v>
+        <v>7.321133333333288</v>
       </c>
     </row>
     <row r="145">
@@ -1972,7 +1972,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C145">
-        <v>19.771490000000046</v>
+        <v>7.321133333333288</v>
       </c>
     </row>
     <row r="146">
@@ -1983,7 +1983,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C146">
-        <v>19.771490000000046</v>
+        <v>8.539023333333299</v>
       </c>
     </row>
     <row r="147">
@@ -1994,7 +1994,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C147">
-        <v>19.771490000000046</v>
+        <v>8.18886333333334</v>
       </c>
     </row>
     <row r="148">
@@ -2005,7 +2005,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C148">
-        <v>19.771490000000046</v>
+        <v>8.530943333333331</v>
       </c>
     </row>
     <row r="149">
@@ -2016,7 +2016,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C149">
-        <v>19.771490000000046</v>
+        <v>7.94544666666665</v>
       </c>
     </row>
     <row r="150">
@@ -2027,7 +2027,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C150">
-        <v>19.771490000000046</v>
+        <v>6.739016666666657</v>
       </c>
     </row>
     <row r="151">
@@ -2038,7 +2038,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C151">
-        <v>19.771490000000046</v>
+        <v>6.409813333333318</v>
       </c>
     </row>
     <row r="152">
@@ -2049,7 +2049,7 @@
         <v>-0.01</v>
       </c>
       <c r="C152">
-        <v>20.128259999999994</v>
+        <v>20.377170000000092</v>
       </c>
     </row>
     <row r="153">
@@ -2060,7 +2060,7 @@
         <v>-0.012</v>
       </c>
       <c r="C153">
-        <v>20.128259999999994</v>
+        <v>20.856066666666646</v>
       </c>
     </row>
     <row r="154">
@@ -2071,7 +2071,7 @@
         <v>-0.014</v>
       </c>
       <c r="C154">
-        <v>20.128259999999994</v>
+        <v>17.356040000000007</v>
       </c>
     </row>
     <row r="155">
@@ -2082,7 +2082,7 @@
         <v>-0.016</v>
       </c>
       <c r="C155">
-        <v>20.128259999999994</v>
+        <v>16.929916666666635</v>
       </c>
     </row>
     <row r="156">
@@ -2093,7 +2093,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C156">
-        <v>20.128259999999994</v>
+        <v>14.42489333333333</v>
       </c>
     </row>
     <row r="157">
@@ -2104,7 +2104,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C157">
-        <v>20.128259999999994</v>
+        <v>14.774270000000001</v>
       </c>
     </row>
     <row r="158">
@@ -2115,7 +2115,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C158">
-        <v>20.128259999999994</v>
+        <v>12.142810000000017</v>
       </c>
     </row>
     <row r="159">
@@ -2126,7 +2126,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C159">
-        <v>20.128259999999994</v>
+        <v>10.250226666666663</v>
       </c>
     </row>
     <row r="160">
@@ -2137,7 +2137,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C160">
-        <v>20.128259999999994</v>
+        <v>11.433736666666693</v>
       </c>
     </row>
     <row r="161">
@@ -2148,7 +2148,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C161">
-        <v>20.128259999999994</v>
+        <v>11.878786666666693</v>
       </c>
     </row>
     <row r="162">
@@ -2159,7 +2159,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C162">
-        <v>20.128259999999994</v>
+        <v>8.759113333333326</v>
       </c>
     </row>
     <row r="163">
@@ -2170,7 +2170,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C163">
-        <v>20.128259999999994</v>
+        <v>7.215846666666683</v>
       </c>
     </row>
     <row r="164">
@@ -2181,7 +2181,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C164">
-        <v>20.128259999999994</v>
+        <v>8.012203333333332</v>
       </c>
     </row>
     <row r="165">
@@ -2192,7 +2192,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C165">
-        <v>20.128259999999994</v>
+        <v>8.14188999999999</v>
       </c>
     </row>
     <row r="166">
@@ -2203,7 +2203,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C166">
-        <v>20.128259999999994</v>
+        <v>8.285510000000007</v>
       </c>
     </row>
     <row r="167">
@@ -2214,7 +2214,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C167">
-        <v>20.128259999999994</v>
+        <v>9.380830000000023</v>
       </c>
     </row>
     <row r="168">
@@ -2225,7 +2225,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C168">
-        <v>20.128259999999994</v>
+        <v>6.979469999999992</v>
       </c>
     </row>
     <row r="169">
@@ -2236,7 +2236,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C169">
-        <v>20.128259999999994</v>
+        <v>7.471379999999991</v>
       </c>
     </row>
     <row r="170">
@@ -2247,7 +2247,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C170">
-        <v>20.128259999999994</v>
+        <v>7.471379999999991</v>
       </c>
     </row>
     <row r="171">
@@ -2258,7 +2258,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C171">
-        <v>20.128259999999994</v>
+        <v>8.619236666666628</v>
       </c>
     </row>
     <row r="172">
@@ -2269,7 +2269,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C172">
-        <v>20.128259999999994</v>
+        <v>8.15716333333334</v>
       </c>
     </row>
     <row r="173">
@@ -2280,7 +2280,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C173">
-        <v>20.128259999999994</v>
+        <v>8.499243333333348</v>
       </c>
     </row>
     <row r="174">
@@ -2291,7 +2291,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C174">
-        <v>20.128259999999994</v>
+        <v>7.913746666666649</v>
       </c>
     </row>
     <row r="175">
@@ -2302,7 +2302,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C175">
-        <v>20.128259999999994</v>
+        <v>6.7073166666666575</v>
       </c>
     </row>
     <row r="176">
@@ -2313,7 +2313,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C176">
-        <v>20.128259999999994</v>
+        <v>6.378113333333317</v>
       </c>
     </row>
     <row r="177">
@@ -2324,7 +2324,7 @@
         <v>-0.01</v>
       </c>
       <c r="C177">
-        <v>21.612253333333342</v>
+        <v>21.94607000000004</v>
       </c>
     </row>
     <row r="178">
@@ -2335,7 +2335,7 @@
         <v>-0.012</v>
       </c>
       <c r="C178">
-        <v>21.612253333333342</v>
+        <v>23.015536666666627</v>
       </c>
     </row>
     <row r="179">
@@ -2346,7 +2346,7 @@
         <v>-0.014</v>
       </c>
       <c r="C179">
-        <v>21.612253333333342</v>
+        <v>18.49759666666667</v>
       </c>
     </row>
     <row r="180">
@@ -2357,7 +2357,7 @@
         <v>-0.016</v>
       </c>
       <c r="C180">
-        <v>21.612253333333342</v>
+        <v>18.07147333333334</v>
       </c>
     </row>
     <row r="181">
@@ -2368,7 +2368,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C181">
-        <v>21.612253333333342</v>
+        <v>15.566449999999993</v>
       </c>
     </row>
     <row r="182">
@@ -2379,7 +2379,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C182">
-        <v>21.612253333333342</v>
+        <v>15.915826666666666</v>
       </c>
     </row>
     <row r="183">
@@ -2390,7 +2390,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C183">
-        <v>21.612253333333342</v>
+        <v>13.075673333333308</v>
       </c>
     </row>
     <row r="184">
@@ -2401,7 +2401,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C184">
-        <v>21.612253333333342</v>
+        <v>12.10461666666663</v>
       </c>
     </row>
     <row r="185">
@@ -2412,7 +2412,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C185">
-        <v>21.612253333333342</v>
+        <v>12.480629999999982</v>
       </c>
     </row>
     <row r="186">
@@ -2423,7 +2423,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C186">
-        <v>21.612253333333342</v>
+        <v>13.0391166666667</v>
       </c>
     </row>
     <row r="187">
@@ -2434,7 +2434,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C187">
-        <v>21.612253333333342</v>
+        <v>10.511643333333307</v>
       </c>
     </row>
     <row r="188">
@@ -2445,7 +2445,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C188">
-        <v>21.612253333333342</v>
+        <v>8.172073333333325</v>
       </c>
     </row>
     <row r="189">
@@ -2456,7 +2456,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C189">
-        <v>21.612253333333342</v>
+        <v>8.618833333333328</v>
       </c>
     </row>
     <row r="190">
@@ -2467,7 +2467,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C190">
-        <v>21.612253333333342</v>
+        <v>8.748519999999985</v>
       </c>
     </row>
     <row r="191">
@@ -2478,7 +2478,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C191">
-        <v>21.612253333333342</v>
+        <v>8.892140000000003</v>
       </c>
     </row>
     <row r="192">
@@ -2489,7 +2489,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C192">
-        <v>21.612253333333342</v>
+        <v>9.951929999999985</v>
       </c>
     </row>
     <row r="193">
@@ -2500,7 +2500,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C193">
-        <v>21.612253333333342</v>
+        <v>7.56565999999998</v>
       </c>
     </row>
     <row r="194">
@@ -2511,7 +2511,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C194">
-        <v>21.612253333333342</v>
+        <v>7.876646666666639</v>
       </c>
     </row>
     <row r="195">
@@ -2522,7 +2522,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C195">
-        <v>21.612253333333342</v>
+        <v>7.876646666666639</v>
       </c>
     </row>
     <row r="196">
@@ -2533,7 +2533,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C196">
-        <v>21.612253333333342</v>
+        <v>8.88576333333333</v>
       </c>
     </row>
     <row r="197">
@@ -2544,7 +2544,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C197">
-        <v>21.612253333333342</v>
+        <v>8.334056666666697</v>
       </c>
     </row>
     <row r="198">
@@ -2555,7 +2555,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C198">
-        <v>21.612253333333342</v>
+        <v>8.676136666666668</v>
       </c>
     </row>
     <row r="199">
@@ -2566,7 +2566,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C199">
-        <v>21.612253333333342</v>
+        <v>8.090640000000008</v>
       </c>
     </row>
     <row r="200">
@@ -2577,7 +2577,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C200">
-        <v>21.612253333333342</v>
+        <v>6.8566466666666575</v>
       </c>
     </row>
     <row r="201">
@@ -2588,7 +2588,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C201">
-        <v>21.612253333333342</v>
+        <v>6.489149999999995</v>
       </c>
     </row>
     <row r="202">
@@ -2599,7 +2599,7 @@
         <v>-0.01</v>
       </c>
       <c r="C202">
-        <v>21.845843333333352</v>
+        <v>22.09803333333334</v>
       </c>
     </row>
     <row r="203">
@@ -2610,7 +2610,7 @@
         <v>-0.012</v>
       </c>
       <c r="C203">
-        <v>21.845843333333352</v>
+        <v>23.207813333333302</v>
       </c>
     </row>
     <row r="204">
@@ -2621,7 +2621,7 @@
         <v>-0.014</v>
       </c>
       <c r="C204">
-        <v>21.845843333333352</v>
+        <v>19.209000000000003</v>
       </c>
     </row>
     <row r="205">
@@ -2632,7 +2632,7 @@
         <v>-0.016</v>
       </c>
       <c r="C205">
-        <v>21.845843333333352</v>
+        <v>18.692659999999968</v>
       </c>
     </row>
     <row r="206">
@@ -2643,7 +2643,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C206">
-        <v>21.845843333333352</v>
+        <v>16.15844333333331</v>
       </c>
     </row>
     <row r="207">
@@ -2654,7 +2654,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C207">
-        <v>21.845843333333352</v>
+        <v>16.442003333333354</v>
       </c>
     </row>
     <row r="208">
@@ -2665,7 +2665,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C208">
-        <v>21.845843333333352</v>
+        <v>13.560926666666658</v>
       </c>
     </row>
     <row r="209">
@@ -2676,7 +2676,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C209">
-        <v>21.845843333333352</v>
+        <v>11.794249999999977</v>
       </c>
     </row>
     <row r="210">
@@ -2687,7 +2687,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C210">
-        <v>21.845843333333352</v>
+        <v>13.15236333333335</v>
       </c>
     </row>
     <row r="211">
@@ -2698,7 +2698,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C211">
-        <v>21.845843333333352</v>
+        <v>13.233790000000017</v>
       </c>
     </row>
     <row r="212">
@@ -2709,7 +2709,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C212">
-        <v>21.845843333333352</v>
+        <v>9.860486666666663</v>
       </c>
     </row>
     <row r="213">
@@ -2720,7 +2720,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C213">
-        <v>21.845843333333352</v>
+        <v>8.085813333333325</v>
       </c>
     </row>
     <row r="214">
@@ -2731,7 +2731,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C214">
-        <v>21.845843333333352</v>
+        <v>9.48081666666667</v>
       </c>
     </row>
     <row r="215">
@@ -2742,7 +2742,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C215">
-        <v>21.845843333333352</v>
+        <v>9.610503333333327</v>
       </c>
     </row>
     <row r="216">
@@ -2753,7 +2753,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C216">
-        <v>21.845843333333352</v>
+        <v>9.754123333333306</v>
       </c>
     </row>
     <row r="217">
@@ -2764,7 +2764,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C217">
-        <v>21.845843333333352</v>
+        <v>10.767559999999984</v>
       </c>
     </row>
     <row r="218">
@@ -2775,7 +2775,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C218">
-        <v>21.845843333333352</v>
+        <v>8.136816666666656</v>
       </c>
     </row>
     <row r="219">
@@ -2786,7 +2786,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C219">
-        <v>21.845843333333352</v>
+        <v>8.485109999999981</v>
       </c>
     </row>
     <row r="220">
@@ -2797,7 +2797,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C220">
-        <v>21.845843333333352</v>
+        <v>8.485109999999981</v>
       </c>
     </row>
     <row r="221">
@@ -2808,7 +2808,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C221">
-        <v>21.845843333333352</v>
+        <v>9.52160333333332</v>
       </c>
     </row>
     <row r="222">
@@ -2819,7 +2819,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C222">
-        <v>21.845843333333352</v>
+        <v>8.788973333333349</v>
       </c>
     </row>
     <row r="223">
@@ -2830,7 +2830,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C223">
-        <v>21.845843333333352</v>
+        <v>9.131053333333321</v>
       </c>
     </row>
     <row r="224">
@@ -2841,7 +2841,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C224">
-        <v>21.845843333333352</v>
+        <v>8.10435666666666</v>
       </c>
     </row>
     <row r="225">
@@ -2852,7 +2852,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C225">
-        <v>21.845843333333352</v>
+        <v>6.870363333333331</v>
       </c>
     </row>
     <row r="226">
@@ -2863,7 +2863,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C226">
-        <v>21.845843333333352</v>
+        <v>6.502866666666667</v>
       </c>
     </row>
     <row r="227">
@@ -2874,7 +2874,7 @@
         <v>-0.01</v>
       </c>
       <c r="C227">
-        <v>23.169033333333346</v>
+        <v>24.20846000000002</v>
       </c>
     </row>
     <row r="228">
@@ -2885,7 +2885,7 @@
         <v>-0.012</v>
       </c>
       <c r="C228">
-        <v>23.169033333333346</v>
+        <v>24.59465333333331</v>
       </c>
     </row>
     <row r="229">
@@ -2896,7 +2896,7 @@
         <v>-0.014</v>
       </c>
       <c r="C229">
-        <v>23.169033333333346</v>
+        <v>20.509140000000002</v>
       </c>
     </row>
     <row r="230">
@@ -2907,7 +2907,7 @@
         <v>-0.016</v>
       </c>
       <c r="C230">
-        <v>23.169033333333346</v>
+        <v>19.87168000000001</v>
       </c>
     </row>
     <row r="231">
@@ -2918,7 +2918,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C231">
-        <v>23.169033333333346</v>
+        <v>16.857896666666665</v>
       </c>
     </row>
     <row r="232">
@@ -2929,7 +2929,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C232">
-        <v>23.169033333333346</v>
+        <v>17.13369666666667</v>
       </c>
     </row>
     <row r="233">
@@ -2940,7 +2940,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C233">
-        <v>23.169033333333346</v>
+        <v>14.209613333333342</v>
       </c>
     </row>
     <row r="234">
@@ -2951,7 +2951,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C234">
-        <v>23.169033333333346</v>
+        <v>12.34508333333332</v>
       </c>
     </row>
     <row r="235">
@@ -2962,7 +2962,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C235">
-        <v>23.169033333333346</v>
+        <v>13.712020000000013</v>
       </c>
     </row>
     <row r="236">
@@ -2973,7 +2973,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C236">
-        <v>23.169033333333346</v>
+        <v>13.7934466666667</v>
       </c>
     </row>
     <row r="237">
@@ -2984,7 +2984,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C237">
-        <v>23.169033333333346</v>
+        <v>10.369639999999986</v>
       </c>
     </row>
     <row r="238">
@@ -2995,7 +2995,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C238">
-        <v>23.169033333333346</v>
+        <v>8.594966666666682</v>
       </c>
     </row>
     <row r="239">
@@ -3006,7 +3006,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C239">
-        <v>23.169033333333346</v>
+        <v>9.989969999999989</v>
       </c>
     </row>
     <row r="240">
@@ -3017,7 +3017,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C240">
-        <v>23.169033333333346</v>
+        <v>10.119656666666668</v>
       </c>
     </row>
     <row r="241">
@@ -3028,7 +3028,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C241">
-        <v>23.169033333333346</v>
+        <v>10.263276666666666</v>
       </c>
     </row>
     <row r="242">
@@ -3039,7 +3039,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C242">
-        <v>23.169033333333346</v>
+        <v>11.22696000000002</v>
       </c>
     </row>
     <row r="243">
@@ -3050,7 +3050,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C243">
-        <v>23.169033333333346</v>
+        <v>8.526966666666661</v>
       </c>
     </row>
     <row r="244">
@@ -3061,7 +3061,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C244">
-        <v>23.169033333333346</v>
+        <v>8.792869999999994</v>
       </c>
     </row>
     <row r="245">
@@ -3072,7 +3072,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C245">
-        <v>23.169033333333346</v>
+        <v>8.792869999999994</v>
       </c>
     </row>
     <row r="246">
@@ -3083,7 +3083,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C246">
-        <v>23.169033333333346</v>
+        <v>9.802656666666659</v>
       </c>
     </row>
     <row r="247">
@@ -3094,7 +3094,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C247">
-        <v>23.169033333333346</v>
+        <v>9.070026666666688</v>
       </c>
     </row>
     <row r="248">
@@ -3105,7 +3105,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C248">
-        <v>23.169033333333346</v>
+        <v>9.412106666666698</v>
       </c>
     </row>
     <row r="249">
@@ -3116,7 +3116,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C249">
-        <v>23.169033333333346</v>
+        <v>8.385410000000016</v>
       </c>
     </row>
     <row r="250">
@@ -3127,7 +3127,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C250">
-        <v>23.169033333333346</v>
+        <v>7.106836666666652</v>
       </c>
     </row>
     <row r="251">
@@ -3138,7 +3138,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C251">
-        <v>23.169033333333346</v>
+        <v>6.711776666666671</v>
       </c>
     </row>
     <row r="252">
@@ -3149,7 +3149,7 @@
         <v>-0.01</v>
       </c>
       <c r="C252">
-        <v>24.52458333333338</v>
+        <v>25.60634333333337</v>
       </c>
     </row>
     <row r="253">
@@ -3160,7 +3160,7 @@
         <v>-0.012</v>
       </c>
       <c r="C253">
-        <v>24.52458333333338</v>
+        <v>25.992536666666695</v>
       </c>
     </row>
     <row r="254">
@@ -3171,7 +3171,7 @@
         <v>-0.014</v>
       </c>
       <c r="C254">
-        <v>24.52458333333338</v>
+        <v>22.99368</v>
       </c>
     </row>
     <row r="255">
@@ -3182,7 +3182,7 @@
         <v>-0.016</v>
       </c>
       <c r="C255">
-        <v>24.52458333333338</v>
+        <v>21.145980000000048</v>
       </c>
     </row>
     <row r="256">
@@ -3193,7 +3193,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C256">
-        <v>24.52458333333338</v>
+        <v>17.938903333333354</v>
       </c>
     </row>
     <row r="257">
@@ -3204,7 +3204,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C257">
-        <v>24.52458333333338</v>
+        <v>18.094516666666703</v>
       </c>
     </row>
     <row r="258">
@@ -3215,7 +3215,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C258">
-        <v>24.52458333333338</v>
+        <v>14.730839999999981</v>
       </c>
     </row>
     <row r="259">
@@ -3226,7 +3226,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C259">
-        <v>24.52458333333338</v>
+        <v>13.759106666666677</v>
       </c>
     </row>
     <row r="260">
@@ -3237,7 +3237,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C260">
-        <v>24.52458333333338</v>
+        <v>13.909230000000017</v>
       </c>
     </row>
     <row r="261">
@@ -3248,7 +3248,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C261">
-        <v>24.52458333333338</v>
+        <v>14.222106666666717</v>
       </c>
     </row>
     <row r="262">
@@ -3259,7 +3259,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C262">
-        <v>24.52458333333338</v>
+        <v>11.83258333333337</v>
       </c>
     </row>
     <row r="263">
@@ -3270,7 +3270,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C263">
-        <v>24.52458333333338</v>
+        <v>8.911536666666695</v>
       </c>
     </row>
     <row r="264">
@@ -3281,7 +3281,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C264">
-        <v>24.52458333333338</v>
+        <v>10.223696666666664</v>
       </c>
     </row>
     <row r="265">
@@ -3292,7 +3292,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C265">
-        <v>24.52458333333338</v>
+        <v>10.35338333333334</v>
       </c>
     </row>
     <row r="266">
@@ -3303,7 +3303,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C266">
-        <v>24.52458333333338</v>
+        <v>10.497003333333339</v>
       </c>
     </row>
     <row r="267">
@@ -3314,7 +3314,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C267">
-        <v>24.52458333333338</v>
+        <v>11.4409</v>
       </c>
     </row>
     <row r="268">
@@ -3325,7 +3325,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C268">
-        <v>24.52458333333338</v>
+        <v>8.720703333333327</v>
       </c>
     </row>
     <row r="269">
@@ -3336,7 +3336,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C269">
-        <v>24.52458333333338</v>
+        <v>8.962020000000015</v>
       </c>
     </row>
     <row r="270">
@@ -3347,7 +3347,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C270">
-        <v>24.52458333333338</v>
+        <v>8.962020000000015</v>
       </c>
     </row>
     <row r="271">
@@ -3358,7 +3358,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C271">
-        <v>24.52458333333338</v>
+        <v>9.969970000000009</v>
       </c>
     </row>
     <row r="272">
@@ -3369,7 +3369,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C272">
-        <v>24.52458333333338</v>
+        <v>9.237340000000017</v>
       </c>
     </row>
     <row r="273">
@@ -3380,7 +3380,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C273">
-        <v>24.52458333333338</v>
+        <v>9.579420000000027</v>
       </c>
     </row>
     <row r="274">
@@ -3391,7 +3391,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C274">
-        <v>24.52458333333338</v>
+        <v>8.552723333333347</v>
       </c>
     </row>
     <row r="275">
@@ -3402,7 +3402,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C275">
-        <v>24.52458333333338</v>
+        <v>7.204206666666664</v>
       </c>
     </row>
     <row r="276">
@@ -3413,7 +3413,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C276">
-        <v>24.52458333333338</v>
+        <v>6.820786666666663</v>
       </c>
     </row>
     <row r="277">
@@ -3424,7 +3424,7 @@
         <v>-0.01</v>
       </c>
       <c r="C277">
-        <v>23.77764666666667</v>
+        <v>25.076890000000013</v>
       </c>
     </row>
     <row r="278">
@@ -3435,7 +3435,7 @@
         <v>-0.012</v>
       </c>
       <c r="C278">
-        <v>23.77764666666667</v>
+        <v>25.178750000000015</v>
       </c>
     </row>
     <row r="279">
@@ -3446,7 +3446,7 @@
         <v>-0.014</v>
       </c>
       <c r="C279">
-        <v>23.77764666666667</v>
+        <v>23.999646666666667</v>
       </c>
     </row>
     <row r="280">
@@ -3457,7 +3457,7 @@
         <v>-0.016</v>
       </c>
       <c r="C280">
-        <v>23.77764666666667</v>
+        <v>22.476280000000013</v>
       </c>
     </row>
     <row r="281">
@@ -3468,7 +3468,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C281">
-        <v>23.77764666666667</v>
+        <v>19.312940000000026</v>
       </c>
     </row>
     <row r="282">
@@ -3479,7 +3479,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C282">
-        <v>23.77764666666667</v>
+        <v>19.410986666666684</v>
       </c>
     </row>
     <row r="283">
@@ -3490,7 +3490,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C283">
-        <v>23.77764666666667</v>
+        <v>15.762676666666684</v>
       </c>
     </row>
     <row r="284">
@@ -3501,7 +3501,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C284">
-        <v>23.77764666666667</v>
+        <v>14.554693333333338</v>
       </c>
     </row>
     <row r="285">
@@ -3512,7 +3512,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C285">
-        <v>23.77764666666667</v>
+        <v>14.704816666666678</v>
       </c>
     </row>
     <row r="286">
@@ -3523,7 +3523,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C286">
-        <v>23.77764666666667</v>
+        <v>15.017693333333378</v>
       </c>
     </row>
     <row r="287">
@@ -3534,7 +3534,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C287">
-        <v>23.77764666666667</v>
+        <v>12.628170000000011</v>
       </c>
     </row>
     <row r="288">
@@ -3545,7 +3545,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C288">
-        <v>23.77764666666667</v>
+        <v>9.617520000000033</v>
       </c>
     </row>
     <row r="289">
@@ -3556,7 +3556,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C289">
-        <v>23.77764666666667</v>
+        <v>10.92968</v>
       </c>
     </row>
     <row r="290">
@@ -3567,7 +3567,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C290">
-        <v>23.77764666666667</v>
+        <v>11.059366666666657</v>
       </c>
     </row>
     <row r="291">
@@ -3578,7 +3578,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C291">
-        <v>23.77764666666667</v>
+        <v>11.202986666666655</v>
       </c>
     </row>
     <row r="292">
@@ -3589,7 +3589,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C292">
-        <v>23.77764666666667</v>
+        <v>11.992410000000007</v>
       </c>
     </row>
     <row r="293">
@@ -3600,7 +3600,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C293">
-        <v>23.77764666666667</v>
+        <v>8.953503333333344</v>
       </c>
     </row>
     <row r="294">
@@ -3611,7 +3611,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C294">
-        <v>23.77764666666667</v>
+        <v>9.154830000000024</v>
       </c>
     </row>
     <row r="295">
@@ -3622,7 +3622,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C295">
-        <v>23.77764666666667</v>
+        <v>9.154830000000024</v>
       </c>
     </row>
     <row r="296">
@@ -3633,7 +3633,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C296">
-        <v>23.77764666666667</v>
+        <v>10.117990000000002</v>
       </c>
     </row>
     <row r="297">
@@ -3644,7 +3644,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C297">
-        <v>23.77764666666667</v>
+        <v>9.315690000000036</v>
       </c>
     </row>
     <row r="298">
@@ -3655,7 +3655,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C298">
-        <v>23.77764666666667</v>
+        <v>9.657770000000028</v>
       </c>
     </row>
     <row r="299">
@@ -3666,7 +3666,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C299">
-        <v>23.77764666666667</v>
+        <v>8.571603333333352</v>
       </c>
     </row>
     <row r="300">
@@ -3677,7 +3677,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C300">
-        <v>23.77764666666667</v>
+        <v>7.22308666666667</v>
       </c>
     </row>
     <row r="301">
@@ -3688,7 +3688,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C301">
-        <v>23.77764666666667</v>
+        <v>6.839666666666669</v>
       </c>
     </row>
     <row r="302">
@@ -3699,7 +3699,7 @@
         <v>-0.01</v>
       </c>
       <c r="C302">
-        <v>24.77760333333333</v>
+        <v>27.813103333333345</v>
       </c>
     </row>
     <row r="303">
@@ -3710,7 +3710,7 @@
         <v>-0.012</v>
       </c>
       <c r="C303">
-        <v>24.77760333333333</v>
+        <v>28.06158666666666</v>
       </c>
     </row>
     <row r="304">
@@ -3721,7 +3721,7 @@
         <v>-0.014</v>
       </c>
       <c r="C304">
-        <v>24.77760333333333</v>
+        <v>27.430113333333317</v>
       </c>
     </row>
     <row r="305">
@@ -3732,7 +3732,7 @@
         <v>-0.016</v>
       </c>
       <c r="C305">
-        <v>24.77760333333333</v>
+        <v>26.708786666666622</v>
       </c>
     </row>
     <row r="306">
@@ -3743,7 +3743,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C306">
-        <v>24.77760333333333</v>
+        <v>22.21505000000002</v>
       </c>
     </row>
     <row r="307">
@@ -3754,7 +3754,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C307">
-        <v>24.77760333333333</v>
+        <v>22.313096666666716</v>
       </c>
     </row>
     <row r="308">
@@ -3765,7 +3765,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C308">
-        <v>24.77760333333333</v>
+        <v>18.62909666666667</v>
       </c>
     </row>
     <row r="309">
@@ -3776,7 +3776,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C309">
-        <v>24.77760333333333</v>
+        <v>17.14928999999999</v>
       </c>
     </row>
     <row r="310">
@@ -3787,7 +3787,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C310">
-        <v>24.77760333333333</v>
+        <v>17.402323333333356</v>
       </c>
     </row>
     <row r="311">
@@ -3798,7 +3798,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C311">
-        <v>24.77760333333333</v>
+        <v>17.847373333333376</v>
       </c>
     </row>
     <row r="312">
@@ -3809,7 +3809,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C312">
-        <v>24.77760333333333</v>
+        <v>14.914046666666689</v>
       </c>
     </row>
     <row r="313">
@@ -3820,7 +3820,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C313">
-        <v>24.77760333333333</v>
+        <v>11.586483333333357</v>
       </c>
     </row>
     <row r="314">
@@ -3831,7 +3831,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C314">
-        <v>24.77760333333333</v>
+        <v>12.898643333333345</v>
       </c>
     </row>
     <row r="315">
@@ -3842,7 +3842,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C315">
-        <v>24.77760333333333</v>
+        <v>13.028330000000002</v>
       </c>
     </row>
     <row r="316">
@@ -3853,7 +3853,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C316">
-        <v>24.77760333333333</v>
+        <v>14.923710000000009</v>
       </c>
     </row>
     <row r="317">
@@ -3864,7 +3864,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C317">
-        <v>24.77760333333333</v>
+        <v>13.439913333333342</v>
       </c>
     </row>
     <row r="318">
@@ -3875,7 +3875,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C318">
-        <v>24.77760333333333</v>
+        <v>9.72847999999999</v>
       </c>
     </row>
     <row r="319">
@@ -3886,7 +3886,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C319">
-        <v>24.77760333333333</v>
+        <v>9.823039999999992</v>
       </c>
     </row>
     <row r="320">
@@ -3897,7 +3897,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C320">
-        <v>24.77760333333333</v>
+        <v>9.823039999999992</v>
       </c>
     </row>
     <row r="321">
@@ -3908,7 +3908,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C321">
-        <v>24.77760333333333</v>
+        <v>10.554783333333338</v>
       </c>
     </row>
     <row r="322">
@@ -3919,7 +3919,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C322">
-        <v>24.77760333333333</v>
+        <v>9.601450000000018</v>
       </c>
     </row>
     <row r="323">
@@ -3930,7 +3930,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C323">
-        <v>24.77760333333333</v>
+        <v>9.94353000000001</v>
       </c>
     </row>
     <row r="324">
@@ -3941,7 +3941,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C324">
-        <v>24.77760333333333</v>
+        <v>8.73329000000001</v>
       </c>
     </row>
     <row r="325">
@@ -3952,7 +3952,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C325">
-        <v>24.77760333333333</v>
+        <v>7.420393333333342</v>
       </c>
     </row>
     <row r="326">
@@ -3963,7 +3963,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C326">
-        <v>24.77760333333333</v>
+        <v>6.9670300000000225</v>
       </c>
     </row>
     <row r="327">
@@ -3974,7 +3974,7 @@
         <v>-0.01</v>
       </c>
       <c r="C327">
-        <v>23.64905333333337</v>
+        <v>25.982989999999972</v>
       </c>
     </row>
     <row r="328">
@@ -3985,7 +3985,7 @@
         <v>-0.012</v>
       </c>
       <c r="C328">
-        <v>23.64905333333337</v>
+        <v>26.2709133333333</v>
       </c>
     </row>
     <row r="329">
@@ -3996,7 +3996,7 @@
         <v>-0.014</v>
       </c>
       <c r="C329">
-        <v>23.64905333333337</v>
+        <v>25.40267999999998</v>
       </c>
     </row>
     <row r="330">
@@ -4007,7 +4007,7 @@
         <v>-0.016</v>
       </c>
       <c r="C330">
-        <v>23.64905333333337</v>
+        <v>27.697099999999956</v>
       </c>
     </row>
     <row r="331">
@@ -4018,7 +4018,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C331">
-        <v>23.64905333333337</v>
+        <v>22.85830333333333</v>
       </c>
     </row>
     <row r="332">
@@ -4029,7 +4029,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C332">
-        <v>23.64905333333337</v>
+        <v>22.53706333333336</v>
       </c>
     </row>
     <row r="333">
@@ -4040,7 +4040,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C333">
-        <v>23.64905333333337</v>
+        <v>19.463009999999997</v>
       </c>
     </row>
     <row r="334">
@@ -4051,7 +4051,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C334">
-        <v>23.64905333333337</v>
+        <v>18.66681999999999</v>
       </c>
     </row>
     <row r="335">
@@ -4062,7 +4062,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C335">
-        <v>23.64905333333337</v>
+        <v>19.102516666666663</v>
       </c>
     </row>
     <row r="336">
@@ -4073,7 +4073,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C336">
-        <v>23.64905333333337</v>
+        <v>19.069646666666664</v>
       </c>
     </row>
     <row r="337">
@@ -4084,7 +4084,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C337">
-        <v>23.64905333333337</v>
+        <v>16.90575333333332</v>
       </c>
     </row>
     <row r="338">
@@ -4095,7 +4095,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C338">
-        <v>23.64905333333337</v>
+        <v>13.101500000000007</v>
       </c>
     </row>
     <row r="339">
@@ -4106,7 +4106,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C339">
-        <v>23.64905333333337</v>
+        <v>15.872779999999997</v>
       </c>
     </row>
     <row r="340">
@@ -4117,7 +4117,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C340">
-        <v>23.64905333333337</v>
+        <v>16.04765333333332</v>
       </c>
     </row>
     <row r="341">
@@ -4128,7 +4128,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C341">
-        <v>23.64905333333337</v>
+        <v>16.32381666666667</v>
       </c>
     </row>
     <row r="342">
@@ -4139,7 +4139,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C342">
-        <v>23.64905333333337</v>
+        <v>14.919929999999985</v>
       </c>
     </row>
     <row r="343">
@@ -4150,7 +4150,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C343">
-        <v>23.64905333333337</v>
+        <v>10.199106666666657</v>
       </c>
     </row>
     <row r="344">
@@ -4161,7 +4161,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C344">
-        <v>23.64905333333337</v>
+        <v>10.250056666666637</v>
       </c>
     </row>
     <row r="345">
@@ -4172,7 +4172,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C345">
-        <v>23.64905333333337</v>
+        <v>10.250056666666637</v>
       </c>
     </row>
     <row r="346">
@@ -4183,7 +4183,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C346">
-        <v>23.64905333333337</v>
+        <v>11.319949999999986</v>
       </c>
     </row>
     <row r="347">
@@ -4194,7 +4194,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C347">
-        <v>23.64905333333337</v>
+        <v>10.323186666666686</v>
       </c>
     </row>
     <row r="348">
@@ -4205,7 +4205,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C348">
-        <v>23.64905333333337</v>
+        <v>10.665266666666676</v>
       </c>
     </row>
     <row r="349">
@@ -4216,7 +4216,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C349">
-        <v>23.64905333333337</v>
+        <v>9.403480000000002</v>
       </c>
     </row>
     <row r="350">
@@ -4227,7 +4227,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C350">
-        <v>23.64905333333337</v>
+        <v>7.578763333333333</v>
       </c>
     </row>
     <row r="351">
@@ -4238,7 +4238,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C351">
-        <v>23.64905333333337</v>
+        <v>7.1825566666666605</v>
       </c>
     </row>
     <row r="352">
@@ -4249,7 +4249,7 @@
         <v>-0.01</v>
       </c>
       <c r="C352">
-        <v>21.833223333333347</v>
+        <v>24.211886666666675</v>
       </c>
     </row>
     <row r="353">
@@ -4260,7 +4260,7 @@
         <v>-0.012</v>
       </c>
       <c r="C353">
-        <v>21.833223333333347</v>
+        <v>23.86137333333329</v>
       </c>
     </row>
     <row r="354">
@@ -4271,7 +4271,7 @@
         <v>-0.014</v>
       </c>
       <c r="C354">
-        <v>21.833223333333347</v>
+        <v>23.531793333333326</v>
       </c>
     </row>
     <row r="355">
@@ -4282,7 +4282,7 @@
         <v>-0.016</v>
       </c>
       <c r="C355">
-        <v>21.833223333333347</v>
+        <v>23.59970333333331</v>
       </c>
     </row>
     <row r="356">
@@ -4293,7 +4293,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C356">
-        <v>21.833223333333347</v>
+        <v>20.004026666666693</v>
       </c>
     </row>
     <row r="357">
@@ -4304,7 +4304,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C357">
-        <v>21.833223333333347</v>
+        <v>19.109673333333337</v>
       </c>
     </row>
     <row r="358">
@@ -4315,7 +4315,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C358">
-        <v>21.833223333333347</v>
+        <v>16.401273333333314</v>
       </c>
     </row>
     <row r="359">
@@ -4326,7 +4326,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C359">
-        <v>21.833223333333347</v>
+        <v>12.69612333333333</v>
       </c>
     </row>
     <row r="360">
@@ -4337,7 +4337,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C360">
-        <v>21.833223333333347</v>
+        <v>13.186049999999986</v>
       </c>
     </row>
     <row r="361">
@@ -4348,7 +4348,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C361">
-        <v>21.833223333333347</v>
+        <v>13.212639999999984</v>
       </c>
     </row>
     <row r="362">
@@ -4359,7 +4359,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C362">
-        <v>21.833223333333347</v>
+        <v>11.207926666666651</v>
       </c>
     </row>
     <row r="363">
@@ -4370,7 +4370,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C363">
-        <v>21.833223333333347</v>
+        <v>10.846443333333337</v>
       </c>
     </row>
     <row r="364">
@@ -4381,7 +4381,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C364">
-        <v>21.833223333333347</v>
+        <v>13.418836666666664</v>
       </c>
     </row>
     <row r="365">
@@ -4392,7 +4392,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C365">
-        <v>21.833223333333347</v>
+        <v>13.549836666666673</v>
       </c>
     </row>
     <row r="366">
@@ -4403,7 +4403,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C366">
-        <v>21.833223333333347</v>
+        <v>13.746123333333344</v>
       </c>
     </row>
     <row r="367">
@@ -4414,7 +4414,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C367">
-        <v>21.833223333333347</v>
+        <v>17.166023333333328</v>
       </c>
     </row>
     <row r="368">
@@ -4425,7 +4425,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C368">
-        <v>21.833223333333347</v>
+        <v>14.226496666666662</v>
       </c>
     </row>
     <row r="369">
@@ -4436,7 +4436,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C369">
-        <v>21.833223333333347</v>
+        <v>13.808289999999982</v>
       </c>
     </row>
     <row r="370">
@@ -4447,7 +4447,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C370">
-        <v>21.833223333333347</v>
+        <v>13.808289999999982</v>
       </c>
     </row>
     <row r="371">
@@ -4458,7 +4458,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C371">
-        <v>21.833223333333347</v>
+        <v>15.213133333333323</v>
       </c>
     </row>
     <row r="372">
@@ -4469,7 +4469,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C372">
-        <v>21.833223333333347</v>
+        <v>13.769826666666669</v>
       </c>
     </row>
     <row r="373">
@@ -4480,7 +4480,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C373">
-        <v>21.833223333333347</v>
+        <v>14.111906666666659</v>
       </c>
     </row>
     <row r="374">
@@ -4491,7 +4491,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C374">
-        <v>21.833223333333347</v>
+        <v>12.285230000000013</v>
       </c>
     </row>
     <row r="375">
@@ -4502,7 +4502,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C375">
-        <v>21.833223333333347</v>
+        <v>9.221246666666653</v>
       </c>
     </row>
     <row r="376">
@@ -4513,7 +4513,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C376">
-        <v>21.833223333333347</v>
+        <v>8.151939999999987</v>
       </c>
     </row>
     <row r="377">
@@ -4524,7 +4524,7 @@
         <v>-0.01</v>
       </c>
       <c r="C377">
-        <v>21.15311333333335</v>
+        <v>24.88689333333332</v>
       </c>
     </row>
     <row r="378">
@@ -4535,7 +4535,7 @@
         <v>-0.012</v>
       </c>
       <c r="C378">
-        <v>21.15311333333335</v>
+        <v>25.21297999999998</v>
       </c>
     </row>
     <row r="379">
@@ -4546,7 +4546,7 @@
         <v>-0.014</v>
       </c>
       <c r="C379">
-        <v>21.15311333333335</v>
+        <v>24.63632333333332</v>
       </c>
     </row>
     <row r="380">
@@ -4557,7 +4557,7 @@
         <v>-0.016</v>
       </c>
       <c r="C380">
-        <v>21.15311333333335</v>
+        <v>24.902289999999976</v>
       </c>
     </row>
     <row r="381">
@@ -4568,7 +4568,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C381">
-        <v>21.15311333333335</v>
+        <v>20.957406666666657</v>
       </c>
     </row>
     <row r="382">
@@ -4579,7 +4579,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C382">
-        <v>21.15311333333335</v>
+        <v>19.74496666666666</v>
       </c>
     </row>
     <row r="383">
@@ -4590,7 +4590,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C383">
-        <v>21.15311333333335</v>
+        <v>15.106426666666664</v>
       </c>
     </row>
     <row r="384">
@@ -4601,7 +4601,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C384">
-        <v>21.15311333333335</v>
+        <v>12.84718666666667</v>
       </c>
     </row>
     <row r="385">
@@ -4612,7 +4612,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C385">
-        <v>21.15311333333335</v>
+        <v>12.949250000000006</v>
       </c>
     </row>
     <row r="386">
@@ -4623,7 +4623,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C386">
-        <v>21.15311333333335</v>
+        <v>12.975840000000005</v>
       </c>
     </row>
     <row r="387">
@@ -4634,7 +4634,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C387">
-        <v>21.15311333333335</v>
+        <v>10.842713333333318</v>
       </c>
     </row>
     <row r="388">
@@ -4645,7 +4645,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C388">
-        <v>21.15311333333335</v>
+        <v>10.481230000000002</v>
       </c>
     </row>
     <row r="389">
@@ -4656,7 +4656,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C389">
-        <v>21.15311333333335</v>
+        <v>13.050479999999991</v>
       </c>
     </row>
     <row r="390">
@@ -4667,7 +4667,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C390">
-        <v>21.15311333333335</v>
+        <v>13.050479999999991</v>
       </c>
     </row>
     <row r="391">
@@ -4678,7 +4678,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C391">
-        <v>21.15311333333335</v>
+        <v>13.050479999999991</v>
       </c>
     </row>
     <row r="392">
@@ -4689,7 +4689,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C392">
-        <v>21.15311333333335</v>
+        <v>14.69130333333332</v>
       </c>
     </row>
     <row r="393">
@@ -4700,7 +4700,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C393">
-        <v>21.15311333333335</v>
+        <v>14.69130333333332</v>
       </c>
     </row>
     <row r="394">
@@ -4711,7 +4711,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C394">
-        <v>21.15311333333335</v>
+        <v>15.908629999999999</v>
       </c>
     </row>
     <row r="395">
@@ -4722,7 +4722,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C395">
-        <v>21.15311333333335</v>
+        <v>15.908629999999999</v>
       </c>
     </row>
     <row r="396">
@@ -4733,7 +4733,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C396">
-        <v>21.15311333333335</v>
+        <v>19.060273333333306</v>
       </c>
     </row>
     <row r="397">
@@ -4744,7 +4744,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C397">
-        <v>21.15311333333335</v>
+        <v>19.368726666666667</v>
       </c>
     </row>
     <row r="398">
@@ -4755,7 +4755,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C398">
-        <v>21.15311333333335</v>
+        <v>19.710806666666656</v>
       </c>
     </row>
     <row r="399">
@@ -4766,7 +4766,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C399">
-        <v>21.15311333333335</v>
+        <v>17.88412999999999</v>
       </c>
     </row>
     <row r="400">
@@ -4777,7 +4777,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C400">
-        <v>21.15311333333335</v>
+        <v>14.211326666666652</v>
       </c>
     </row>
     <row r="401">
@@ -4788,7 +4788,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C401">
-        <v>21.15311333333335</v>
+        <v>12.620559999999992</v>
       </c>
     </row>
     <row r="402">
@@ -4799,7 +4799,7 @@
         <v>-0.01</v>
       </c>
       <c r="C402">
-        <v>21.99945333333339</v>
+        <v>25.811340000000012</v>
       </c>
     </row>
     <row r="403">
@@ -4810,7 +4810,7 @@
         <v>-0.012</v>
       </c>
       <c r="C403">
-        <v>21.99945333333339</v>
+        <v>26.13742666666667</v>
       </c>
     </row>
     <row r="404">
@@ -4821,7 +4821,7 @@
         <v>-0.014</v>
       </c>
       <c r="C404">
-        <v>21.99945333333339</v>
+        <v>26.261400000000002</v>
       </c>
     </row>
     <row r="405">
@@ -4832,7 +4832,7 @@
         <v>-0.016</v>
       </c>
       <c r="C405">
-        <v>21.99945333333339</v>
+        <v>26.52736666666666</v>
       </c>
     </row>
     <row r="406">
@@ -4843,7 +4843,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C406">
-        <v>21.99945333333339</v>
+        <v>22.287116666666655</v>
       </c>
     </row>
     <row r="407">
@@ -4854,7 +4854,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C407">
-        <v>21.99945333333339</v>
+        <v>21.063773333333323</v>
       </c>
     </row>
     <row r="408">
@@ -4865,7 +4865,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C408">
-        <v>21.99945333333339</v>
+        <v>15.834439999999992</v>
       </c>
     </row>
     <row r="409">
@@ -4876,7 +4876,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C409">
-        <v>21.99945333333339</v>
+        <v>13.451909999999998</v>
       </c>
     </row>
     <row r="410">
@@ -4887,7 +4887,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C410">
-        <v>21.99945333333339</v>
+        <v>13.553973333333316</v>
       </c>
     </row>
     <row r="411">
@@ -4898,7 +4898,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C411">
-        <v>21.99945333333339</v>
+        <v>13.580563333333318</v>
       </c>
     </row>
     <row r="412">
@@ -4909,7 +4909,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C412">
-        <v>21.99945333333339</v>
+        <v>11.447436666666647</v>
       </c>
     </row>
     <row r="413">
@@ -4920,7 +4920,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C413">
-        <v>21.99945333333339</v>
+        <v>11.085953333333313</v>
       </c>
     </row>
     <row r="414">
@@ -4931,7 +4931,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C414">
-        <v>21.99945333333339</v>
+        <v>13.655203333333324</v>
       </c>
     </row>
     <row r="415">
@@ -4942,7 +4942,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C415">
-        <v>21.99945333333339</v>
+        <v>13.655203333333324</v>
       </c>
     </row>
     <row r="416">
@@ -4953,7 +4953,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C416">
-        <v>21.99945333333339</v>
+        <v>13.655203333333324</v>
       </c>
     </row>
     <row r="417">
@@ -4964,7 +4964,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C417">
-        <v>21.99945333333339</v>
+        <v>15.296026666666648</v>
       </c>
     </row>
     <row r="418">
@@ -4975,7 +4975,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C418">
-        <v>21.99945333333339</v>
+        <v>15.296026666666648</v>
       </c>
     </row>
     <row r="419">
@@ -4986,7 +4986,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C419">
-        <v>21.99945333333339</v>
+        <v>16.51335333333331</v>
       </c>
     </row>
     <row r="420">
@@ -4997,7 +4997,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C420">
-        <v>21.99945333333339</v>
+        <v>16.51335333333331</v>
       </c>
     </row>
     <row r="421">
@@ -5008,7 +5008,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C421">
-        <v>21.99945333333339</v>
+        <v>19.664996666666656</v>
       </c>
     </row>
     <row r="422">
@@ -5019,7 +5019,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C422">
-        <v>21.99945333333339</v>
+        <v>19.973449999999996</v>
       </c>
     </row>
     <row r="423">
@@ -5030,7 +5030,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C423">
-        <v>21.99945333333339</v>
+        <v>20.315530000000003</v>
       </c>
     </row>
     <row r="424">
@@ -5041,7 +5041,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C424">
-        <v>21.99945333333339</v>
+        <v>18.488853333333317</v>
       </c>
     </row>
     <row r="425">
@@ -5052,7 +5052,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C425">
-        <v>21.99945333333339</v>
+        <v>14.81605</v>
       </c>
     </row>
     <row r="426">
@@ -5063,7 +5063,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C426">
-        <v>21.99945333333339</v>
+        <v>13.225283333333323</v>
       </c>
     </row>
     <row r="427">
@@ -5074,7 +5074,7 @@
         <v>-0.01</v>
       </c>
       <c r="C427">
-        <v>21.389956666666688</v>
+        <v>25.18283333333333</v>
       </c>
     </row>
     <row r="428">
@@ -5085,7 +5085,7 @@
         <v>-0.012</v>
       </c>
       <c r="C428">
-        <v>21.389956666666688</v>
+        <v>25.615333333333336</v>
       </c>
     </row>
     <row r="429">
@@ -5096,7 +5096,7 @@
         <v>-0.014</v>
       </c>
       <c r="C429">
-        <v>21.389956666666688</v>
+        <v>25.73930666666666</v>
       </c>
     </row>
     <row r="430">
@@ -5107,7 +5107,7 @@
         <v>-0.016</v>
       </c>
       <c r="C430">
-        <v>21.389956666666688</v>
+        <v>26.0779</v>
       </c>
     </row>
     <row r="431">
@@ -5118,7 +5118,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C431">
-        <v>21.389956666666688</v>
+        <v>22.472033333333325</v>
       </c>
     </row>
     <row r="432">
@@ -5129,7 +5129,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C432">
-        <v>21.389956666666688</v>
+        <v>21.02751333333333</v>
       </c>
     </row>
     <row r="433">
@@ -5140,7 +5140,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C433">
-        <v>21.389956666666688</v>
+        <v>15.619833333333322</v>
       </c>
     </row>
     <row r="434">
@@ -5151,7 +5151,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C434">
-        <v>21.389956666666688</v>
+        <v>13.228699999999986</v>
       </c>
     </row>
     <row r="435">
@@ -5162,7 +5162,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C435">
-        <v>21.389956666666688</v>
+        <v>13.247336666666646</v>
       </c>
     </row>
     <row r="436">
@@ -5173,7 +5173,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C436">
-        <v>21.389956666666688</v>
+        <v>13.273926666666643</v>
       </c>
     </row>
     <row r="437">
@@ -5184,7 +5184,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C437">
-        <v>21.389956666666688</v>
+        <v>11.140799999999974</v>
       </c>
     </row>
     <row r="438">
@@ -5195,7 +5195,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C438">
-        <v>21.389956666666688</v>
+        <v>10.77931666666666</v>
       </c>
     </row>
     <row r="439">
@@ -5206,7 +5206,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C439">
-        <v>21.389956666666688</v>
+        <v>13.18844333333332</v>
       </c>
     </row>
     <row r="440">
@@ -5217,7 +5217,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C440">
-        <v>21.389956666666688</v>
+        <v>13.18844333333332</v>
       </c>
     </row>
     <row r="441">
@@ -5228,7 +5228,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C441">
-        <v>21.389956666666688</v>
+        <v>13.18844333333332</v>
       </c>
     </row>
     <row r="442">
@@ -5239,7 +5239,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C442">
-        <v>21.389956666666688</v>
+        <v>14.829266666666646</v>
       </c>
     </row>
     <row r="443">
@@ -5250,7 +5250,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C443">
-        <v>21.389956666666688</v>
+        <v>14.829266666666646</v>
       </c>
     </row>
     <row r="444">
@@ -5261,7 +5261,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C444">
-        <v>21.389956666666688</v>
+        <v>16.046593333333327</v>
       </c>
     </row>
     <row r="445">
@@ -5272,7 +5272,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C445">
-        <v>21.389956666666688</v>
+        <v>16.046593333333327</v>
       </c>
     </row>
     <row r="446">
@@ -5283,7 +5283,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C446">
-        <v>21.389956666666688</v>
+        <v>19.055599999999988</v>
       </c>
     </row>
     <row r="447">
@@ -5294,7 +5294,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C447">
-        <v>21.389956666666688</v>
+        <v>19.284176666666667</v>
       </c>
     </row>
     <row r="448">
@@ -5305,7 +5305,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C448">
-        <v>21.389956666666688</v>
+        <v>19.62625666666666</v>
       </c>
     </row>
     <row r="449">
@@ -5316,7 +5316,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C449">
-        <v>21.389956666666688</v>
+        <v>19.62625666666666</v>
       </c>
     </row>
     <row r="450">
@@ -5327,7 +5327,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C450">
-        <v>21.389956666666688</v>
+        <v>15.95345333333332</v>
       </c>
     </row>
     <row r="451">
@@ -5338,7 +5338,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C451">
-        <v>21.389956666666688</v>
+        <v>14.36268666666666</v>
       </c>
     </row>
     <row r="452">
@@ -5349,7 +5349,7 @@
         <v>-0.01</v>
       </c>
       <c r="C452">
-        <v>20.6796966666667</v>
+        <v>24.460823333333337</v>
       </c>
     </row>
     <row r="453">
@@ -5360,7 +5360,7 @@
         <v>-0.012</v>
       </c>
       <c r="C453">
-        <v>20.6796966666667</v>
+        <v>25.145166666666686</v>
       </c>
     </row>
     <row r="454">
@@ -5371,7 +5371,7 @@
         <v>-0.014</v>
       </c>
       <c r="C454">
-        <v>20.6796966666667</v>
+        <v>25.269139999999997</v>
       </c>
     </row>
     <row r="455">
@@ -5382,7 +5382,7 @@
         <v>-0.016</v>
       </c>
       <c r="C455">
-        <v>20.6796966666667</v>
+        <v>25.588723333333345</v>
       </c>
     </row>
     <row r="456">
@@ -5393,7 +5393,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C456">
-        <v>20.6796966666667</v>
+        <v>22.421353333333325</v>
       </c>
     </row>
     <row r="457">
@@ -5404,7 +5404,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C457">
-        <v>20.6796966666667</v>
+        <v>21.397746666666666</v>
       </c>
     </row>
     <row r="458">
@@ -5415,7 +5415,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C458">
-        <v>20.6796966666667</v>
+        <v>15.683796666666657</v>
       </c>
     </row>
     <row r="459">
@@ -5426,7 +5426,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C459">
-        <v>20.6796966666667</v>
+        <v>13.228699999999986</v>
       </c>
     </row>
     <row r="460">
@@ -5437,7 +5437,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C460">
-        <v>20.6796966666667</v>
+        <v>13.247336666666646</v>
       </c>
     </row>
     <row r="461">
@@ -5448,7 +5448,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C461">
-        <v>20.6796966666667</v>
+        <v>13.273926666666643</v>
       </c>
     </row>
     <row r="462">
@@ -5459,7 +5459,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C462">
-        <v>20.6796966666667</v>
+        <v>11.140799999999974</v>
       </c>
     </row>
     <row r="463">
@@ -5470,7 +5470,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C463">
-        <v>20.6796966666667</v>
+        <v>10.77931666666666</v>
       </c>
     </row>
     <row r="464">
@@ -5481,7 +5481,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C464">
-        <v>20.6796966666667</v>
+        <v>13.18844333333332</v>
       </c>
     </row>
     <row r="465">
@@ -5492,7 +5492,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C465">
-        <v>20.6796966666667</v>
+        <v>13.18844333333332</v>
       </c>
     </row>
     <row r="466">
@@ -5503,7 +5503,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C466">
-        <v>20.6796966666667</v>
+        <v>13.18844333333332</v>
       </c>
     </row>
     <row r="467">
@@ -5514,7 +5514,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C467">
-        <v>20.6796966666667</v>
+        <v>14.829266666666646</v>
       </c>
     </row>
     <row r="468">
@@ -5525,7 +5525,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C468">
-        <v>20.6796966666667</v>
+        <v>14.829266666666646</v>
       </c>
     </row>
     <row r="469">
@@ -5536,7 +5536,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C469">
-        <v>20.6796966666667</v>
+        <v>16.046593333333327</v>
       </c>
     </row>
     <row r="470">
@@ -5547,7 +5547,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C470">
-        <v>20.6796966666667</v>
+        <v>16.046593333333327</v>
       </c>
     </row>
     <row r="471">
@@ -5558,7 +5558,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C471">
-        <v>20.6796966666667</v>
+        <v>19.055599999999988</v>
       </c>
     </row>
     <row r="472">
@@ -5569,7 +5569,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C472">
-        <v>20.6796966666667</v>
+        <v>19.284176666666667</v>
       </c>
     </row>
     <row r="473">
@@ -5580,7 +5580,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C473">
-        <v>20.6796966666667</v>
+        <v>19.62625666666666</v>
       </c>
     </row>
     <row r="474">
@@ -5591,7 +5591,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C474">
-        <v>20.6796966666667</v>
+        <v>19.62625666666666</v>
       </c>
     </row>
     <row r="475">
@@ -5602,7 +5602,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C475">
-        <v>20.6796966666667</v>
+        <v>15.95345333333332</v>
       </c>
     </row>
     <row r="476">
@@ -5613,7 +5613,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C476">
-        <v>20.6796966666667</v>
+        <v>14.36268666666666</v>
       </c>
     </row>
     <row r="477">
@@ -5624,7 +5624,7 @@
         <v>-0.01</v>
       </c>
       <c r="C477">
-        <v>20.153223333333358</v>
+        <v>17.47954333333335</v>
       </c>
     </row>
     <row r="478">
@@ -5635,7 +5635,7 @@
         <v>-0.012</v>
       </c>
       <c r="C478">
-        <v>20.153223333333358</v>
+        <v>17.316406666666694</v>
       </c>
     </row>
     <row r="479">
@@ -5646,7 +5646,7 @@
         <v>-0.014</v>
       </c>
       <c r="C479">
-        <v>20.153223333333358</v>
+        <v>9.12288000000001</v>
       </c>
     </row>
     <row r="480">
@@ -5657,7 +5657,7 @@
         <v>-0.016</v>
       </c>
       <c r="C480">
-        <v>20.153223333333358</v>
+        <v>9.39921666666667</v>
       </c>
     </row>
     <row r="481">
@@ -5668,7 +5668,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C481">
-        <v>20.153223333333358</v>
+        <v>6.574556666666675</v>
       </c>
     </row>
     <row r="482">
@@ -5679,7 +5679,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C482">
-        <v>20.153223333333358</v>
+        <v>5.497620000000021</v>
       </c>
     </row>
     <row r="483">
@@ -5690,7 +5690,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C483">
-        <v>20.153223333333358</v>
+        <v>1.8662600000000111</v>
       </c>
     </row>
     <row r="484">
@@ -5701,7 +5701,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C484">
-        <v>20.153223333333358</v>
+        <v>-1.7064999999999866</v>
       </c>
     </row>
     <row r="485">
@@ -5712,7 +5712,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C485">
-        <v>20.153223333333358</v>
+        <v>-1.6878633333333255</v>
       </c>
     </row>
     <row r="486">
@@ -5723,7 +5723,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C486">
-        <v>20.153223333333358</v>
+        <v>-1.6612733333333267</v>
       </c>
     </row>
     <row r="487">
@@ -5734,7 +5734,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C487">
-        <v>20.153223333333358</v>
+        <v>-3.7943999999999956</v>
       </c>
     </row>
     <row r="488">
@@ -5745,7 +5745,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C488">
-        <v>20.153223333333358</v>
+        <v>-4.155883333333331</v>
       </c>
     </row>
     <row r="489">
@@ -5756,7 +5756,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C489">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="490">
@@ -5767,7 +5767,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C490">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="491">
@@ -5778,7 +5778,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C491">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="492">
@@ -5789,7 +5789,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C492">
-        <v>20.153223333333358</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="493">
@@ -5800,7 +5800,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C493">
-        <v>20.153223333333358</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="494">
@@ -5811,7 +5811,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C494">
-        <v>20.153223333333358</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="495">
@@ -5822,7 +5822,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C495">
-        <v>20.153223333333358</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="496">
@@ -5833,7 +5833,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C496">
-        <v>20.153223333333358</v>
+        <v>0.7888333333333435</v>
       </c>
     </row>
     <row r="497">
@@ -5844,7 +5844,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C497">
-        <v>20.153223333333358</v>
+        <v>1.017410000000022</v>
       </c>
     </row>
     <row r="498">
@@ -5855,7 +5855,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C498">
-        <v>20.153223333333358</v>
+        <v>1.3594900000000127</v>
       </c>
     </row>
     <row r="499">
@@ -5866,7 +5866,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C499">
-        <v>20.153223333333358</v>
+        <v>0.9757900000000177</v>
       </c>
     </row>
     <row r="500">
@@ -5877,7 +5877,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C500">
-        <v>20.153223333333358</v>
+        <v>0.5085733333333261</v>
       </c>
     </row>
     <row r="501">
@@ -5888,7 +5888,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C501">
-        <v>20.153223333333358</v>
+        <v>0.84841666666667</v>
       </c>
     </row>
     <row r="502">
@@ -5899,7 +5899,7 @@
         <v>-0.01</v>
       </c>
       <c r="C502">
-        <v>20.153223333333358</v>
+        <v>17.47954333333335</v>
       </c>
     </row>
     <row r="503">
@@ -5910,7 +5910,7 @@
         <v>-0.012</v>
       </c>
       <c r="C503">
-        <v>20.153223333333358</v>
+        <v>17.316406666666694</v>
       </c>
     </row>
     <row r="504">
@@ -5921,7 +5921,7 @@
         <v>-0.014</v>
       </c>
       <c r="C504">
-        <v>20.153223333333358</v>
+        <v>9.12288000000001</v>
       </c>
     </row>
     <row r="505">
@@ -5932,7 +5932,7 @@
         <v>-0.016</v>
       </c>
       <c r="C505">
-        <v>20.153223333333358</v>
+        <v>9.39921666666667</v>
       </c>
     </row>
     <row r="506">
@@ -5943,7 +5943,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C506">
-        <v>20.153223333333358</v>
+        <v>6.574556666666675</v>
       </c>
     </row>
     <row r="507">
@@ -5954,7 +5954,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C507">
-        <v>20.153223333333358</v>
+        <v>5.497620000000021</v>
       </c>
     </row>
     <row r="508">
@@ -5965,7 +5965,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C508">
-        <v>20.153223333333358</v>
+        <v>1.8662600000000111</v>
       </c>
     </row>
     <row r="509">
@@ -5976,7 +5976,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C509">
-        <v>20.153223333333358</v>
+        <v>-1.7064999999999866</v>
       </c>
     </row>
     <row r="510">
@@ -5987,7 +5987,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C510">
-        <v>20.153223333333358</v>
+        <v>-1.6878633333333255</v>
       </c>
     </row>
     <row r="511">
@@ -5998,7 +5998,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C511">
-        <v>20.153223333333358</v>
+        <v>-1.6612733333333267</v>
       </c>
     </row>
     <row r="512">
@@ -6009,7 +6009,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C512">
-        <v>20.153223333333358</v>
+        <v>-3.7943999999999956</v>
       </c>
     </row>
     <row r="513">
@@ -6020,7 +6020,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C513">
-        <v>20.153223333333358</v>
+        <v>-4.155883333333331</v>
       </c>
     </row>
     <row r="514">
@@ -6031,7 +6031,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C514">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="515">
@@ -6042,7 +6042,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C515">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="516">
@@ -6053,7 +6053,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C516">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="517">
@@ -6064,7 +6064,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C517">
-        <v>20.153223333333358</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="518">
@@ -6075,7 +6075,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C518">
-        <v>20.153223333333358</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="519">
@@ -6086,7 +6086,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C519">
-        <v>20.153223333333358</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="520">
@@ -6097,7 +6097,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C520">
-        <v>20.153223333333358</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="521">
@@ -6108,7 +6108,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C521">
-        <v>20.153223333333358</v>
+        <v>0.7888333333333435</v>
       </c>
     </row>
     <row r="522">
@@ -6119,7 +6119,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C522">
-        <v>20.153223333333358</v>
+        <v>1.017410000000022</v>
       </c>
     </row>
     <row r="523">
@@ -6130,7 +6130,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C523">
-        <v>20.153223333333358</v>
+        <v>1.3594900000000127</v>
       </c>
     </row>
     <row r="524">
@@ -6141,7 +6141,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C524">
-        <v>20.153223333333358</v>
+        <v>0.9757900000000177</v>
       </c>
     </row>
     <row r="525">
@@ -6152,7 +6152,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C525">
-        <v>20.153223333333358</v>
+        <v>0.5085733333333261</v>
       </c>
     </row>
     <row r="526">
@@ -6163,7 +6163,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C526">
-        <v>20.153223333333358</v>
+        <v>0.84841666666667</v>
       </c>
     </row>
     <row r="527">
@@ -6174,7 +6174,7 @@
         <v>-0.01</v>
       </c>
       <c r="C527">
-        <v>20.153223333333358</v>
+        <v>17.47954333333335</v>
       </c>
     </row>
     <row r="528">
@@ -6185,7 +6185,7 @@
         <v>-0.012</v>
       </c>
       <c r="C528">
-        <v>20.153223333333358</v>
+        <v>17.316406666666694</v>
       </c>
     </row>
     <row r="529">
@@ -6196,7 +6196,7 @@
         <v>-0.014</v>
       </c>
       <c r="C529">
-        <v>20.153223333333358</v>
+        <v>9.12288000000001</v>
       </c>
     </row>
     <row r="530">
@@ -6207,7 +6207,7 @@
         <v>-0.016</v>
       </c>
       <c r="C530">
-        <v>20.153223333333358</v>
+        <v>9.39921666666667</v>
       </c>
     </row>
     <row r="531">
@@ -6218,7 +6218,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C531">
-        <v>20.153223333333358</v>
+        <v>6.574556666666675</v>
       </c>
     </row>
     <row r="532">
@@ -6229,7 +6229,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C532">
-        <v>20.153223333333358</v>
+        <v>5.497620000000021</v>
       </c>
     </row>
     <row r="533">
@@ -6240,7 +6240,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C533">
-        <v>20.153223333333358</v>
+        <v>1.8662600000000111</v>
       </c>
     </row>
     <row r="534">
@@ -6251,7 +6251,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C534">
-        <v>20.153223333333358</v>
+        <v>-1.7064999999999866</v>
       </c>
     </row>
     <row r="535">
@@ -6262,7 +6262,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C535">
-        <v>20.153223333333358</v>
+        <v>-1.6878633333333255</v>
       </c>
     </row>
     <row r="536">
@@ -6273,7 +6273,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C536">
-        <v>20.153223333333358</v>
+        <v>-1.6612733333333267</v>
       </c>
     </row>
     <row r="537">
@@ -6284,7 +6284,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C537">
-        <v>20.153223333333358</v>
+        <v>-3.7943999999999956</v>
       </c>
     </row>
     <row r="538">
@@ -6295,7 +6295,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C538">
-        <v>20.153223333333358</v>
+        <v>-4.155883333333331</v>
       </c>
     </row>
     <row r="539">
@@ -6306,7 +6306,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C539">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="540">
@@ -6317,7 +6317,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C540">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="541">
@@ -6328,7 +6328,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C541">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="542">
@@ -6339,7 +6339,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C542">
-        <v>20.153223333333358</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="543">
@@ -6350,7 +6350,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C543">
-        <v>20.153223333333358</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="544">
@@ -6361,7 +6361,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C544">
-        <v>20.153223333333358</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="545">
@@ -6372,7 +6372,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C545">
-        <v>20.153223333333358</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="546">
@@ -6383,7 +6383,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C546">
-        <v>20.153223333333358</v>
+        <v>0.7888333333333435</v>
       </c>
     </row>
     <row r="547">
@@ -6394,7 +6394,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C547">
-        <v>20.153223333333358</v>
+        <v>1.017410000000022</v>
       </c>
     </row>
     <row r="548">
@@ -6405,7 +6405,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C548">
-        <v>20.153223333333358</v>
+        <v>1.3594900000000127</v>
       </c>
     </row>
     <row r="549">
@@ -6416,7 +6416,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C549">
-        <v>20.153223333333358</v>
+        <v>0.9757900000000177</v>
       </c>
     </row>
     <row r="550">
@@ -6427,7 +6427,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C550">
-        <v>20.153223333333358</v>
+        <v>0.5085733333333261</v>
       </c>
     </row>
     <row r="551">
@@ -6438,7 +6438,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C551">
-        <v>20.153223333333358</v>
+        <v>0.84841666666667</v>
       </c>
     </row>
     <row r="552">
@@ -6449,7 +6449,7 @@
         <v>-0.01</v>
       </c>
       <c r="C552">
-        <v>20.153223333333358</v>
+        <v>17.47954333333335</v>
       </c>
     </row>
     <row r="553">
@@ -6460,7 +6460,7 @@
         <v>-0.012</v>
       </c>
       <c r="C553">
-        <v>20.153223333333358</v>
+        <v>17.316406666666694</v>
       </c>
     </row>
     <row r="554">
@@ -6471,7 +6471,7 @@
         <v>-0.014</v>
       </c>
       <c r="C554">
-        <v>20.153223333333358</v>
+        <v>9.12288000000001</v>
       </c>
     </row>
     <row r="555">
@@ -6482,7 +6482,7 @@
         <v>-0.016</v>
       </c>
       <c r="C555">
-        <v>20.153223333333358</v>
+        <v>9.39921666666667</v>
       </c>
     </row>
     <row r="556">
@@ -6493,7 +6493,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C556">
-        <v>20.153223333333358</v>
+        <v>6.574556666666675</v>
       </c>
     </row>
     <row r="557">
@@ -6504,7 +6504,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C557">
-        <v>20.153223333333358</v>
+        <v>5.497620000000021</v>
       </c>
     </row>
     <row r="558">
@@ -6515,7 +6515,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C558">
-        <v>20.153223333333358</v>
+        <v>1.8662600000000111</v>
       </c>
     </row>
     <row r="559">
@@ -6526,7 +6526,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C559">
-        <v>20.153223333333358</v>
+        <v>-1.7064999999999866</v>
       </c>
     </row>
     <row r="560">
@@ -6537,7 +6537,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C560">
-        <v>20.153223333333358</v>
+        <v>-1.6878633333333255</v>
       </c>
     </row>
     <row r="561">
@@ -6548,7 +6548,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C561">
-        <v>20.153223333333358</v>
+        <v>-1.6612733333333267</v>
       </c>
     </row>
     <row r="562">
@@ -6559,7 +6559,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C562">
-        <v>20.153223333333358</v>
+        <v>-3.7943999999999956</v>
       </c>
     </row>
     <row r="563">
@@ -6570,7 +6570,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C563">
-        <v>20.153223333333358</v>
+        <v>-4.155883333333331</v>
       </c>
     </row>
     <row r="564">
@@ -6581,7 +6581,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C564">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="565">
@@ -6592,7 +6592,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C565">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="566">
@@ -6603,7 +6603,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C566">
-        <v>20.153223333333358</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="567">
@@ -6614,7 +6614,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C567">
-        <v>20.153223333333358</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="568">
@@ -6625,7 +6625,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C568">
-        <v>20.153223333333358</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="569">
@@ -6636,7 +6636,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C569">
-        <v>20.153223333333358</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="570">
@@ -6647,7 +6647,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C570">
-        <v>20.153223333333358</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="571">
@@ -6658,7 +6658,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C571">
-        <v>20.153223333333358</v>
+        <v>0.7888333333333435</v>
       </c>
     </row>
     <row r="572">
@@ -6669,7 +6669,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C572">
-        <v>20.153223333333358</v>
+        <v>1.017410000000022</v>
       </c>
     </row>
     <row r="573">
@@ -6680,7 +6680,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C573">
-        <v>20.153223333333358</v>
+        <v>1.3594900000000127</v>
       </c>
     </row>
     <row r="574">
@@ -6691,7 +6691,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C574">
-        <v>20.153223333333358</v>
+        <v>0.9757900000000177</v>
       </c>
     </row>
     <row r="575">
@@ -6702,7 +6702,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C575">
-        <v>20.153223333333358</v>
+        <v>0.5085733333333261</v>
       </c>
     </row>
     <row r="576">
@@ -6713,7 +6713,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C576">
-        <v>20.153223333333358</v>
+        <v>0.84841666666667</v>
       </c>
     </row>
     <row r="577">
@@ -6724,7 +6724,7 @@
         <v>-0.01</v>
       </c>
       <c r="C577">
-        <v>20.012423333333345</v>
+        <v>17.218460000000015</v>
       </c>
     </row>
     <row r="578">
@@ -6735,7 +6735,7 @@
         <v>-0.012</v>
       </c>
       <c r="C578">
-        <v>20.012423333333345</v>
+        <v>17.11691000000002</v>
       </c>
     </row>
     <row r="579">
@@ -6746,7 +6746,7 @@
         <v>-0.014</v>
       </c>
       <c r="C579">
-        <v>20.012423333333345</v>
+        <v>8.923383333333353</v>
       </c>
     </row>
     <row r="580">
@@ -6757,7 +6757,7 @@
         <v>-0.016</v>
       </c>
       <c r="C580">
-        <v>20.012423333333345</v>
+        <v>9.052366666666671</v>
       </c>
     </row>
     <row r="581">
@@ -6768,7 +6768,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C581">
-        <v>20.012423333333345</v>
+        <v>6.184460000000001</v>
       </c>
     </row>
     <row r="582">
@@ -6779,7 +6779,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C582">
-        <v>20.012423333333345</v>
+        <v>5.0918200000000216</v>
       </c>
     </row>
     <row r="583">
@@ -6790,7 +6790,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C583">
-        <v>20.012423333333345</v>
+        <v>0.9875300000000115</v>
       </c>
     </row>
     <row r="584">
@@ -6801,7 +6801,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C584">
-        <v>20.012423333333345</v>
+        <v>-1.7064999999999866</v>
       </c>
     </row>
     <row r="585">
@@ -6812,7 +6812,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C585">
-        <v>20.012423333333345</v>
+        <v>-1.6878633333333255</v>
       </c>
     </row>
     <row r="586">
@@ -6823,7 +6823,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C586">
-        <v>20.012423333333345</v>
+        <v>-1.6612733333333267</v>
       </c>
     </row>
     <row r="587">
@@ -6834,7 +6834,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C587">
-        <v>20.012423333333345</v>
+        <v>-3.7943999999999956</v>
       </c>
     </row>
     <row r="588">
@@ -6845,7 +6845,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C588">
-        <v>20.012423333333345</v>
+        <v>-4.155883333333331</v>
       </c>
     </row>
     <row r="589">
@@ -6856,7 +6856,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C589">
-        <v>20.012423333333345</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="590">
@@ -6867,7 +6867,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C590">
-        <v>20.012423333333345</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="591">
@@ -6878,7 +6878,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C591">
-        <v>20.012423333333345</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="592">
@@ -6889,7 +6889,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C592">
-        <v>20.012423333333345</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="593">
@@ -6900,7 +6900,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C593">
-        <v>20.012423333333345</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="594">
@@ -6911,7 +6911,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C594">
-        <v>20.012423333333345</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="595">
@@ -6922,7 +6922,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C595">
-        <v>20.012423333333345</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="596">
@@ -6933,7 +6933,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C596">
-        <v>20.012423333333345</v>
+        <v>0.7888333333333435</v>
       </c>
     </row>
     <row r="597">
@@ -6944,7 +6944,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C597">
-        <v>20.012423333333345</v>
+        <v>1.017410000000022</v>
       </c>
     </row>
     <row r="598">
@@ -6955,7 +6955,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C598">
-        <v>20.012423333333345</v>
+        <v>1.3594900000000127</v>
       </c>
     </row>
     <row r="599">
@@ -6966,7 +6966,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C599">
-        <v>20.012423333333345</v>
+        <v>0.9757900000000177</v>
       </c>
     </row>
     <row r="600">
@@ -6977,7 +6977,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C600">
-        <v>20.012423333333345</v>
+        <v>0.5085733333333261</v>
       </c>
     </row>
     <row r="601">
@@ -6988,7 +6988,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C601">
-        <v>20.012423333333345</v>
+        <v>0.84841666666667</v>
       </c>
     </row>
     <row r="602">
@@ -6999,7 +6999,7 @@
         <v>-0.01</v>
       </c>
       <c r="C602">
-        <v>20.012423333333345</v>
+        <v>17.218460000000015</v>
       </c>
     </row>
     <row r="603">
@@ -7010,7 +7010,7 @@
         <v>-0.012</v>
       </c>
       <c r="C603">
-        <v>20.012423333333345</v>
+        <v>17.11691000000002</v>
       </c>
     </row>
     <row r="604">
@@ -7021,7 +7021,7 @@
         <v>-0.014</v>
       </c>
       <c r="C604">
-        <v>20.012423333333345</v>
+        <v>8.923383333333353</v>
       </c>
     </row>
     <row r="605">
@@ -7032,7 +7032,7 @@
         <v>-0.016</v>
       </c>
       <c r="C605">
-        <v>20.012423333333345</v>
+        <v>9.052366666666671</v>
       </c>
     </row>
     <row r="606">
@@ -7043,7 +7043,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C606">
-        <v>20.012423333333345</v>
+        <v>6.184460000000001</v>
       </c>
     </row>
     <row r="607">
@@ -7054,7 +7054,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C607">
-        <v>20.012423333333345</v>
+        <v>5.0918200000000216</v>
       </c>
     </row>
     <row r="608">
@@ -7065,7 +7065,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C608">
-        <v>20.012423333333345</v>
+        <v>0.9875300000000115</v>
       </c>
     </row>
     <row r="609">
@@ -7076,7 +7076,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C609">
-        <v>20.012423333333345</v>
+        <v>-1.7064999999999866</v>
       </c>
     </row>
     <row r="610">
@@ -7087,7 +7087,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C610">
-        <v>20.012423333333345</v>
+        <v>-1.6878633333333255</v>
       </c>
     </row>
     <row r="611">
@@ -7098,7 +7098,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C611">
-        <v>20.012423333333345</v>
+        <v>-1.6612733333333267</v>
       </c>
     </row>
     <row r="612">
@@ -7109,7 +7109,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C612">
-        <v>20.012423333333345</v>
+        <v>-3.7943999999999956</v>
       </c>
     </row>
     <row r="613">
@@ -7120,7 +7120,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C613">
-        <v>20.012423333333345</v>
+        <v>-4.155883333333331</v>
       </c>
     </row>
     <row r="614">
@@ -7131,7 +7131,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C614">
-        <v>20.012423333333345</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="615">
@@ -7142,7 +7142,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C615">
-        <v>20.012423333333345</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="616">
@@ -7153,7 +7153,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C616">
-        <v>20.012423333333345</v>
+        <v>-2.112036666666654</v>
       </c>
     </row>
     <row r="617">
@@ -7164,7 +7164,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C617">
-        <v>20.012423333333345</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="618">
@@ -7175,7 +7175,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C618">
-        <v>20.012423333333345</v>
+        <v>-1.6108233333333337</v>
       </c>
     </row>
     <row r="619">
@@ -7186,7 +7186,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C619">
-        <v>20.012423333333345</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="620">
@@ -7197,7 +7197,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C620">
-        <v>20.012423333333345</v>
+        <v>-0.3934966666666734</v>
       </c>
     </row>
     <row r="621">
@@ -7208,7 +7208,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C621">
-        <v>20.012423333333345</v>
+        <v>0.7888333333333435</v>
       </c>
     </row>
     <row r="622">
@@ -7219,7 +7219,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C622">
-        <v>20.012423333333345</v>
+        <v>1.017410000000022</v>
       </c>
     </row>
     <row r="623">
@@ -7230,7 +7230,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C623">
-        <v>20.012423333333345</v>
+        <v>1.3594900000000127</v>
       </c>
     </row>
     <row r="624">
@@ -7241,7 +7241,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C624">
-        <v>20.012423333333345</v>
+        <v>0.9757900000000177</v>
       </c>
     </row>
     <row r="625">
@@ -7252,7 +7252,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C625">
-        <v>20.012423333333345</v>
+        <v>0.5085733333333261</v>
       </c>
     </row>
     <row r="626">
@@ -7263,7 +7263,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C626">
-        <v>20.012423333333345</v>
+        <v>0.84841666666667</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/tran2.xlsx
+++ b/public/download/tran2.xlsx
@@ -399,7 +399,7 @@
         <v>-0.01</v>
       </c>
       <c r="C2">
-        <v>11.506263333333342</v>
+        <v>13.243060000000034</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +410,7 @@
         <v>-0.012</v>
       </c>
       <c r="C3">
-        <v>10.682326666666635</v>
+        <v>12.71258000000002</v>
       </c>
     </row>
     <row r="4">
@@ -421,7 +421,7 @@
         <v>-0.014</v>
       </c>
       <c r="C4">
-        <v>8.207449999999957</v>
+        <v>13.11265666666666</v>
       </c>
     </row>
     <row r="5">
@@ -432,7 +432,7 @@
         <v>-0.016</v>
       </c>
       <c r="C5">
-        <v>8.402289999999955</v>
+        <v>13.369506666666704</v>
       </c>
     </row>
     <row r="6">
@@ -443,7 +443,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C6">
-        <v>7.413823333333293</v>
+        <v>12.867006666666668</v>
       </c>
     </row>
     <row r="7">
@@ -454,7 +454,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C7">
-        <v>7.554359999999974</v>
+        <v>13.046829999999963</v>
       </c>
     </row>
     <row r="8">
@@ -465,7 +465,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C8">
-        <v>7.437323333333325</v>
+        <v>12.617833333333275</v>
       </c>
     </row>
     <row r="9">
@@ -476,7 +476,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C9">
-        <v>7.007656666666624</v>
+        <v>10.05741999999998</v>
       </c>
     </row>
     <row r="10">
@@ -487,7 +487,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C10">
-        <v>5.502939999999967</v>
+        <v>8.780556666666635</v>
       </c>
     </row>
     <row r="11">
@@ -498,7 +498,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C11">
-        <v>5.4684099999999685</v>
+        <v>9.812203333333326</v>
       </c>
     </row>
     <row r="12">
@@ -509,7 +509,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C12">
-        <v>4.3320066666666435</v>
+        <v>9.628493333333344</v>
       </c>
     </row>
     <row r="13">
@@ -520,7 +520,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C13">
-        <v>4.235286666666658</v>
+        <v>6.68079666666669</v>
       </c>
     </row>
     <row r="14">
@@ -531,7 +531,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C14">
-        <v>3.9193866666666395</v>
+        <v>6.8288800000000265</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C15">
-        <v>4.049073333333316</v>
+        <v>6.8288800000000265</v>
       </c>
     </row>
     <row r="16">
@@ -553,7 +553,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C16">
-        <v>4.192693333333315</v>
+        <v>4.901066666666679</v>
       </c>
     </row>
     <row r="17">
@@ -564,7 +564,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C17">
-        <v>5.781093333333294</v>
+        <v>3.015646666666669</v>
       </c>
     </row>
     <row r="18">
@@ -575,7 +575,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C18">
-        <v>4.9368566666666425</v>
+        <v>3.015646666666669</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C19">
-        <v>5.838476666666622</v>
+        <v>2.449673333333332</v>
       </c>
     </row>
     <row r="20">
@@ -597,7 +597,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C20">
-        <v>5.838476666666622</v>
+        <v>1.9128233333333355</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C21">
-        <v>7.3767099999999655</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="22">
@@ -619,7 +619,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C22">
-        <v>7.26064999999998</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="23">
@@ -630,7 +630,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C23">
-        <v>7.6027299999999896</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="24">
@@ -641,7 +641,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C24">
-        <v>7.1300433333333135</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="25">
@@ -652,7 +652,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C25">
-        <v>6.037839999999979</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="26">
@@ -663,7 +663,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C26">
-        <v>5.7750866666666525</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="27">
@@ -674,7 +674,7 @@
         <v>-0.01</v>
       </c>
       <c r="C27">
-        <v>12.576440000000048</v>
+        <v>14.611183333333372</v>
       </c>
     </row>
     <row r="28">
@@ -685,7 +685,7 @@
         <v>-0.012</v>
       </c>
       <c r="C28">
-        <v>11.38779333333332</v>
+        <v>13.898166666666667</v>
       </c>
     </row>
     <row r="29">
@@ -696,7 +696,7 @@
         <v>-0.014</v>
       </c>
       <c r="C29">
-        <v>8.751746666666614</v>
+        <v>14.285730000000003</v>
       </c>
     </row>
     <row r="30">
@@ -707,7 +707,7 @@
         <v>-0.016</v>
       </c>
       <c r="C30">
-        <v>8.74582666666663</v>
+        <v>14.548053333333351</v>
       </c>
     </row>
     <row r="31">
@@ -718,7 +718,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C31">
-        <v>7.794646666666666</v>
+        <v>14.079973333333328</v>
       </c>
     </row>
     <row r="32">
@@ -729,7 +729,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C32">
-        <v>8.621646666666683</v>
+        <v>13.998593333333304</v>
       </c>
     </row>
     <row r="33">
@@ -740,7 +740,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C33">
-        <v>7.786170000000007</v>
+        <v>13.55619999999997</v>
       </c>
     </row>
     <row r="34">
@@ -751,7 +751,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C34">
-        <v>7.410173333333319</v>
+        <v>10.560173333333333</v>
       </c>
     </row>
     <row r="35">
@@ -762,7 +762,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C35">
-        <v>7.548540000000002</v>
+        <v>9.75472</v>
       </c>
     </row>
     <row r="36">
@@ -773,7 +773,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C36">
-        <v>6.618833333333309</v>
+        <v>10.20952333333334</v>
       </c>
     </row>
     <row r="37">
@@ -784,7 +784,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C37">
-        <v>5.145763333333321</v>
+        <v>10.030496666666656</v>
       </c>
     </row>
     <row r="38">
@@ -795,7 +795,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C38">
-        <v>5.025569999999979</v>
+        <v>6.979466666666667</v>
       </c>
     </row>
     <row r="39">
@@ -806,7 +806,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C39">
-        <v>4.679593333333287</v>
+        <v>7.127550000000005</v>
       </c>
     </row>
     <row r="40">
@@ -817,7 +817,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C40">
-        <v>4.809279999999963</v>
+        <v>7.127550000000005</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C41">
-        <v>4.9528999999999614</v>
+        <v>5.127056666666685</v>
       </c>
     </row>
     <row r="42">
@@ -839,7 +839,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C42">
-        <v>6.536176666666639</v>
+        <v>3.0994699999999966</v>
       </c>
     </row>
     <row r="43">
@@ -850,7 +850,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C43">
-        <v>5.498446666666628</v>
+        <v>3.0994699999999966</v>
       </c>
     </row>
     <row r="44">
@@ -861,7 +861,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C44">
-        <v>6.344276666666625</v>
+        <v>2.542946666666675</v>
       </c>
     </row>
     <row r="45">
@@ -872,7 +872,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C45">
-        <v>6.344276666666625</v>
+        <v>2.0051233333333207</v>
       </c>
     </row>
     <row r="46">
@@ -883,7 +883,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C46">
-        <v>7.788006666666641</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="47">
@@ -894,7 +894,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C47">
-        <v>7.619196666666653</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="48">
@@ -905,7 +905,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C48">
-        <v>7.961276666666663</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="49">
@@ -916,7 +916,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C49">
-        <v>7.488589999999988</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="50">
@@ -927,7 +927,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C50">
-        <v>6.382066666666655</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="51">
@@ -938,7 +938,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C51">
-        <v>6.051329999999988</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="52">
@@ -949,7 +949,7 @@
         <v>-0.01</v>
       </c>
       <c r="C52">
-        <v>14.394110000000069</v>
+        <v>15.681606666666672</v>
       </c>
     </row>
     <row r="53">
@@ -960,7 +960,7 @@
         <v>-0.012</v>
       </c>
       <c r="C53">
-        <v>14.984703333333337</v>
+        <v>15.257156666666694</v>
       </c>
     </row>
     <row r="54">
@@ -971,7 +971,7 @@
         <v>-0.014</v>
       </c>
       <c r="C54">
-        <v>12.234356666666656</v>
+        <v>15.658686666666673</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         <v>-0.016</v>
       </c>
       <c r="C55">
-        <v>12.537573333333304</v>
+        <v>15.835736666666644</v>
       </c>
     </row>
     <row r="56">
@@ -993,7 +993,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C56">
-        <v>10.55883666666665</v>
+        <v>15.367579999999995</v>
       </c>
     </row>
     <row r="57">
@@ -1004,7 +1004,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C57">
-        <v>10.617776666666657</v>
+        <v>15.209396666666692</v>
       </c>
     </row>
     <row r="58">
@@ -1015,7 +1015,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C58">
-        <v>9.05743000000001</v>
+        <v>14.806583333333304</v>
       </c>
     </row>
     <row r="59">
@@ -1026,7 +1026,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C59">
-        <v>8.016050000000007</v>
+        <v>11.520170000000007</v>
       </c>
     </row>
     <row r="60">
@@ -1037,7 +1037,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C60">
-        <v>8.268800000000018</v>
+        <v>10.603589999999997</v>
       </c>
     </row>
     <row r="61">
@@ -1048,7 +1048,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C61">
-        <v>8.304836666666688</v>
+        <v>10.767000000000015</v>
       </c>
     </row>
     <row r="62">
@@ -1059,7 +1059,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C62">
-        <v>6.519299999999988</v>
+        <v>10.570963333333358</v>
       </c>
     </row>
     <row r="63">
@@ -1070,7 +1070,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C63">
-        <v>5.646800000000004</v>
+        <v>7.385796666666655</v>
       </c>
     </row>
     <row r="64">
@@ -1081,7 +1081,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C64">
-        <v>5.1493499999999885</v>
+        <v>7.533879999999991</v>
       </c>
     </row>
     <row r="65">
@@ -1092,7 +1092,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C65">
-        <v>5.2790366666666655</v>
+        <v>7.533879999999991</v>
       </c>
     </row>
     <row r="66">
@@ -1103,7 +1103,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C66">
-        <v>5.422656666666663</v>
+        <v>5.484756666666688</v>
       </c>
     </row>
     <row r="67">
@@ -1114,7 +1114,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C67">
-        <v>7.003493333333324</v>
+        <v>3.0994699999999966</v>
       </c>
     </row>
     <row r="68">
@@ -1125,7 +1125,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C68">
-        <v>6.039896666666645</v>
+        <v>3.0994699999999966</v>
       </c>
     </row>
     <row r="69">
@@ -1136,7 +1136,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C69">
-        <v>6.806469999999972</v>
+        <v>2.542946666666675</v>
       </c>
     </row>
     <row r="70">
@@ -1147,7 +1147,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C70">
-        <v>6.806469999999972</v>
+        <v>2.0051233333333207</v>
       </c>
     </row>
     <row r="71">
@@ -1158,7 +1158,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C71">
-        <v>8.288646666666637</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="72">
@@ -1169,7 +1169,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C72">
-        <v>8.070873333333338</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="73">
@@ -1180,7 +1180,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C73">
-        <v>8.41295333333333</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="74">
@@ -1191,7 +1191,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C74">
-        <v>7.935689999999984</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="75">
@@ -1202,7 +1202,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C75">
-        <v>6.729259999999991</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="76">
@@ -1213,7 +1213,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C76">
-        <v>6.400056666666652</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="77">
@@ -1224,7 +1224,7 @@
         <v>-0.01</v>
       </c>
       <c r="C77">
-        <v>15.406710000000052</v>
+        <v>15.771496666666678</v>
       </c>
     </row>
     <row r="78">
@@ -1235,7 +1235,7 @@
         <v>-0.012</v>
       </c>
       <c r="C78">
-        <v>15.934423333333294</v>
+        <v>15.480116666666675</v>
       </c>
     </row>
     <row r="79">
@@ -1246,7 +1246,7 @@
         <v>-0.014</v>
       </c>
       <c r="C79">
-        <v>13.040466666666628</v>
+        <v>16.542459999999988</v>
       </c>
     </row>
     <row r="80">
@@ -1257,7 +1257,7 @@
         <v>-0.016</v>
       </c>
       <c r="C80">
-        <v>13.319433333333297</v>
+        <v>17.154849999999993</v>
       </c>
     </row>
     <row r="81">
@@ -1268,7 +1268,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C81">
-        <v>11.383799999999951</v>
+        <v>16.616450000000004</v>
       </c>
     </row>
     <row r="82">
@@ -1279,7 +1279,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C82">
-        <v>11.413146666666648</v>
+        <v>16.45826666666668</v>
       </c>
     </row>
     <row r="83">
@@ -1290,7 +1290,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C83">
-        <v>9.697389999999965</v>
+        <v>16.055453333333293</v>
       </c>
     </row>
     <row r="84">
@@ -1301,7 +1301,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C84">
-        <v>8.501453333333302</v>
+        <v>12.43999333333333</v>
       </c>
     </row>
     <row r="85">
@@ -1312,7 +1312,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C85">
-        <v>8.78843333333335</v>
+        <v>11.26455333333331</v>
       </c>
     </row>
     <row r="86">
@@ -1323,7 +1323,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C86">
-        <v>8.82447000000002</v>
+        <v>11.427963333333349</v>
       </c>
     </row>
     <row r="87">
@@ -1334,7 +1334,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C87">
-        <v>7.038933333333337</v>
+        <v>11.185746666666677</v>
       </c>
     </row>
     <row r="88">
@@ -1345,7 +1345,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C88">
-        <v>5.913863333333325</v>
+        <v>7.807086666666692</v>
       </c>
     </row>
     <row r="89">
@@ -1356,7 +1356,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C89">
-        <v>5.416413333333328</v>
+        <v>7.955170000000028</v>
       </c>
     </row>
     <row r="90">
@@ -1367,7 +1367,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C90">
-        <v>5.546099999999987</v>
+        <v>7.955170000000028</v>
       </c>
     </row>
     <row r="91">
@@ -1378,7 +1378,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C91">
-        <v>5.689720000000004</v>
+        <v>5.774696666666671</v>
       </c>
     </row>
     <row r="92">
@@ -1389,7 +1389,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C92">
-        <v>7.125746666666677</v>
+        <v>3.1613033333333456</v>
       </c>
     </row>
     <row r="93">
@@ -1400,7 +1400,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C93">
-        <v>6.05459666666665</v>
+        <v>3.1613033333333456</v>
       </c>
     </row>
     <row r="94">
@@ -1411,7 +1411,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C94">
-        <v>6.8779899999999925</v>
+        <v>2.542946666666675</v>
       </c>
     </row>
     <row r="95">
@@ -1422,7 +1422,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C95">
-        <v>6.8779899999999925</v>
+        <v>2.0051233333333207</v>
       </c>
     </row>
     <row r="96">
@@ -1433,7 +1433,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C96">
-        <v>8.280909999999988</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="97">
@@ -1444,7 +1444,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C97">
-        <v>8.083123333333333</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="98">
@@ -1455,7 +1455,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C98">
-        <v>8.425203333333343</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="99">
@@ -1466,7 +1466,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C99">
-        <v>7.89897666666665</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="100">
@@ -1477,7 +1477,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C100">
-        <v>6.692546666666659</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="101">
@@ -1488,7 +1488,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C101">
-        <v>6.363343333333319</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="102">
@@ -1499,7 +1499,7 @@
         <v>-0.01</v>
       </c>
       <c r="C102">
-        <v>16.920150000000053</v>
+        <v>15.215540000000072</v>
       </c>
     </row>
     <row r="103">
@@ -1510,7 +1510,7 @@
         <v>-0.012</v>
       </c>
       <c r="C103">
-        <v>17.343059999999998</v>
+        <v>14.514560000000037</v>
       </c>
     </row>
     <row r="104">
@@ -1521,7 +1521,7 @@
         <v>-0.014</v>
       </c>
       <c r="C104">
-        <v>14.177259999999988</v>
+        <v>15.187193333333388</v>
       </c>
     </row>
     <row r="105">
@@ -1532,7 +1532,7 @@
         <v>-0.016</v>
       </c>
       <c r="C105">
-        <v>14.267163333333277</v>
+        <v>15.910886666666688</v>
       </c>
     </row>
     <row r="106">
@@ -1543,7 +1543,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C106">
-        <v>12.270689999999982</v>
+        <v>16.0847766666667</v>
       </c>
     </row>
     <row r="107">
@@ -1554,7 +1554,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C107">
-        <v>12.289066666666674</v>
+        <v>16.07999666666668</v>
       </c>
     </row>
     <row r="108">
@@ -1565,7 +1565,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C108">
-        <v>10.526056666666667</v>
+        <v>16.254563333333312</v>
       </c>
     </row>
     <row r="109">
@@ -1576,7 +1576,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C109">
-        <v>9.074339999999967</v>
+        <v>13.358413333333354</v>
       </c>
     </row>
     <row r="110">
@@ -1587,7 +1587,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C110">
-        <v>9.49954999999998</v>
+        <v>12.138063333333339</v>
       </c>
     </row>
     <row r="111">
@@ -1598,7 +1598,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C111">
-        <v>9.490796666666654</v>
+        <v>12.298196666666684</v>
       </c>
     </row>
     <row r="112">
@@ -1609,7 +1609,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C112">
-        <v>7.648316666666649</v>
+        <v>12.173123333333365</v>
       </c>
     </row>
     <row r="113">
@@ -1620,7 +1620,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C113">
-        <v>6.45784333333332</v>
+        <v>8.86748000000004</v>
       </c>
     </row>
     <row r="114">
@@ -1631,7 +1631,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C114">
-        <v>5.924709999999986</v>
+        <v>9.015563333333375</v>
       </c>
     </row>
     <row r="115">
@@ -1642,7 +1642,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C115">
-        <v>6.054396666666662</v>
+        <v>9.015563333333375</v>
       </c>
     </row>
     <row r="116">
@@ -1653,7 +1653,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C116">
-        <v>6.1980166666666605</v>
+        <v>6.693513333333366</v>
       </c>
     </row>
     <row r="117">
@@ -1664,7 +1664,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C117">
-        <v>7.561673333333337</v>
+        <v>3.7484333333333284</v>
       </c>
     </row>
     <row r="118">
@@ -1675,7 +1675,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C118">
-        <v>6.097329999999981</v>
+        <v>3.7484333333333284</v>
       </c>
     </row>
     <row r="119">
@@ -1686,7 +1686,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C119">
-        <v>6.924816666666629</v>
+        <v>2.9019700000000057</v>
       </c>
     </row>
     <row r="120">
@@ -1697,7 +1697,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C120">
-        <v>6.924816666666629</v>
+        <v>2.1651200000000017</v>
       </c>
     </row>
     <row r="121">
@@ -1708,7 +1708,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C121">
-        <v>8.38455666666664</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="122">
@@ -1719,7 +1719,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C122">
-        <v>8.107513333333333</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="123">
@@ -1730,7 +1730,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C123">
-        <v>8.449593333333326</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="124">
@@ -1741,7 +1741,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C124">
-        <v>7.923366666666652</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="125">
@@ -1752,7 +1752,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C125">
-        <v>6.716936666666659</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="126">
@@ -1763,7 +1763,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C126">
-        <v>6.38773333333332</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="127">
@@ -1774,7 +1774,7 @@
         <v>-0.01</v>
       </c>
       <c r="C127">
-        <v>20.18065666666672</v>
+        <v>13.57454666666672</v>
       </c>
     </row>
     <row r="128">
@@ -1785,7 +1785,7 @@
         <v>-0.012</v>
       </c>
       <c r="C128">
-        <v>21.04655333333331</v>
+        <v>12.226716666666675</v>
       </c>
     </row>
     <row r="129">
@@ -1796,7 +1796,7 @@
         <v>-0.014</v>
       </c>
       <c r="C129">
-        <v>16.717053333333315</v>
+        <v>12.400343333333334</v>
       </c>
     </row>
     <row r="130">
@@ -1807,7 +1807,7 @@
         <v>-0.016</v>
       </c>
       <c r="C130">
-        <v>16.228879999999986</v>
+        <v>12.522276666666698</v>
       </c>
     </row>
     <row r="131">
@@ -1818,7 +1818,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C131">
-        <v>14.07258666666661</v>
+        <v>12.659236666666704</v>
       </c>
     </row>
     <row r="132">
@@ -1829,7 +1829,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C132">
-        <v>14.480346666666662</v>
+        <v>12.085906666666668</v>
       </c>
     </row>
     <row r="133">
@@ -1840,7 +1840,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C133">
-        <v>12.08165999999998</v>
+        <v>12.653470000000008</v>
       </c>
     </row>
     <row r="134">
@@ -1851,7 +1851,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C134">
-        <v>10.522439999999978</v>
+        <v>10.314033333333345</v>
       </c>
     </row>
     <row r="135">
@@ -1862,7 +1862,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C135">
-        <v>11.733833333333337</v>
+        <v>9.809133333333344</v>
       </c>
     </row>
     <row r="136">
@@ -1873,7 +1873,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C136">
-        <v>11.792846666666625</v>
+        <v>10.747353333333365</v>
       </c>
     </row>
     <row r="137">
@@ -1884,7 +1884,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C137">
-        <v>9.24079333333331</v>
+        <v>10.617310000000051</v>
       </c>
     </row>
     <row r="138">
@@ -1895,7 +1895,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C138">
-        <v>7.9607633333333</v>
+        <v>8.49350666666669</v>
       </c>
     </row>
     <row r="139">
@@ -1906,7 +1906,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C139">
-        <v>7.27131666666664</v>
+        <v>8.641590000000027</v>
       </c>
     </row>
     <row r="140">
@@ -1917,7 +1917,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C140">
-        <v>7.401003333333317</v>
+        <v>8.641590000000027</v>
       </c>
     </row>
     <row r="141">
@@ -1928,7 +1928,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C141">
-        <v>7.544623333333315</v>
+        <v>6.693513333333366</v>
       </c>
     </row>
     <row r="142">
@@ -1939,7 +1939,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C142">
-        <v>8.736149999999972</v>
+        <v>3.7484333333333284</v>
       </c>
     </row>
     <row r="143">
@@ -1950,7 +1950,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C143">
-        <v>6.80962333333332</v>
+        <v>3.7484333333333284</v>
       </c>
     </row>
     <row r="144">
@@ -1961,7 +1961,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C144">
-        <v>7.321133333333288</v>
+        <v>2.9019700000000057</v>
       </c>
     </row>
     <row r="145">
@@ -1972,7 +1972,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C145">
-        <v>7.321133333333288</v>
+        <v>2.1651200000000017</v>
       </c>
     </row>
     <row r="146">
@@ -1983,7 +1983,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C146">
-        <v>8.539023333333299</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="147">
@@ -1994,7 +1994,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C147">
-        <v>8.18886333333334</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="148">
@@ -2005,7 +2005,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C148">
-        <v>8.530943333333331</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="149">
@@ -2016,7 +2016,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C149">
-        <v>7.94544666666665</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="150">
@@ -2027,7 +2027,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C150">
-        <v>6.739016666666657</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="151">
@@ -2038,7 +2038,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C151">
-        <v>6.409813333333318</v>
+        <v>1.4386466666666706</v>
       </c>
     </row>
     <row r="152">
@@ -2049,7 +2049,7 @@
         <v>-0.01</v>
       </c>
       <c r="C152">
-        <v>20.377170000000092</v>
+        <v>13.22133666666669</v>
       </c>
     </row>
     <row r="153">
@@ -2060,7 +2060,7 @@
         <v>-0.012</v>
       </c>
       <c r="C153">
-        <v>20.856066666666646</v>
+        <v>12.266470000000007</v>
       </c>
     </row>
     <row r="154">
@@ -2071,7 +2071,7 @@
         <v>-0.014</v>
       </c>
       <c r="C154">
-        <v>17.356040000000007</v>
+        <v>13.01701666666666</v>
       </c>
     </row>
     <row r="155">
@@ -2082,7 +2082,7 @@
         <v>-0.016</v>
       </c>
       <c r="C155">
-        <v>16.929916666666635</v>
+        <v>13.66397333333335</v>
       </c>
     </row>
     <row r="156">
@@ -2093,7 +2093,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C156">
-        <v>14.42489333333333</v>
+        <v>13.800933333333356</v>
       </c>
     </row>
     <row r="157">
@@ -2104,7 +2104,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C157">
-        <v>14.774270000000001</v>
+        <v>13.04145</v>
       </c>
     </row>
     <row r="158">
@@ -2115,7 +2115,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C158">
-        <v>12.142810000000017</v>
+        <v>13.609013333333317</v>
       </c>
     </row>
     <row r="159">
@@ -2126,7 +2126,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C159">
-        <v>10.250226666666663</v>
+        <v>10.985436666666677</v>
       </c>
     </row>
     <row r="160">
@@ -2137,7 +2137,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C160">
-        <v>11.433736666666693</v>
+        <v>10.248953333333324</v>
       </c>
     </row>
     <row r="161">
@@ -2148,7 +2148,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C161">
-        <v>11.878786666666693</v>
+        <v>11.187173333333343</v>
       </c>
     </row>
     <row r="162">
@@ -2159,7 +2159,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C162">
-        <v>8.759113333333326</v>
+        <v>10.932366666666686</v>
       </c>
     </row>
     <row r="163">
@@ -2170,7 +2170,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C163">
-        <v>7.215846666666683</v>
+        <v>8.701930000000004</v>
       </c>
     </row>
     <row r="164">
@@ -2181,7 +2181,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C164">
-        <v>8.012203333333332</v>
+        <v>8.850013333333342</v>
       </c>
     </row>
     <row r="165">
@@ -2192,7 +2192,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C165">
-        <v>8.14188999999999</v>
+        <v>8.850013333333342</v>
       </c>
     </row>
     <row r="166">
@@ -2203,7 +2203,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C166">
-        <v>8.285510000000007</v>
+        <v>6.90193666666668</v>
       </c>
     </row>
     <row r="167">
@@ -2214,7 +2214,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C167">
-        <v>9.380830000000023</v>
+        <v>3.850433333333323</v>
       </c>
     </row>
     <row r="168">
@@ -2225,7 +2225,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C168">
-        <v>6.979469999999992</v>
+        <v>3.850433333333323</v>
       </c>
     </row>
     <row r="169">
@@ -2236,7 +2236,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C169">
-        <v>7.471379999999991</v>
+        <v>3.0497166666666544</v>
       </c>
     </row>
     <row r="170">
@@ -2247,7 +2247,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C170">
-        <v>7.471379999999991</v>
+        <v>2.231403333333314</v>
       </c>
     </row>
     <row r="171">
@@ -2258,7 +2258,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C171">
-        <v>8.619236666666628</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="172">
@@ -2269,7 +2269,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C172">
-        <v>8.15716333333334</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="173">
@@ -2280,7 +2280,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C173">
-        <v>8.499243333333348</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="174">
@@ -2291,7 +2291,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C174">
-        <v>7.913746666666649</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="175">
@@ -2302,7 +2302,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C175">
-        <v>6.7073166666666575</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="176">
@@ -2313,7 +2313,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C176">
-        <v>6.378113333333317</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="177">
@@ -2324,7 +2324,7 @@
         <v>-0.01</v>
       </c>
       <c r="C177">
-        <v>21.94607000000004</v>
+        <v>14.231376666666677</v>
       </c>
     </row>
     <row r="178">
@@ -2335,7 +2335,7 @@
         <v>-0.012</v>
       </c>
       <c r="C178">
-        <v>23.015536666666627</v>
+        <v>12.95132666666664</v>
       </c>
     </row>
     <row r="179">
@@ -2346,7 +2346,7 @@
         <v>-0.014</v>
       </c>
       <c r="C179">
-        <v>18.49759666666667</v>
+        <v>13.701873333333312</v>
       </c>
     </row>
     <row r="180">
@@ -2357,7 +2357,7 @@
         <v>-0.016</v>
       </c>
       <c r="C180">
-        <v>18.07147333333334</v>
+        <v>14.314636666666653</v>
       </c>
     </row>
     <row r="181">
@@ -2368,7 +2368,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C181">
-        <v>15.566449999999993</v>
+        <v>14.45159666666666</v>
       </c>
     </row>
     <row r="182">
@@ -2379,7 +2379,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C182">
-        <v>15.915826666666666</v>
+        <v>14.250389999999982</v>
       </c>
     </row>
     <row r="183">
@@ -2390,7 +2390,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C183">
-        <v>13.075673333333308</v>
+        <v>14.817953333333303</v>
       </c>
     </row>
     <row r="184">
@@ -2401,7 +2401,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C184">
-        <v>12.10461666666663</v>
+        <v>12.11763666666667</v>
       </c>
     </row>
     <row r="185">
@@ -2412,7 +2412,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C185">
-        <v>12.480629999999982</v>
+        <v>11.345956666666666</v>
       </c>
     </row>
     <row r="186">
@@ -2423,7 +2423,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C186">
-        <v>13.0391166666667</v>
+        <v>12.284176666666687</v>
       </c>
     </row>
     <row r="187">
@@ -2434,7 +2434,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C187">
-        <v>10.511643333333307</v>
+        <v>12.014170000000018</v>
       </c>
     </row>
     <row r="188">
@@ -2445,7 +2445,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C188">
-        <v>8.172073333333325</v>
+        <v>9.446570000000008</v>
       </c>
     </row>
     <row r="189">
@@ -2456,7 +2456,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C189">
-        <v>8.618833333333328</v>
+        <v>9.594653333333346</v>
       </c>
     </row>
     <row r="190">
@@ -2467,7 +2467,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C190">
-        <v>8.748519999999985</v>
+        <v>9.594653333333346</v>
       </c>
     </row>
     <row r="191">
@@ -2478,7 +2478,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C191">
-        <v>8.892140000000003</v>
+        <v>7.2392700000000145</v>
       </c>
     </row>
     <row r="192">
@@ -2489,7 +2489,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C192">
-        <v>9.951929999999985</v>
+        <v>3.914429999999982</v>
       </c>
     </row>
     <row r="193">
@@ -2500,7 +2500,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C193">
-        <v>7.56565999999998</v>
+        <v>3.914429999999982</v>
       </c>
     </row>
     <row r="194">
@@ -2511,7 +2511,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C194">
-        <v>7.876646666666639</v>
+        <v>3.085433333333337</v>
       </c>
     </row>
     <row r="195">
@@ -2522,7 +2522,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C195">
-        <v>7.876646666666639</v>
+        <v>2.3128666666666504</v>
       </c>
     </row>
     <row r="196">
@@ -2533,7 +2533,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C196">
-        <v>8.88576333333333</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="197">
@@ -2544,7 +2544,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C197">
-        <v>8.334056666666697</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="198">
@@ -2555,7 +2555,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C198">
-        <v>8.676136666666668</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="199">
@@ -2566,7 +2566,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C199">
-        <v>8.090640000000008</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="200">
@@ -2577,7 +2577,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C200">
-        <v>6.8566466666666575</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="201">
@@ -2588,7 +2588,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C201">
-        <v>6.489149999999995</v>
+        <v>1.4649266666666563</v>
       </c>
     </row>
     <row r="202">
@@ -2599,7 +2599,7 @@
         <v>-0.01</v>
       </c>
       <c r="C202">
-        <v>22.09803333333334</v>
+        <v>17.196786666666657</v>
       </c>
     </row>
     <row r="203">
@@ -2610,7 +2610,7 @@
         <v>-0.012</v>
       </c>
       <c r="C203">
-        <v>23.207813333333302</v>
+        <v>15.22581999999998</v>
       </c>
     </row>
     <row r="204">
@@ -2621,7 +2621,7 @@
         <v>-0.014</v>
       </c>
       <c r="C204">
-        <v>19.209000000000003</v>
+        <v>15.97636666666663</v>
       </c>
     </row>
     <row r="205">
@@ -2632,7 +2632,7 @@
         <v>-0.016</v>
       </c>
       <c r="C205">
-        <v>18.692659999999968</v>
+        <v>16.589129999999976</v>
       </c>
     </row>
     <row r="206">
@@ -2643,7 +2643,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C206">
-        <v>16.15844333333331</v>
+        <v>16.72609</v>
       </c>
     </row>
     <row r="207">
@@ -2654,7 +2654,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C207">
-        <v>16.442003333333354</v>
+        <v>15.7823133333333</v>
       </c>
     </row>
     <row r="208">
@@ -2665,7 +2665,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C208">
-        <v>13.560926666666658</v>
+        <v>16.349876666666642</v>
       </c>
     </row>
     <row r="209">
@@ -2676,7 +2676,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C209">
-        <v>11.794249999999977</v>
+        <v>13.219779999999975</v>
       </c>
     </row>
     <row r="210">
@@ -2687,7 +2687,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C210">
-        <v>13.15236333333335</v>
+        <v>12.353613333333348</v>
       </c>
     </row>
     <row r="211">
@@ -2698,7 +2698,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C211">
-        <v>13.233790000000017</v>
+        <v>13.291833333333347</v>
       </c>
     </row>
     <row r="212">
@@ -2709,7 +2709,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C212">
-        <v>9.860486666666663</v>
+        <v>13.0112066666667</v>
       </c>
     </row>
     <row r="213">
@@ -2720,7 +2720,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C213">
-        <v>8.085813333333325</v>
+        <v>10.39578666666667</v>
       </c>
     </row>
     <row r="214">
@@ -2731,7 +2731,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C214">
-        <v>9.48081666666667</v>
+        <v>10.543870000000007</v>
       </c>
     </row>
     <row r="215">
@@ -2742,7 +2742,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C215">
-        <v>9.610503333333327</v>
+        <v>10.543870000000007</v>
       </c>
     </row>
     <row r="216">
@@ -2753,7 +2753,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C216">
-        <v>9.754123333333306</v>
+        <v>8.014716666666686</v>
       </c>
     </row>
     <row r="217">
@@ -2764,7 +2764,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C217">
-        <v>10.767559999999984</v>
+        <v>4.043216666666657</v>
       </c>
     </row>
     <row r="218">
@@ -2775,7 +2775,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C218">
-        <v>8.136816666666656</v>
+        <v>4.043216666666657</v>
       </c>
     </row>
     <row r="219">
@@ -2786,7 +2786,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C219">
-        <v>8.485109999999981</v>
+        <v>3.124333333333349</v>
       </c>
     </row>
     <row r="220">
@@ -2797,7 +2797,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C220">
-        <v>8.485109999999981</v>
+        <v>2.3234866666666676</v>
       </c>
     </row>
     <row r="221">
@@ -2808,7 +2808,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C221">
-        <v>9.52160333333332</v>
+        <v>1.4755466666666734</v>
       </c>
     </row>
     <row r="222">
@@ -2819,7 +2819,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C222">
-        <v>8.788973333333349</v>
+        <v>1.4755466666666734</v>
       </c>
     </row>
     <row r="223">
@@ -2830,7 +2830,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C223">
-        <v>9.131053333333321</v>
+        <v>1.4755466666666734</v>
       </c>
     </row>
     <row r="224">
@@ -2841,7 +2841,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C224">
-        <v>8.10435666666666</v>
+        <v>1.4755466666666734</v>
       </c>
     </row>
     <row r="225">
@@ -2852,7 +2852,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C225">
-        <v>6.870363333333331</v>
+        <v>1.4755466666666734</v>
       </c>
     </row>
     <row r="226">
@@ -2863,7 +2863,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C226">
-        <v>6.502866666666667</v>
+        <v>1.4755466666666734</v>
       </c>
     </row>
     <row r="227">
@@ -2874,7 +2874,7 @@
         <v>-0.01</v>
       </c>
       <c r="C227">
-        <v>24.20846000000002</v>
+        <v>14.04401333333334</v>
       </c>
     </row>
     <row r="228">
@@ -2885,7 +2885,7 @@
         <v>-0.012</v>
       </c>
       <c r="C228">
-        <v>24.59465333333331</v>
+        <v>11.834916666666686</v>
       </c>
     </row>
     <row r="229">
@@ -2896,7 +2896,7 @@
         <v>-0.014</v>
       </c>
       <c r="C229">
-        <v>20.509140000000002</v>
+        <v>12.585463333333355</v>
       </c>
     </row>
     <row r="230">
@@ -2907,7 +2907,7 @@
         <v>-0.016</v>
       </c>
       <c r="C230">
-        <v>19.87168000000001</v>
+        <v>12.928439999999986</v>
       </c>
     </row>
     <row r="231">
@@ -2918,7 +2918,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C231">
-        <v>16.857896666666665</v>
+        <v>13.065400000000011</v>
       </c>
     </row>
     <row r="232">
@@ -2929,7 +2929,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C232">
-        <v>17.13369666666667</v>
+        <v>11.239646666666658</v>
       </c>
     </row>
     <row r="233">
@@ -2940,7 +2940,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C233">
-        <v>14.209613333333342</v>
+        <v>11.80720999999998</v>
       </c>
     </row>
     <row r="234">
@@ -2951,7 +2951,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C234">
-        <v>12.34508333333332</v>
+        <v>7.792543333333336</v>
       </c>
     </row>
     <row r="235">
@@ -2962,7 +2962,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C235">
-        <v>13.712020000000013</v>
+        <v>6.693909999999997</v>
       </c>
     </row>
     <row r="236">
@@ -2973,7 +2973,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C236">
-        <v>13.7934466666667</v>
+        <v>8.808690000000013</v>
       </c>
     </row>
     <row r="237">
@@ -2984,7 +2984,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C237">
-        <v>10.369639999999986</v>
+        <v>9.136270000000025</v>
       </c>
     </row>
     <row r="238">
@@ -2995,7 +2995,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C238">
-        <v>8.594966666666682</v>
+        <v>7.348960000000034</v>
       </c>
     </row>
     <row r="239">
@@ -3006,7 +3006,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C239">
-        <v>9.989969999999989</v>
+        <v>7.497043333333371</v>
       </c>
     </row>
     <row r="240">
@@ -3017,7 +3017,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C240">
-        <v>10.119656666666668</v>
+        <v>7.497043333333371</v>
       </c>
     </row>
     <row r="241">
@@ -3028,7 +3028,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C241">
-        <v>10.263276666666666</v>
+        <v>8.383636666666689</v>
       </c>
     </row>
     <row r="242">
@@ -3039,7 +3039,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C242">
-        <v>11.22696000000002</v>
+        <v>4.20225666666668</v>
       </c>
     </row>
     <row r="243">
@@ -3050,7 +3050,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C243">
-        <v>8.526966666666661</v>
+        <v>4.20225666666668</v>
       </c>
     </row>
     <row r="244">
@@ -3061,7 +3061,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C244">
-        <v>8.792869999999994</v>
+        <v>3.2951166666666727</v>
       </c>
     </row>
     <row r="245">
@@ -3072,7 +3072,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C245">
-        <v>8.792869999999994</v>
+        <v>2.404383333333328</v>
       </c>
     </row>
     <row r="246">
@@ -3083,7 +3083,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C246">
-        <v>9.802656666666659</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="247">
@@ -3094,7 +3094,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C247">
-        <v>9.070026666666688</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="248">
@@ -3105,7 +3105,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C248">
-        <v>9.412106666666698</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="249">
@@ -3116,7 +3116,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C249">
-        <v>8.385410000000016</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="250">
@@ -3127,7 +3127,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C250">
-        <v>7.106836666666652</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="251">
@@ -3138,7 +3138,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C251">
-        <v>6.711776666666671</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="252">
@@ -3149,7 +3149,7 @@
         <v>-0.01</v>
       </c>
       <c r="C252">
-        <v>25.60634333333337</v>
+        <v>14.85931666666668</v>
       </c>
     </row>
     <row r="253">
@@ -3160,7 +3160,7 @@
         <v>-0.012</v>
       </c>
       <c r="C253">
-        <v>25.992536666666695</v>
+        <v>14.490859999999998</v>
       </c>
     </row>
     <row r="254">
@@ -3171,7 +3171,7 @@
         <v>-0.014</v>
       </c>
       <c r="C254">
-        <v>22.99368</v>
+        <v>15.436326666666655</v>
       </c>
     </row>
     <row r="255">
@@ -3182,7 +3182,7 @@
         <v>-0.016</v>
       </c>
       <c r="C255">
-        <v>21.145980000000048</v>
+        <v>15.61682666666665</v>
       </c>
     </row>
     <row r="256">
@@ -3193,7 +3193,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C256">
-        <v>17.938903333333354</v>
+        <v>15.682043333333334</v>
       </c>
     </row>
     <row r="257">
@@ -3204,7 +3204,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C257">
-        <v>18.094516666666703</v>
+        <v>14.766426666666652</v>
       </c>
     </row>
     <row r="258">
@@ -3215,7 +3215,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C258">
-        <v>14.730839999999981</v>
+        <v>15.333989999999972</v>
       </c>
     </row>
     <row r="259">
@@ -3226,7 +3226,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C259">
-        <v>13.759106666666677</v>
+        <v>8.577560000000005</v>
       </c>
     </row>
     <row r="260">
@@ -3237,7 +3237,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C260">
-        <v>13.909230000000017</v>
+        <v>7.015140000000011</v>
       </c>
     </row>
     <row r="261">
@@ -3248,7 +3248,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C261">
-        <v>14.222106666666717</v>
+        <v>9.129920000000007</v>
       </c>
     </row>
     <row r="262">
@@ -3259,7 +3259,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C262">
-        <v>11.83258333333337</v>
+        <v>9.457500000000021</v>
       </c>
     </row>
     <row r="263">
@@ -3270,7 +3270,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C263">
-        <v>8.911536666666695</v>
+        <v>7.670190000000029</v>
       </c>
     </row>
     <row r="264">
@@ -3281,7 +3281,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C264">
-        <v>10.223696666666664</v>
+        <v>7.818273333333366</v>
       </c>
     </row>
     <row r="265">
@@ -3292,7 +3292,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C265">
-        <v>10.35338333333334</v>
+        <v>7.818273333333366</v>
       </c>
     </row>
     <row r="266">
@@ -3303,7 +3303,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C266">
-        <v>10.497003333333339</v>
+        <v>8.704866666666684</v>
       </c>
     </row>
     <row r="267">
@@ -3314,7 +3314,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C267">
-        <v>11.4409</v>
+        <v>4.4581266666666775</v>
       </c>
     </row>
     <row r="268">
@@ -3325,7 +3325,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C268">
-        <v>8.720703333333327</v>
+        <v>4.4581266666666775</v>
       </c>
     </row>
     <row r="269">
@@ -3336,7 +3336,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C269">
-        <v>8.962020000000015</v>
+        <v>3.355793333333338</v>
       </c>
     </row>
     <row r="270">
@@ -3347,7 +3347,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C270">
-        <v>8.962020000000015</v>
+        <v>2.476803333333332</v>
       </c>
     </row>
     <row r="271">
@@ -3358,7 +3358,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C271">
-        <v>9.969970000000009</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="272">
@@ -3369,7 +3369,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C272">
-        <v>9.237340000000017</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="273">
@@ -3380,7 +3380,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C273">
-        <v>9.579420000000027</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="274">
@@ -3391,7 +3391,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C274">
-        <v>8.552723333333347</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="275">
@@ -3402,7 +3402,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C275">
-        <v>7.204206666666664</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="276">
@@ -3413,7 +3413,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C276">
-        <v>6.820786666666663</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="277">
@@ -3424,7 +3424,7 @@
         <v>-0.01</v>
       </c>
       <c r="C277">
-        <v>25.076890000000013</v>
+        <v>14.37550333333337</v>
       </c>
     </row>
     <row r="278">
@@ -3435,7 +3435,7 @@
         <v>-0.012</v>
       </c>
       <c r="C278">
-        <v>25.178750000000015</v>
+        <v>15.008866666666695</v>
       </c>
     </row>
     <row r="279">
@@ -3446,7 +3446,7 @@
         <v>-0.014</v>
       </c>
       <c r="C279">
-        <v>23.999646666666667</v>
+        <v>15.857260000000014</v>
       </c>
     </row>
     <row r="280">
@@ -3457,7 +3457,7 @@
         <v>-0.016</v>
       </c>
       <c r="C280">
-        <v>22.476280000000013</v>
+        <v>16.03776000000001</v>
       </c>
     </row>
     <row r="281">
@@ -3468,7 +3468,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C281">
-        <v>19.312940000000026</v>
+        <v>16.135420000000032</v>
       </c>
     </row>
     <row r="282">
@@ -3479,7 +3479,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C282">
-        <v>19.410986666666684</v>
+        <v>15.242546666666671</v>
       </c>
     </row>
     <row r="283">
@@ -3490,7 +3490,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C283">
-        <v>15.762676666666684</v>
+        <v>15.810109999999971</v>
       </c>
     </row>
     <row r="284">
@@ -3501,7 +3501,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C284">
-        <v>14.554693333333338</v>
+        <v>9.695330000000013</v>
       </c>
     </row>
     <row r="285">
@@ -3512,7 +3512,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C285">
-        <v>14.704816666666678</v>
+        <v>7.354836666666681</v>
       </c>
     </row>
     <row r="286">
@@ -3523,7 +3523,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C286">
-        <v>15.017693333333378</v>
+        <v>9.469616666666676</v>
       </c>
     </row>
     <row r="287">
@@ -3534,7 +3534,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C287">
-        <v>12.628170000000011</v>
+        <v>9.797196666666688</v>
       </c>
     </row>
     <row r="288">
@@ -3545,7 +3545,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C288">
-        <v>9.617520000000033</v>
+        <v>8.009886666666679</v>
       </c>
     </row>
     <row r="289">
@@ -3556,7 +3556,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C289">
-        <v>10.92968</v>
+        <v>8.157970000000017</v>
       </c>
     </row>
     <row r="290">
@@ -3567,7 +3567,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C290">
-        <v>11.059366666666657</v>
+        <v>8.157970000000017</v>
       </c>
     </row>
     <row r="291">
@@ -3578,7 +3578,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C291">
-        <v>11.202986666666655</v>
+        <v>9.044563333333352</v>
       </c>
     </row>
     <row r="292">
@@ -3589,7 +3589,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C292">
-        <v>11.992410000000007</v>
+        <v>4.683596666666669</v>
       </c>
     </row>
     <row r="293">
@@ -3600,7 +3600,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C293">
-        <v>8.953503333333344</v>
+        <v>4.683596666666669</v>
       </c>
     </row>
     <row r="294">
@@ -3611,7 +3611,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C294">
-        <v>9.154830000000024</v>
+        <v>3.550986666666669</v>
       </c>
     </row>
     <row r="295">
@@ -3622,7 +3622,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C295">
-        <v>9.154830000000024</v>
+        <v>2.476803333333332</v>
       </c>
     </row>
     <row r="296">
@@ -3633,7 +3633,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C296">
-        <v>10.117990000000002</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="297">
@@ -3644,7 +3644,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C297">
-        <v>9.315690000000036</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="298">
@@ -3655,7 +3655,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C298">
-        <v>9.657770000000028</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="299">
@@ -3666,7 +3666,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C299">
-        <v>8.571603333333352</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="300">
@@ -3677,7 +3677,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C300">
-        <v>7.22308666666667</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="301">
@@ -3688,7 +3688,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C301">
-        <v>6.839666666666669</v>
+        <v>1.556443333333334</v>
       </c>
     </row>
     <row r="302">
@@ -3699,7 +3699,7 @@
         <v>-0.01</v>
       </c>
       <c r="C302">
-        <v>27.813103333333345</v>
+        <v>13.60117333333335</v>
       </c>
     </row>
     <row r="303">
@@ -3710,7 +3710,7 @@
         <v>-0.012</v>
       </c>
       <c r="C303">
-        <v>28.06158666666666</v>
+        <v>14.12097000000002</v>
       </c>
     </row>
     <row r="304">
@@ -3721,7 +3721,7 @@
         <v>-0.014</v>
       </c>
       <c r="C304">
-        <v>27.430113333333317</v>
+        <v>14.969363333333337</v>
       </c>
     </row>
     <row r="305">
@@ -3732,7 +3732,7 @@
         <v>-0.016</v>
       </c>
       <c r="C305">
-        <v>26.708786666666622</v>
+        <v>15.149863333333313</v>
       </c>
     </row>
     <row r="306">
@@ -3743,7 +3743,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C306">
-        <v>22.21505000000002</v>
+        <v>15.247523333333335</v>
       </c>
     </row>
     <row r="307">
@@ -3754,7 +3754,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C307">
-        <v>22.313096666666716</v>
+        <v>14.912783333333323</v>
       </c>
     </row>
     <row r="308">
@@ -3765,7 +3765,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C308">
-        <v>18.62909666666667</v>
+        <v>15.480346666666644</v>
       </c>
     </row>
     <row r="309">
@@ -3776,7 +3776,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C309">
-        <v>17.14928999999999</v>
+        <v>10.159016666666673</v>
       </c>
     </row>
     <row r="310">
@@ -3787,7 +3787,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C310">
-        <v>17.402323333333356</v>
+        <v>8.126383333333328</v>
       </c>
     </row>
     <row r="311">
@@ -3798,7 +3798,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C311">
-        <v>17.847373333333376</v>
+        <v>10.241163333333324</v>
       </c>
     </row>
     <row r="312">
@@ -3809,7 +3809,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C312">
-        <v>14.914046666666689</v>
+        <v>10.568743333333334</v>
       </c>
     </row>
     <row r="313">
@@ -3820,7 +3820,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C313">
-        <v>11.586483333333357</v>
+        <v>8.444576666666686</v>
       </c>
     </row>
     <row r="314">
@@ -3831,7 +3831,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C314">
-        <v>12.898643333333345</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="315">
@@ -3842,7 +3842,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C315">
-        <v>13.028330000000002</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="316">
@@ -3853,7 +3853,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C316">
-        <v>14.923710000000009</v>
+        <v>9.544789999999995</v>
       </c>
     </row>
     <row r="317">
@@ -3864,7 +3864,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C317">
-        <v>13.439913333333342</v>
+        <v>5.061973333333337</v>
       </c>
     </row>
     <row r="318">
@@ -3875,7 +3875,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C318">
-        <v>9.72847999999999</v>
+        <v>5.061973333333337</v>
       </c>
     </row>
     <row r="319">
@@ -3886,7 +3886,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C319">
-        <v>9.823039999999992</v>
+        <v>3.8302500000000164</v>
       </c>
     </row>
     <row r="320">
@@ -3897,7 +3897,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C320">
-        <v>9.823039999999992</v>
+        <v>2.7257899999999986</v>
       </c>
     </row>
     <row r="321">
@@ -3908,7 +3908,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C321">
-        <v>10.554783333333338</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="322">
@@ -3919,7 +3919,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C322">
-        <v>9.601450000000018</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="323">
@@ -3930,7 +3930,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C323">
-        <v>9.94353000000001</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="324">
@@ -3941,7 +3941,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C324">
-        <v>8.73329000000001</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="325">
@@ -3952,7 +3952,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C325">
-        <v>7.420393333333342</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="326">
@@ -3963,7 +3963,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C326">
-        <v>6.9670300000000225</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="327">
@@ -3974,7 +3974,7 @@
         <v>-0.01</v>
       </c>
       <c r="C327">
-        <v>25.982989999999972</v>
+        <v>13.446583333333345</v>
       </c>
     </row>
     <row r="328">
@@ -3985,7 +3985,7 @@
         <v>-0.012</v>
       </c>
       <c r="C328">
-        <v>26.2709133333333</v>
+        <v>13.87084333333335</v>
       </c>
     </row>
     <row r="329">
@@ -3996,7 +3996,7 @@
         <v>-0.014</v>
       </c>
       <c r="C329">
-        <v>25.40267999999998</v>
+        <v>14.719236666666669</v>
       </c>
     </row>
     <row r="330">
@@ -4007,7 +4007,7 @@
         <v>-0.016</v>
       </c>
       <c r="C330">
-        <v>27.697099999999956</v>
+        <v>14.899736666666666</v>
       </c>
     </row>
     <row r="331">
@@ -4018,7 +4018,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C331">
-        <v>22.85830333333333</v>
+        <v>14.997396666666665</v>
       </c>
     </row>
     <row r="332">
@@ -4029,7 +4029,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C332">
-        <v>22.53706333333336</v>
+        <v>15.11892666666665</v>
       </c>
     </row>
     <row r="333">
@@ -4040,7 +4040,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C333">
-        <v>19.463009999999997</v>
+        <v>15.686489999999973</v>
       </c>
     </row>
     <row r="334">
@@ -4051,7 +4051,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C334">
-        <v>18.66681999999999</v>
+        <v>10.469863333333345</v>
       </c>
     </row>
     <row r="335">
@@ -4062,7 +4062,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C335">
-        <v>19.102516666666663</v>
+        <v>8.23124333333332</v>
       </c>
     </row>
     <row r="336">
@@ -4073,7 +4073,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C336">
-        <v>19.069646666666664</v>
+        <v>10.21276333333331</v>
       </c>
     </row>
     <row r="337">
@@ -4084,7 +4084,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C337">
-        <v>16.90575333333332</v>
+        <v>10.540343333333322</v>
       </c>
     </row>
     <row r="338">
@@ -4095,7 +4095,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C338">
-        <v>13.101500000000007</v>
+        <v>8.444576666666686</v>
       </c>
     </row>
     <row r="339">
@@ -4106,7 +4106,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C339">
-        <v>15.872779999999997</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="340">
@@ -4117,7 +4117,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C340">
-        <v>16.04765333333332</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="341">
@@ -4128,7 +4128,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C341">
-        <v>16.32381666666667</v>
+        <v>9.544789999999995</v>
       </c>
     </row>
     <row r="342">
@@ -4139,7 +4139,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C342">
-        <v>14.919929999999985</v>
+        <v>5.061973333333337</v>
       </c>
     </row>
     <row r="343">
@@ -4150,7 +4150,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C343">
-        <v>10.199106666666657</v>
+        <v>5.061973333333337</v>
       </c>
     </row>
     <row r="344">
@@ -4161,7 +4161,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C344">
-        <v>10.250056666666637</v>
+        <v>3.8302500000000164</v>
       </c>
     </row>
     <row r="345">
@@ -4172,7 +4172,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C345">
-        <v>10.250056666666637</v>
+        <v>2.7257899999999986</v>
       </c>
     </row>
     <row r="346">
@@ -4183,7 +4183,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C346">
-        <v>11.319949999999986</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="347">
@@ -4194,7 +4194,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C347">
-        <v>10.323186666666686</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="348">
@@ -4205,7 +4205,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C348">
-        <v>10.665266666666676</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="349">
@@ -4216,7 +4216,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C349">
-        <v>9.403480000000002</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="350">
@@ -4227,7 +4227,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C350">
-        <v>7.578763333333333</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="351">
@@ -4238,7 +4238,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C351">
-        <v>7.1825566666666605</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="352">
@@ -4249,7 +4249,7 @@
         <v>-0.01</v>
       </c>
       <c r="C352">
-        <v>24.211886666666675</v>
+        <v>13.446583333333345</v>
       </c>
     </row>
     <row r="353">
@@ -4260,7 +4260,7 @@
         <v>-0.012</v>
       </c>
       <c r="C353">
-        <v>23.86137333333329</v>
+        <v>13.87084333333335</v>
       </c>
     </row>
     <row r="354">
@@ -4271,7 +4271,7 @@
         <v>-0.014</v>
       </c>
       <c r="C354">
-        <v>23.531793333333326</v>
+        <v>14.719236666666669</v>
       </c>
     </row>
     <row r="355">
@@ -4282,7 +4282,7 @@
         <v>-0.016</v>
       </c>
       <c r="C355">
-        <v>23.59970333333331</v>
+        <v>14.899736666666666</v>
       </c>
     </row>
     <row r="356">
@@ -4293,7 +4293,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C356">
-        <v>20.004026666666693</v>
+        <v>14.997396666666665</v>
       </c>
     </row>
     <row r="357">
@@ -4304,7 +4304,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C357">
-        <v>19.109673333333337</v>
+        <v>15.11892666666665</v>
       </c>
     </row>
     <row r="358">
@@ -4315,7 +4315,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C358">
-        <v>16.401273333333314</v>
+        <v>15.686489999999973</v>
       </c>
     </row>
     <row r="359">
@@ -4326,7 +4326,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C359">
-        <v>12.69612333333333</v>
+        <v>10.469863333333345</v>
       </c>
     </row>
     <row r="360">
@@ -4337,7 +4337,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C360">
-        <v>13.186049999999986</v>
+        <v>8.23124333333332</v>
       </c>
     </row>
     <row r="361">
@@ -4348,7 +4348,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C361">
-        <v>13.212639999999984</v>
+        <v>10.21276333333331</v>
       </c>
     </row>
     <row r="362">
@@ -4359,7 +4359,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C362">
-        <v>11.207926666666651</v>
+        <v>10.540343333333322</v>
       </c>
     </row>
     <row r="363">
@@ -4370,7 +4370,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C363">
-        <v>10.846443333333337</v>
+        <v>8.444576666666686</v>
       </c>
     </row>
     <row r="364">
@@ -4381,7 +4381,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C364">
-        <v>13.418836666666664</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="365">
@@ -4392,7 +4392,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C365">
-        <v>13.549836666666673</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="366">
@@ -4403,7 +4403,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C366">
-        <v>13.746123333333344</v>
+        <v>9.544789999999995</v>
       </c>
     </row>
     <row r="367">
@@ -4414,7 +4414,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C367">
-        <v>17.166023333333328</v>
+        <v>5.061973333333337</v>
       </c>
     </row>
     <row r="368">
@@ -4425,7 +4425,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C368">
-        <v>14.226496666666662</v>
+        <v>5.061973333333337</v>
       </c>
     </row>
     <row r="369">
@@ -4436,7 +4436,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C369">
-        <v>13.808289999999982</v>
+        <v>3.8302500000000164</v>
       </c>
     </row>
     <row r="370">
@@ -4447,7 +4447,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C370">
-        <v>13.808289999999982</v>
+        <v>2.7257899999999986</v>
       </c>
     </row>
     <row r="371">
@@ -4458,7 +4458,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C371">
-        <v>15.213133333333323</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="372">
@@ -4469,7 +4469,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C372">
-        <v>13.769826666666669</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="373">
@@ -4480,7 +4480,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C373">
-        <v>14.111906666666659</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="374">
@@ -4491,7 +4491,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C374">
-        <v>12.285230000000013</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="375">
@@ -4502,7 +4502,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C375">
-        <v>9.221246666666653</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="376">
@@ -4513,7 +4513,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C376">
-        <v>8.151939999999987</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="377">
@@ -4524,7 +4524,7 @@
         <v>-0.01</v>
       </c>
       <c r="C377">
-        <v>24.88689333333332</v>
+        <v>13.446583333333345</v>
       </c>
     </row>
     <row r="378">
@@ -4535,7 +4535,7 @@
         <v>-0.012</v>
       </c>
       <c r="C378">
-        <v>25.21297999999998</v>
+        <v>13.87084333333335</v>
       </c>
     </row>
     <row r="379">
@@ -4546,7 +4546,7 @@
         <v>-0.014</v>
       </c>
       <c r="C379">
-        <v>24.63632333333332</v>
+        <v>14.719236666666669</v>
       </c>
     </row>
     <row r="380">
@@ -4557,7 +4557,7 @@
         <v>-0.016</v>
       </c>
       <c r="C380">
-        <v>24.902289999999976</v>
+        <v>14.899736666666666</v>
       </c>
     </row>
     <row r="381">
@@ -4568,7 +4568,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C381">
-        <v>20.957406666666657</v>
+        <v>14.997396666666665</v>
       </c>
     </row>
     <row r="382">
@@ -4579,7 +4579,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C382">
-        <v>19.74496666666666</v>
+        <v>15.11892666666665</v>
       </c>
     </row>
     <row r="383">
@@ -4590,7 +4590,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C383">
-        <v>15.106426666666664</v>
+        <v>15.686489999999973</v>
       </c>
     </row>
     <row r="384">
@@ -4601,7 +4601,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C384">
-        <v>12.84718666666667</v>
+        <v>10.469863333333345</v>
       </c>
     </row>
     <row r="385">
@@ -4612,7 +4612,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C385">
-        <v>12.949250000000006</v>
+        <v>8.23124333333332</v>
       </c>
     </row>
     <row r="386">
@@ -4623,7 +4623,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C386">
-        <v>12.975840000000005</v>
+        <v>10.21276333333331</v>
       </c>
     </row>
     <row r="387">
@@ -4634,7 +4634,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C387">
-        <v>10.842713333333318</v>
+        <v>10.540343333333322</v>
       </c>
     </row>
     <row r="388">
@@ -4645,7 +4645,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C388">
-        <v>10.481230000000002</v>
+        <v>8.444576666666686</v>
       </c>
     </row>
     <row r="389">
@@ -4656,7 +4656,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C389">
-        <v>13.050479999999991</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="390">
@@ -4667,7 +4667,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C390">
-        <v>13.050479999999991</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="391">
@@ -4678,7 +4678,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C391">
-        <v>13.050479999999991</v>
+        <v>9.544789999999995</v>
       </c>
     </row>
     <row r="392">
@@ -4689,7 +4689,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C392">
-        <v>14.69130333333332</v>
+        <v>5.061973333333337</v>
       </c>
     </row>
     <row r="393">
@@ -4700,7 +4700,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C393">
-        <v>14.69130333333332</v>
+        <v>5.061973333333337</v>
       </c>
     </row>
     <row r="394">
@@ -4711,7 +4711,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C394">
-        <v>15.908629999999999</v>
+        <v>3.8302500000000164</v>
       </c>
     </row>
     <row r="395">
@@ -4722,7 +4722,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C395">
-        <v>15.908629999999999</v>
+        <v>2.7257899999999986</v>
       </c>
     </row>
     <row r="396">
@@ -4733,7 +4733,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C396">
-        <v>19.060273333333306</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="397">
@@ -4744,7 +4744,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C397">
-        <v>19.368726666666667</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="398">
@@ -4755,7 +4755,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C398">
-        <v>19.710806666666656</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="399">
@@ -4766,7 +4766,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C399">
-        <v>17.88412999999999</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="400">
@@ -4777,7 +4777,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C400">
-        <v>14.211326666666652</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="401">
@@ -4788,7 +4788,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C401">
-        <v>12.620559999999992</v>
+        <v>1.6219800000000075</v>
       </c>
     </row>
     <row r="402">
@@ -4799,7 +4799,7 @@
         <v>-0.01</v>
       </c>
       <c r="C402">
-        <v>25.811340000000012</v>
+        <v>13.446583333333345</v>
       </c>
     </row>
     <row r="403">
@@ -4810,7 +4810,7 @@
         <v>-0.012</v>
       </c>
       <c r="C403">
-        <v>26.13742666666667</v>
+        <v>13.87084333333335</v>
       </c>
     </row>
     <row r="404">
@@ -4821,7 +4821,7 @@
         <v>-0.014</v>
       </c>
       <c r="C404">
-        <v>26.261400000000002</v>
+        <v>14.719236666666669</v>
       </c>
     </row>
     <row r="405">
@@ -4832,7 +4832,7 @@
         <v>-0.016</v>
       </c>
       <c r="C405">
-        <v>26.52736666666666</v>
+        <v>14.899736666666666</v>
       </c>
     </row>
     <row r="406">
@@ -4843,7 +4843,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C406">
-        <v>22.287116666666655</v>
+        <v>14.997396666666665</v>
       </c>
     </row>
     <row r="407">
@@ -4854,7 +4854,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C407">
-        <v>21.063773333333323</v>
+        <v>15.11892666666665</v>
       </c>
     </row>
     <row r="408">
@@ -4865,7 +4865,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C408">
-        <v>15.834439999999992</v>
+        <v>15.686489999999973</v>
       </c>
     </row>
     <row r="409">
@@ -4876,7 +4876,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C409">
-        <v>13.451909999999998</v>
+        <v>10.469863333333345</v>
       </c>
     </row>
     <row r="410">
@@ -4887,7 +4887,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C410">
-        <v>13.553973333333316</v>
+        <v>8.23124333333332</v>
       </c>
     </row>
     <row r="411">
@@ -4898,7 +4898,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C411">
-        <v>13.580563333333318</v>
+        <v>10.21276333333331</v>
       </c>
     </row>
     <row r="412">
@@ -4909,7 +4909,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C412">
-        <v>11.447436666666647</v>
+        <v>10.540343333333322</v>
       </c>
     </row>
     <row r="413">
@@ -4920,7 +4920,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C413">
-        <v>11.085953333333313</v>
+        <v>8.444576666666686</v>
       </c>
     </row>
     <row r="414">
@@ -4931,7 +4931,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C414">
-        <v>13.655203333333324</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="415">
@@ -4942,7 +4942,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C415">
-        <v>13.655203333333324</v>
+        <v>8.592660000000024</v>
       </c>
     </row>
     <row r="416">
@@ -4953,7 +4953,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C416">
-        <v>13.655203333333324</v>
+        <v>9.569643333333335</v>
       </c>
     </row>
     <row r="417">
@@ -4964,7 +4964,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C417">
-        <v>15.296026666666648</v>
+        <v>5.086826666666677</v>
       </c>
     </row>
     <row r="418">
@@ -4975,7 +4975,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C418">
-        <v>15.296026666666648</v>
+        <v>5.086826666666677</v>
       </c>
     </row>
     <row r="419">
@@ -4986,7 +4986,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C419">
-        <v>16.51335333333331</v>
+        <v>3.8551033333333367</v>
       </c>
     </row>
     <row r="420">
@@ -4997,7 +4997,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C420">
-        <v>16.51335333333331</v>
+        <v>2.7506433333333193</v>
       </c>
     </row>
     <row r="421">
@@ -5008,7 +5008,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C421">
-        <v>19.664996666666656</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="422">
@@ -5019,7 +5019,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C422">
-        <v>19.973449999999996</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="423">
@@ -5030,7 +5030,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C423">
-        <v>20.315530000000003</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="424">
@@ -5041,7 +5041,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C424">
-        <v>18.488853333333317</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="425">
@@ -5052,7 +5052,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C425">
-        <v>14.81605</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="426">
@@ -5063,7 +5063,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C426">
-        <v>13.225283333333323</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="427">
@@ -5074,7 +5074,7 @@
         <v>-0.01</v>
       </c>
       <c r="C427">
-        <v>25.18283333333333</v>
+        <v>13.693936666666692</v>
       </c>
     </row>
     <row r="428">
@@ -5085,7 +5085,7 @@
         <v>-0.012</v>
       </c>
       <c r="C428">
-        <v>25.615333333333336</v>
+        <v>14.118196666666677</v>
       </c>
     </row>
     <row r="429">
@@ -5096,7 +5096,7 @@
         <v>-0.014</v>
       </c>
       <c r="C429">
-        <v>25.73930666666666</v>
+        <v>14.966590000000016</v>
       </c>
     </row>
     <row r="430">
@@ -5107,7 +5107,7 @@
         <v>-0.016</v>
       </c>
       <c r="C430">
-        <v>26.0779</v>
+        <v>15.147090000000011</v>
       </c>
     </row>
     <row r="431">
@@ -5118,7 +5118,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C431">
-        <v>22.472033333333325</v>
+        <v>15.24475000000001</v>
       </c>
     </row>
     <row r="432">
@@ -5129,7 +5129,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C432">
-        <v>21.02751333333333</v>
+        <v>15.36628</v>
       </c>
     </row>
     <row r="433">
@@ -5140,7 +5140,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C433">
-        <v>15.619833333333322</v>
+        <v>15.93384333333332</v>
       </c>
     </row>
     <row r="434">
@@ -5151,7 +5151,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C434">
-        <v>13.228699999999986</v>
+        <v>10.717216666666673</v>
       </c>
     </row>
     <row r="435">
@@ -5162,7 +5162,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C435">
-        <v>13.247336666666646</v>
+        <v>8.478596666666647</v>
       </c>
     </row>
     <row r="436">
@@ -5173,7 +5173,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C436">
-        <v>13.273926666666643</v>
+        <v>10.460116666666636</v>
       </c>
     </row>
     <row r="437">
@@ -5184,7 +5184,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C437">
-        <v>11.140799999999974</v>
+        <v>10.787696666666648</v>
       </c>
     </row>
     <row r="438">
@@ -5195,7 +5195,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C438">
-        <v>10.77931666666666</v>
+        <v>8.691930000000013</v>
       </c>
     </row>
     <row r="439">
@@ -5206,7 +5206,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C439">
-        <v>13.18844333333332</v>
+        <v>8.840013333333351</v>
       </c>
     </row>
     <row r="440">
@@ -5217,7 +5217,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C440">
-        <v>13.18844333333332</v>
+        <v>8.840013333333351</v>
       </c>
     </row>
     <row r="441">
@@ -5228,7 +5228,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C441">
-        <v>13.18844333333332</v>
+        <v>9.816996666666682</v>
       </c>
     </row>
     <row r="442">
@@ -5239,7 +5239,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C442">
-        <v>14.829266666666646</v>
+        <v>5.086826666666677</v>
       </c>
     </row>
     <row r="443">
@@ -5250,7 +5250,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C443">
-        <v>14.829266666666646</v>
+        <v>5.086826666666677</v>
       </c>
     </row>
     <row r="444">
@@ -5261,7 +5261,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C444">
-        <v>16.046593333333327</v>
+        <v>3.8551033333333367</v>
       </c>
     </row>
     <row r="445">
@@ -5272,7 +5272,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C445">
-        <v>16.046593333333327</v>
+        <v>2.7506433333333193</v>
       </c>
     </row>
     <row r="446">
@@ -5283,7 +5283,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C446">
-        <v>19.055599999999988</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="447">
@@ -5294,7 +5294,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C447">
-        <v>19.284176666666667</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="448">
@@ -5305,7 +5305,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C448">
-        <v>19.62625666666666</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="449">
@@ -5316,7 +5316,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C449">
-        <v>19.62625666666666</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="450">
@@ -5327,7 +5327,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C450">
-        <v>15.95345333333332</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="451">
@@ -5338,7 +5338,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C451">
-        <v>14.36268666666666</v>
+        <v>1.6468333333333287</v>
       </c>
     </row>
     <row r="452">
@@ -5349,7 +5349,7 @@
         <v>-0.01</v>
       </c>
       <c r="C452">
-        <v>24.460823333333337</v>
+        <v>14.094370000000026</v>
       </c>
     </row>
     <row r="453">
@@ -5360,7 +5360,7 @@
         <v>-0.012</v>
       </c>
       <c r="C453">
-        <v>25.145166666666686</v>
+        <v>14.51863000000001</v>
       </c>
     </row>
     <row r="454">
@@ -5371,7 +5371,7 @@
         <v>-0.014</v>
       </c>
       <c r="C454">
-        <v>25.269139999999997</v>
+        <v>15.367023333333348</v>
       </c>
     </row>
     <row r="455">
@@ -5382,7 +5382,7 @@
         <v>-0.016</v>
       </c>
       <c r="C455">
-        <v>25.588723333333345</v>
+        <v>15.547523333333327</v>
       </c>
     </row>
     <row r="456">
@@ -5393,7 +5393,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C456">
-        <v>22.421353333333325</v>
+        <v>15.645183333333346</v>
       </c>
     </row>
     <row r="457">
@@ -5404,7 +5404,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C457">
-        <v>21.397746666666666</v>
+        <v>15.766713333333332</v>
       </c>
     </row>
     <row r="458">
@@ -5415,7 +5415,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C458">
-        <v>15.683796666666657</v>
+        <v>16.33427666666667</v>
       </c>
     </row>
     <row r="459">
@@ -5426,7 +5426,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C459">
-        <v>13.228699999999986</v>
+        <v>11.117650000000026</v>
       </c>
     </row>
     <row r="460">
@@ -5437,7 +5437,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C460">
-        <v>13.247336666666646</v>
+        <v>8.87903</v>
       </c>
     </row>
     <row r="461">
@@ -5448,7 +5448,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C461">
-        <v>13.273926666666643</v>
+        <v>10.86054999999999</v>
       </c>
     </row>
     <row r="462">
@@ -5459,7 +5459,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C462">
-        <v>11.140799999999974</v>
+        <v>11.188130000000001</v>
       </c>
     </row>
     <row r="463">
@@ -5470,7 +5470,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C463">
-        <v>10.77931666666666</v>
+        <v>9.092363333333367</v>
       </c>
     </row>
     <row r="464">
@@ -5481,7 +5481,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C464">
-        <v>13.18844333333332</v>
+        <v>9.240446666666703</v>
       </c>
     </row>
     <row r="465">
@@ -5492,7 +5492,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C465">
-        <v>13.18844333333332</v>
+        <v>9.240446666666703</v>
       </c>
     </row>
     <row r="466">
@@ -5503,7 +5503,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C466">
-        <v>13.18844333333332</v>
+        <v>10.23938666666669</v>
       </c>
     </row>
     <row r="467">
@@ -5514,7 +5514,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C467">
-        <v>14.829266666666646</v>
+        <v>5.253286666666668</v>
       </c>
     </row>
     <row r="468">
@@ -5525,7 +5525,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C468">
-        <v>14.829266666666646</v>
+        <v>5.253286666666668</v>
       </c>
     </row>
     <row r="469">
@@ -5536,7 +5536,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C469">
-        <v>16.046593333333327</v>
+        <v>4.006450000000011</v>
       </c>
     </row>
     <row r="470">
@@ -5547,7 +5547,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C470">
-        <v>16.046593333333327</v>
+        <v>2.802876666666653</v>
       </c>
     </row>
     <row r="471">
@@ -5558,7 +5558,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C471">
-        <v>19.055599999999988</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="472">
@@ -5569,7 +5569,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C472">
-        <v>19.284176666666667</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="473">
@@ -5580,7 +5580,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C473">
-        <v>19.62625666666666</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="474">
@@ -5591,7 +5591,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C474">
-        <v>19.62625666666666</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="475">
@@ -5602,7 +5602,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C475">
-        <v>15.95345333333332</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="476">
@@ -5613,7 +5613,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C476">
-        <v>14.36268666666666</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="477">
@@ -5624,7 +5624,7 @@
         <v>-0.01</v>
       </c>
       <c r="C477">
-        <v>17.47954333333335</v>
+        <v>14.275793333333372</v>
       </c>
     </row>
     <row r="478">
@@ -5635,7 +5635,7 @@
         <v>-0.012</v>
       </c>
       <c r="C478">
-        <v>17.316406666666694</v>
+        <v>14.700053333333377</v>
       </c>
     </row>
     <row r="479">
@@ -5646,7 +5646,7 @@
         <v>-0.014</v>
       </c>
       <c r="C479">
-        <v>9.12288000000001</v>
+        <v>15.548446666666695</v>
       </c>
     </row>
     <row r="480">
@@ -5657,7 +5657,7 @@
         <v>-0.016</v>
       </c>
       <c r="C480">
-        <v>9.39921666666667</v>
+        <v>15.72894666666669</v>
       </c>
     </row>
     <row r="481">
@@ -5668,7 +5668,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C481">
-        <v>6.574556666666675</v>
+        <v>15.826606666666693</v>
       </c>
     </row>
     <row r="482">
@@ -5679,7 +5679,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C482">
-        <v>5.497620000000021</v>
+        <v>15.948136666666679</v>
       </c>
     </row>
     <row r="483">
@@ -5690,7 +5690,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C483">
-        <v>1.8662600000000111</v>
+        <v>16.42042333333336</v>
       </c>
     </row>
     <row r="484">
@@ -5701,7 +5701,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C484">
-        <v>-1.7064999999999866</v>
+        <v>11.299073333333373</v>
       </c>
     </row>
     <row r="485">
@@ -5712,7 +5712,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C485">
-        <v>-1.6878633333333255</v>
+        <v>9.060453333333328</v>
       </c>
     </row>
     <row r="486">
@@ -5723,7 +5723,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C486">
-        <v>-1.6612733333333267</v>
+        <v>11.041973333333317</v>
       </c>
     </row>
     <row r="487">
@@ -5734,7 +5734,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C487">
-        <v>-3.7943999999999956</v>
+        <v>11.369553333333329</v>
       </c>
     </row>
     <row r="488">
@@ -5745,7 +5745,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C488">
-        <v>-4.155883333333331</v>
+        <v>9.273786666666675</v>
       </c>
     </row>
     <row r="489">
@@ -5756,7 +5756,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C489">
-        <v>-2.112036666666654</v>
+        <v>9.421870000000013</v>
       </c>
     </row>
     <row r="490">
@@ -5767,7 +5767,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C490">
-        <v>-2.112036666666654</v>
+        <v>9.421870000000013</v>
       </c>
     </row>
     <row r="491">
@@ -5778,7 +5778,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C491">
-        <v>-2.112036666666654</v>
+        <v>10.420810000000017</v>
       </c>
     </row>
     <row r="492">
@@ -5789,7 +5789,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C492">
-        <v>-1.6108233333333337</v>
+        <v>5.474250000000003</v>
       </c>
     </row>
     <row r="493">
@@ -5800,7 +5800,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C493">
-        <v>-1.6108233333333337</v>
+        <v>5.474250000000003</v>
       </c>
     </row>
     <row r="494">
@@ -5811,7 +5811,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C494">
-        <v>-0.3934966666666734</v>
+        <v>4.120676666666668</v>
       </c>
     </row>
     <row r="495">
@@ -5822,7 +5822,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C495">
-        <v>-0.3934966666666734</v>
+        <v>2.9019899999999934</v>
       </c>
     </row>
     <row r="496">
@@ -5833,7 +5833,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C496">
-        <v>0.7888333333333435</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="497">
@@ -5844,7 +5844,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C497">
-        <v>1.017410000000022</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="498">
@@ -5855,7 +5855,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C498">
-        <v>1.3594900000000127</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="499">
@@ -5866,7 +5866,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C499">
-        <v>0.9757900000000177</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="500">
@@ -5877,7 +5877,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C500">
-        <v>0.5085733333333261</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="501">
@@ -5888,7 +5888,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C501">
-        <v>0.84841666666667</v>
+        <v>1.6687900000000013</v>
       </c>
     </row>
     <row r="502">
@@ -5899,7 +5899,7 @@
         <v>-0.01</v>
       </c>
       <c r="C502">
-        <v>17.47954333333335</v>
+        <v>14.436776666666692</v>
       </c>
     </row>
     <row r="503">
@@ -5910,7 +5910,7 @@
         <v>-0.012</v>
       </c>
       <c r="C503">
-        <v>17.316406666666694</v>
+        <v>14.861036666666697</v>
       </c>
     </row>
     <row r="504">
@@ -5921,7 +5921,7 @@
         <v>-0.014</v>
       </c>
       <c r="C504">
-        <v>9.12288000000001</v>
+        <v>15.709430000000015</v>
       </c>
     </row>
     <row r="505">
@@ -5932,7 +5932,7 @@
         <v>-0.016</v>
       </c>
       <c r="C505">
-        <v>9.39921666666667</v>
+        <v>15.88993000000001</v>
       </c>
     </row>
     <row r="506">
@@ -5943,7 +5943,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C506">
-        <v>6.574556666666675</v>
+        <v>15.987590000000013</v>
       </c>
     </row>
     <row r="507">
@@ -5954,7 +5954,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C507">
-        <v>5.497620000000021</v>
+        <v>16.109119999999997</v>
       </c>
     </row>
     <row r="508">
@@ -5965,7 +5965,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C508">
-        <v>1.8662600000000111</v>
+        <v>16.58140666666668</v>
       </c>
     </row>
     <row r="509">
@@ -5976,7 +5976,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C509">
-        <v>-1.7064999999999866</v>
+        <v>11.460056666666693</v>
       </c>
     </row>
     <row r="510">
@@ -5987,7 +5987,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C510">
-        <v>-1.6878633333333255</v>
+        <v>9.221436666666648</v>
       </c>
     </row>
     <row r="511">
@@ -5998,7 +5998,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C511">
-        <v>-1.6612733333333267</v>
+        <v>11.202956666666655</v>
       </c>
     </row>
     <row r="512">
@@ -6009,7 +6009,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C512">
-        <v>-3.7943999999999956</v>
+        <v>11.530536666666666</v>
       </c>
     </row>
     <row r="513">
@@ -6020,7 +6020,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C513">
-        <v>-4.155883333333331</v>
+        <v>9.434770000000015</v>
       </c>
     </row>
     <row r="514">
@@ -6031,7 +6031,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C514">
-        <v>-2.112036666666654</v>
+        <v>9.582853333333352</v>
       </c>
     </row>
     <row r="515">
@@ -6042,7 +6042,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C515">
-        <v>-2.112036666666654</v>
+        <v>9.582853333333352</v>
       </c>
     </row>
     <row r="516">
@@ -6053,7 +6053,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C516">
-        <v>-2.112036666666654</v>
+        <v>10.574330000000012</v>
       </c>
     </row>
     <row r="517">
@@ -6064,7 +6064,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C517">
-        <v>-1.6108233333333337</v>
+        <v>5.46678666666666</v>
       </c>
     </row>
     <row r="518">
@@ -6075,7 +6075,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C518">
-        <v>-1.6108233333333337</v>
+        <v>5.46678666666666</v>
       </c>
     </row>
     <row r="519">
@@ -6086,7 +6086,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C519">
-        <v>-0.3934966666666734</v>
+        <v>4.113213333333325</v>
       </c>
     </row>
     <row r="520">
@@ -6097,7 +6097,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C520">
-        <v>-0.3934966666666734</v>
+        <v>2.89452666666665</v>
       </c>
     </row>
     <row r="521">
@@ -6108,7 +6108,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C521">
-        <v>0.7888333333333435</v>
+        <v>1.6613266666666582</v>
       </c>
     </row>
     <row r="522">
@@ -6119,7 +6119,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C522">
-        <v>1.017410000000022</v>
+        <v>1.6613266666666582</v>
       </c>
     </row>
     <row r="523">
@@ -6130,7 +6130,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C523">
-        <v>1.3594900000000127</v>
+        <v>1.6613266666666582</v>
       </c>
     </row>
     <row r="524">
@@ -6141,7 +6141,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C524">
-        <v>0.9757900000000177</v>
+        <v>1.6613266666666582</v>
       </c>
     </row>
     <row r="525">
@@ -6152,7 +6152,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C525">
-        <v>0.5085733333333261</v>
+        <v>1.6613266666666582</v>
       </c>
     </row>
     <row r="526">
@@ -6163,7 +6163,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C526">
-        <v>0.84841666666667</v>
+        <v>1.6613266666666582</v>
       </c>
     </row>
     <row r="527">
@@ -6174,7 +6174,7 @@
         <v>-0.01</v>
       </c>
       <c r="C527">
-        <v>17.47954333333335</v>
+        <v>14.023656666666682</v>
       </c>
     </row>
     <row r="528">
@@ -6185,7 +6185,7 @@
         <v>-0.012</v>
       </c>
       <c r="C528">
-        <v>17.316406666666694</v>
+        <v>14.41311333333334</v>
       </c>
     </row>
     <row r="529">
@@ -6196,7 +6196,7 @@
         <v>-0.014</v>
       </c>
       <c r="C529">
-        <v>9.12288000000001</v>
+        <v>15.148563333333337</v>
       </c>
     </row>
     <row r="530">
@@ -6207,7 +6207,7 @@
         <v>-0.016</v>
       </c>
       <c r="C530">
-        <v>9.39921666666667</v>
+        <v>15.072906666666672</v>
       </c>
     </row>
     <row r="531">
@@ -6218,7 +6218,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C531">
-        <v>6.574556666666675</v>
+        <v>15.245443333333336</v>
       </c>
     </row>
     <row r="532">
@@ -6229,7 +6229,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C532">
-        <v>5.497620000000021</v>
+        <v>14.948573333333304</v>
       </c>
     </row>
     <row r="533">
@@ -6240,7 +6240,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C533">
-        <v>1.8662600000000111</v>
+        <v>15.366023333333317</v>
       </c>
     </row>
     <row r="534">
@@ -6251,7 +6251,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C534">
-        <v>-1.7064999999999866</v>
+        <v>10.14939666666667</v>
       </c>
     </row>
     <row r="535">
@@ -6262,7 +6262,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C535">
-        <v>-1.6878633333333255</v>
+        <v>7.75288333333333</v>
       </c>
     </row>
     <row r="536">
@@ -6273,7 +6273,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C536">
-        <v>-1.6612733333333267</v>
+        <v>9.727433333333332</v>
       </c>
     </row>
     <row r="537">
@@ -6284,7 +6284,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C537">
-        <v>-3.7943999999999956</v>
+        <v>10.170743333333329</v>
       </c>
     </row>
     <row r="538">
@@ -6295,7 +6295,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C538">
-        <v>-4.155883333333331</v>
+        <v>7.957450000000013</v>
       </c>
     </row>
     <row r="539">
@@ -6306,7 +6306,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C539">
-        <v>-2.112036666666654</v>
+        <v>8.105533333333351</v>
       </c>
     </row>
     <row r="540">
@@ -6317,7 +6317,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C540">
-        <v>-2.112036666666654</v>
+        <v>8.105533333333351</v>
       </c>
     </row>
     <row r="541">
@@ -6328,7 +6328,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C541">
-        <v>-2.112036666666654</v>
+        <v>10.424150000000017</v>
       </c>
     </row>
     <row r="542">
@@ -6339,7 +6339,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C542">
-        <v>-1.6108233333333337</v>
+        <v>5.45820333333332</v>
       </c>
     </row>
     <row r="543">
@@ -6350,7 +6350,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C543">
-        <v>-1.6108233333333337</v>
+        <v>5.45820333333332</v>
       </c>
     </row>
     <row r="544">
@@ -6361,7 +6361,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C544">
-        <v>-0.3934966666666734</v>
+        <v>4.093830000000007</v>
       </c>
     </row>
     <row r="545">
@@ -6372,7 +6372,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C545">
-        <v>-0.3934966666666734</v>
+        <v>2.768406666666654</v>
       </c>
     </row>
     <row r="546">
@@ -6383,7 +6383,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C546">
-        <v>0.7888333333333435</v>
+        <v>1.5352066666666626</v>
       </c>
     </row>
     <row r="547">
@@ -6394,7 +6394,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C547">
-        <v>1.017410000000022</v>
+        <v>1.5352066666666626</v>
       </c>
     </row>
     <row r="548">
@@ -6405,7 +6405,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C548">
-        <v>1.3594900000000127</v>
+        <v>1.5352066666666626</v>
       </c>
     </row>
     <row r="549">
@@ -6416,7 +6416,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C549">
-        <v>0.9757900000000177</v>
+        <v>1.5352066666666626</v>
       </c>
     </row>
     <row r="550">
@@ -6427,7 +6427,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C550">
-        <v>0.5085733333333261</v>
+        <v>1.5352066666666626</v>
       </c>
     </row>
     <row r="551">
@@ -6438,7 +6438,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C551">
-        <v>0.84841666666667</v>
+        <v>1.5352066666666626</v>
       </c>
     </row>
     <row r="552">
@@ -6449,7 +6449,7 @@
         <v>-0.01</v>
       </c>
       <c r="C552">
-        <v>17.47954333333335</v>
+        <v>13.494736666666693</v>
       </c>
     </row>
     <row r="553">
@@ -6460,7 +6460,7 @@
         <v>-0.012</v>
       </c>
       <c r="C553">
-        <v>17.316406666666694</v>
+        <v>13.884193333333354</v>
       </c>
     </row>
     <row r="554">
@@ -6471,7 +6471,7 @@
         <v>-0.014</v>
       </c>
       <c r="C554">
-        <v>9.12288000000001</v>
+        <v>14.425303333333336</v>
       </c>
     </row>
     <row r="555">
@@ -6482,7 +6482,7 @@
         <v>-0.016</v>
       </c>
       <c r="C555">
-        <v>9.39921666666667</v>
+        <v>14.283713333333347</v>
       </c>
     </row>
     <row r="556">
@@ -6493,7 +6493,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C556">
-        <v>6.574556666666675</v>
+        <v>14.294283333333341</v>
       </c>
     </row>
     <row r="557">
@@ -6504,7 +6504,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C557">
-        <v>5.497620000000021</v>
+        <v>13.691809999999977</v>
       </c>
     </row>
     <row r="558">
@@ -6515,7 +6515,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C558">
-        <v>1.8662600000000111</v>
+        <v>13.842623333333318</v>
       </c>
     </row>
     <row r="559">
@@ -6526,7 +6526,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C559">
-        <v>-1.7064999999999866</v>
+        <v>8.625996666666671</v>
       </c>
     </row>
     <row r="560">
@@ -6537,7 +6537,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C560">
-        <v>-1.6878633333333255</v>
+        <v>6.008039999999994</v>
       </c>
     </row>
     <row r="561">
@@ -6548,7 +6548,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C561">
-        <v>-1.6612733333333267</v>
+        <v>7.865679999999998</v>
       </c>
     </row>
     <row r="562">
@@ -6559,7 +6559,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C562">
-        <v>-3.7943999999999956</v>
+        <v>8.144126666666656</v>
       </c>
     </row>
     <row r="563">
@@ -6570,7 +6570,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C563">
-        <v>-4.155883333333331</v>
+        <v>5.923863333333354</v>
       </c>
     </row>
     <row r="564">
@@ -6581,7 +6581,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C564">
-        <v>-2.112036666666654</v>
+        <v>6.07194666666669</v>
       </c>
     </row>
     <row r="565">
@@ -6592,7 +6592,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C565">
-        <v>-2.112036666666654</v>
+        <v>6.07194666666669</v>
       </c>
     </row>
     <row r="566">
@@ -6603,7 +6603,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C566">
-        <v>-2.112036666666654</v>
+        <v>10.661516666666671</v>
       </c>
     </row>
     <row r="567">
@@ -6614,7 +6614,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C567">
-        <v>-1.6108233333333337</v>
+        <v>5.6063299999999945</v>
       </c>
     </row>
     <row r="568">
@@ -6625,7 +6625,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C568">
-        <v>-1.6108233333333337</v>
+        <v>5.6063299999999945</v>
       </c>
     </row>
     <row r="569">
@@ -6636,7 +6636,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C569">
-        <v>-0.3934966666666734</v>
+        <v>4.241956666666662</v>
       </c>
     </row>
     <row r="570">
@@ -6647,7 +6647,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C570">
-        <v>-0.3934966666666734</v>
+        <v>2.9057333333333117</v>
       </c>
     </row>
     <row r="571">
@@ -6658,7 +6658,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C571">
-        <v>0.7888333333333435</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="572">
@@ -6669,7 +6669,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C572">
-        <v>1.017410000000022</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="573">
@@ -6680,7 +6680,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C573">
-        <v>1.3594900000000127</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="574">
@@ -6691,7 +6691,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C574">
-        <v>0.9757900000000177</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="575">
@@ -6702,7 +6702,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C575">
-        <v>0.5085733333333261</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="576">
@@ -6713,7 +6713,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C576">
-        <v>0.84841666666667</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="577">
@@ -6724,7 +6724,7 @@
         <v>-0.01</v>
       </c>
       <c r="C577">
-        <v>17.218460000000015</v>
+        <v>13.494736666666693</v>
       </c>
     </row>
     <row r="578">
@@ -6735,7 +6735,7 @@
         <v>-0.012</v>
       </c>
       <c r="C578">
-        <v>17.11691000000002</v>
+        <v>13.884193333333354</v>
       </c>
     </row>
     <row r="579">
@@ -6746,7 +6746,7 @@
         <v>-0.014</v>
       </c>
       <c r="C579">
-        <v>8.923383333333353</v>
+        <v>14.425303333333336</v>
       </c>
     </row>
     <row r="580">
@@ -6757,7 +6757,7 @@
         <v>-0.016</v>
       </c>
       <c r="C580">
-        <v>9.052366666666671</v>
+        <v>14.283713333333347</v>
       </c>
     </row>
     <row r="581">
@@ -6768,7 +6768,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C581">
-        <v>6.184460000000001</v>
+        <v>14.294283333333341</v>
       </c>
     </row>
     <row r="582">
@@ -6779,7 +6779,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C582">
-        <v>5.0918200000000216</v>
+        <v>13.691809999999977</v>
       </c>
     </row>
     <row r="583">
@@ -6790,7 +6790,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C583">
-        <v>0.9875300000000115</v>
+        <v>13.842623333333318</v>
       </c>
     </row>
     <row r="584">
@@ -6801,7 +6801,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C584">
-        <v>-1.7064999999999866</v>
+        <v>8.625996666666671</v>
       </c>
     </row>
     <row r="585">
@@ -6812,7 +6812,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C585">
-        <v>-1.6878633333333255</v>
+        <v>6.008039999999994</v>
       </c>
     </row>
     <row r="586">
@@ -6823,7 +6823,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C586">
-        <v>-1.6612733333333267</v>
+        <v>7.865679999999998</v>
       </c>
     </row>
     <row r="587">
@@ -6834,7 +6834,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C587">
-        <v>-3.7943999999999956</v>
+        <v>8.144126666666656</v>
       </c>
     </row>
     <row r="588">
@@ -6845,7 +6845,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C588">
-        <v>-4.155883333333331</v>
+        <v>5.923863333333354</v>
       </c>
     </row>
     <row r="589">
@@ -6856,7 +6856,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C589">
-        <v>-2.112036666666654</v>
+        <v>6.07194666666669</v>
       </c>
     </row>
     <row r="590">
@@ -6867,7 +6867,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C590">
-        <v>-2.112036666666654</v>
+        <v>6.07194666666669</v>
       </c>
     </row>
     <row r="591">
@@ -6878,7 +6878,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C591">
-        <v>-2.112036666666654</v>
+        <v>10.661516666666671</v>
       </c>
     </row>
     <row r="592">
@@ -6889,7 +6889,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C592">
-        <v>-1.6108233333333337</v>
+        <v>5.6063299999999945</v>
       </c>
     </row>
     <row r="593">
@@ -6900,7 +6900,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C593">
-        <v>-1.6108233333333337</v>
+        <v>5.6063299999999945</v>
       </c>
     </row>
     <row r="594">
@@ -6911,7 +6911,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C594">
-        <v>-0.3934966666666734</v>
+        <v>4.241956666666662</v>
       </c>
     </row>
     <row r="595">
@@ -6922,7 +6922,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C595">
-        <v>-0.3934966666666734</v>
+        <v>2.9057333333333117</v>
       </c>
     </row>
     <row r="596">
@@ -6933,7 +6933,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C596">
-        <v>0.7888333333333435</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="597">
@@ -6944,7 +6944,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C597">
-        <v>1.017410000000022</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="598">
@@ -6955,7 +6955,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C598">
-        <v>1.3594900000000127</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="599">
@@ -6966,7 +6966,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C599">
-        <v>0.9757900000000177</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="600">
@@ -6977,7 +6977,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C600">
-        <v>0.5085733333333261</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="601">
@@ -6988,7 +6988,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C601">
-        <v>0.84841666666667</v>
+        <v>1.5506833333333248</v>
       </c>
     </row>
     <row r="602">
@@ -6999,7 +6999,7 @@
         <v>-0.01</v>
       </c>
       <c r="C602">
-        <v>17.218460000000015</v>
+        <v>12.795963333333344</v>
       </c>
     </row>
     <row r="603">
@@ -7010,7 +7010,7 @@
         <v>-0.012</v>
       </c>
       <c r="C603">
-        <v>17.11691000000002</v>
+        <v>13.185420000000022</v>
       </c>
     </row>
     <row r="604">
@@ -7021,7 +7021,7 @@
         <v>-0.014</v>
       </c>
       <c r="C604">
-        <v>8.923383333333353</v>
+        <v>13.726530000000006</v>
       </c>
     </row>
     <row r="605">
@@ -7032,7 +7032,7 @@
         <v>-0.016</v>
       </c>
       <c r="C605">
-        <v>9.052366666666671</v>
+        <v>13.584939999999998</v>
       </c>
     </row>
     <row r="606">
@@ -7043,7 +7043,7 @@
         <v>-0.018000000000000002</v>
       </c>
       <c r="C606">
-        <v>6.184460000000001</v>
+        <v>13.584939999999998</v>
       </c>
     </row>
     <row r="607">
@@ -7054,7 +7054,7 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C607">
-        <v>5.0918200000000216</v>
+        <v>12.924319999999986</v>
       </c>
     </row>
     <row r="608">
@@ -7065,7 +7065,7 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C608">
-        <v>0.9875300000000115</v>
+        <v>12.971313333333324</v>
       </c>
     </row>
     <row r="609">
@@ -7076,7 +7076,7 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C609">
-        <v>-1.7064999999999866</v>
+        <v>7.754686666666677</v>
       </c>
     </row>
     <row r="610">
@@ -7087,7 +7087,7 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C610">
-        <v>-1.6878633333333255</v>
+        <v>5.043660000000007</v>
       </c>
     </row>
     <row r="611">
@@ -7098,7 +7098,7 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C611">
-        <v>-1.6612733333333267</v>
+        <v>6.829970000000003</v>
       </c>
     </row>
     <row r="612">
@@ -7109,7 +7109,7 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C612">
-        <v>-3.7943999999999956</v>
+        <v>6.829970000000003</v>
       </c>
     </row>
     <row r="613">
@@ -7120,7 +7120,7 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C613">
-        <v>-4.155883333333331</v>
+        <v>4.492796666666683</v>
       </c>
     </row>
     <row r="614">
@@ -7131,7 +7131,7 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C614">
-        <v>-2.112036666666654</v>
+        <v>4.64088000000002</v>
       </c>
     </row>
     <row r="615">
@@ -7142,7 +7142,7 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C615">
-        <v>-2.112036666666654</v>
+        <v>4.64088000000002</v>
       </c>
     </row>
     <row r="616">
@@ -7153,7 +7153,7 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C616">
-        <v>-2.112036666666654</v>
+        <v>-0.24266999999999445</v>
       </c>
     </row>
     <row r="617">
@@ -7164,7 +7164,7 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C617">
-        <v>-1.6108233333333337</v>
+        <v>0.1596366666666616</v>
       </c>
     </row>
     <row r="618">
@@ -7175,7 +7175,7 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C618">
-        <v>-1.6108233333333337</v>
+        <v>0.1596366666666616</v>
       </c>
     </row>
     <row r="619">
@@ -7186,7 +7186,7 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C619">
-        <v>-0.3934966666666734</v>
+        <v>-0.3992933333333326</v>
       </c>
     </row>
     <row r="620">
@@ -7197,7 +7197,7 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C620">
-        <v>-0.3934966666666734</v>
+        <v>-0.18483333333333957</v>
       </c>
     </row>
     <row r="621">
@@ -7208,7 +7208,7 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C621">
-        <v>0.7888333333333435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -7219,7 +7219,7 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C622">
-        <v>1.017410000000022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -7230,7 +7230,7 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C623">
-        <v>1.3594900000000127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -7241,7 +7241,7 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C624">
-        <v>0.9757900000000177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -7252,7 +7252,7 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C625">
-        <v>0.5085733333333261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -7263,7 +7263,7 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C626">
-        <v>0.84841666666667</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/tran2.xlsx
+++ b/public/download/tran2.xlsx
@@ -399,325 +399,325 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.020000000000000004</v>
+        <v>0.03600000000000002</v>
       </c>
       <c r="B2">
-        <v>-0.014</v>
+        <v>-0.012</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.020000000000000004</v>
+        <v>0.012</v>
       </c>
       <c r="B3">
         <v>-0.012</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.020000000000000004</v>
+        <v>0.012</v>
       </c>
       <c r="B4">
         <v>-0.016</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.018000000000000002</v>
+        <v>0.012</v>
       </c>
       <c r="B5">
-        <v>-0.016</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.018000000000000002</v>
+        <v>0.012</v>
       </c>
       <c r="B6">
-        <v>-0.018000000000000002</v>
+        <v>-0.020000000000000004</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.018000000000000002</v>
+        <v>0.012</v>
       </c>
       <c r="B7">
-        <v>-0.012</v>
+        <v>-0.022000000000000006</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.018000000000000002</v>
+        <v>0.012</v>
       </c>
       <c r="B8">
-        <v>-0.014</v>
+        <v>-0.024000000000000007</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.020000000000000004</v>
+        <v>0.012</v>
       </c>
       <c r="B9">
-        <v>-0.018000000000000002</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.020000000000000004</v>
+        <v>0.012</v>
       </c>
       <c r="B10">
-        <v>-0.020000000000000004</v>
+        <v>-0.02800000000000001</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.022000000000000006</v>
+        <v>0.012</v>
       </c>
       <c r="B11">
-        <v>-0.014</v>
+        <v>-0.030000000000000013</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.022000000000000006</v>
+        <v>0.012</v>
       </c>
       <c r="B12">
-        <v>-0.016</v>
+        <v>-0.032000000000000015</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="B13">
-        <v>-0.014</v>
+        <v>-0.034000000000000016</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E13">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="B14">
-        <v>-0.016</v>
+        <v>-0.03600000000000002</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E14">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.022000000000000006</v>
+        <v>0.012</v>
       </c>
       <c r="B15">
-        <v>-0.020000000000000004</v>
+        <v>-0.03800000000000002</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="B16">
-        <v>-0.016</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="B17">
-        <v>-0.012</v>
+        <v>-0.04200000000000002</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="B18">
-        <v>-0.012</v>
+        <v>-0.044000000000000025</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.018000000000000002</v>
+        <v>0.012</v>
       </c>
       <c r="B19">
-        <v>-0.020000000000000004</v>
+        <v>-0.04600000000000003</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E19">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.022000000000000006</v>
+        <v>0.012</v>
       </c>
       <c r="B20">
-        <v>-0.018000000000000002</v>
+        <v>-0.04800000000000003</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21">
@@ -725,458 +725,458 @@
         <v>0.012</v>
       </c>
       <c r="B21">
-        <v>-0.014</v>
+        <v>-0.05000000000000003</v>
       </c>
       <c r="C21">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E21">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="B22">
-        <v>-0.018000000000000002</v>
+        <v>-0.05200000000000003</v>
       </c>
       <c r="C22">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>51</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.024000000000000007</v>
+        <v>0.012</v>
       </c>
       <c r="B23">
-        <v>-0.014</v>
+        <v>-0.054000000000000034</v>
       </c>
       <c r="C23">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.024000000000000007</v>
+        <v>0.012</v>
       </c>
       <c r="B24">
-        <v>-0.020000000000000004</v>
+        <v>-0.056000000000000036</v>
       </c>
       <c r="C24">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.024000000000000007</v>
+        <v>0.012</v>
       </c>
       <c r="B25">
-        <v>-0.018000000000000002</v>
+        <v>-0.05800000000000004</v>
       </c>
       <c r="C25">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="B26">
-        <v>-0.016</v>
+        <v>-0.012</v>
       </c>
       <c r="C26">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="E26">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B27">
-        <v>-0.024000000000000007</v>
+        <v>-0.014</v>
       </c>
       <c r="C27">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B28">
-        <v>-0.02600000000000001</v>
+        <v>-0.016</v>
       </c>
       <c r="C28">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E28">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B29">
-        <v>-0.02800000000000001</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C29">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="E29">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B30">
-        <v>-0.030000000000000013</v>
+        <v>-0.020000000000000004</v>
       </c>
       <c r="C30">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B31">
-        <v>-0.032000000000000015</v>
+        <v>-0.022000000000000006</v>
       </c>
       <c r="C31">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E31">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B32">
-        <v>-0.034000000000000016</v>
+        <v>-0.024000000000000007</v>
       </c>
       <c r="C32">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B33">
-        <v>-0.03600000000000002</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="C33">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B34">
-        <v>-0.03800000000000002</v>
+        <v>-0.02800000000000001</v>
       </c>
       <c r="C34">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E34">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B35">
-        <v>-0.04000000000000002</v>
+        <v>-0.030000000000000013</v>
       </c>
       <c r="C35">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B36">
-        <v>-0.04200000000000002</v>
+        <v>-0.032000000000000015</v>
       </c>
       <c r="C36">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E36">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B37">
-        <v>-0.044000000000000025</v>
+        <v>-0.034000000000000016</v>
       </c>
       <c r="C37">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E37">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B38">
-        <v>-0.04600000000000003</v>
+        <v>-0.03600000000000002</v>
       </c>
       <c r="C38">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E38">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B39">
-        <v>-0.04800000000000003</v>
+        <v>-0.03800000000000002</v>
       </c>
       <c r="C39">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E39">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B40">
-        <v>-0.05000000000000003</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="C40">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B41">
-        <v>-0.05200000000000003</v>
+        <v>-0.04200000000000002</v>
       </c>
       <c r="C41">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B42">
-        <v>-0.054000000000000034</v>
+        <v>-0.044000000000000025</v>
       </c>
       <c r="C42">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E42">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B43">
-        <v>-0.056000000000000036</v>
+        <v>-0.04600000000000003</v>
       </c>
       <c r="C43">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E43">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B44">
-        <v>-0.05800000000000004</v>
+        <v>-0.04800000000000003</v>
       </c>
       <c r="C44">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E44">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.022000000000000006</v>
+        <v>0.014</v>
       </c>
       <c r="B45">
-        <v>-0.012</v>
+        <v>-0.05000000000000003</v>
       </c>
       <c r="C45">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.024000000000000007</v>
+        <v>0.014</v>
       </c>
       <c r="B46">
-        <v>-0.016</v>
+        <v>-0.05200000000000003</v>
       </c>
       <c r="C46">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.020000000000000004</v>
+        <v>0.014</v>
       </c>
       <c r="B47">
-        <v>-0.022000000000000006</v>
+        <v>-0.054000000000000034</v>
       </c>
       <c r="C47">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E47">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48">
@@ -1184,101 +1184,101 @@
         <v>0.014</v>
       </c>
       <c r="B48">
-        <v>-0.014</v>
+        <v>-0.056000000000000036</v>
       </c>
       <c r="C48">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E48">
-        <v>95</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.03600000000000002</v>
+        <v>0.014</v>
       </c>
       <c r="B49">
-        <v>-0.012</v>
+        <v>-0.05800000000000004</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.04800000000000003</v>
+        <v>0.016</v>
       </c>
       <c r="B50">
         <v>-0.012</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.04600000000000003</v>
+        <v>0.016</v>
       </c>
       <c r="B51">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.044000000000000025</v>
+        <v>0.016</v>
       </c>
       <c r="B52">
-        <v>-0.012</v>
+        <v>-0.016</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.04200000000000002</v>
+        <v>0.016</v>
       </c>
       <c r="B53">
-        <v>-0.012</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54">
@@ -1289,421 +1289,421 @@
         <v>-0.020000000000000004</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E54">
-        <v>72</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.04000000000000002</v>
+        <v>0.016</v>
       </c>
       <c r="B55">
-        <v>-0.012</v>
+        <v>-0.022000000000000006</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.024000000000000007</v>
+        <v>0.016</v>
       </c>
       <c r="B56">
-        <v>-0.012</v>
+        <v>-0.024000000000000007</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B57">
-        <v>-0.05800000000000004</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E57">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B58">
-        <v>-0.056000000000000036</v>
+        <v>-0.02800000000000001</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E58">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B59">
-        <v>-0.054000000000000034</v>
+        <v>-0.030000000000000013</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E59">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B60">
-        <v>-0.05200000000000003</v>
+        <v>-0.032000000000000015</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E60">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B61">
-        <v>-0.05000000000000003</v>
+        <v>-0.034000000000000016</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E61">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B62">
-        <v>-0.04800000000000003</v>
+        <v>-0.03600000000000002</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E62">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B63">
-        <v>-0.04600000000000003</v>
+        <v>-0.03800000000000002</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E63">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B64">
-        <v>-0.044000000000000025</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E64">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B65">
         <v>-0.04200000000000002</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E65">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B66">
-        <v>-0.04000000000000002</v>
+        <v>-0.044000000000000025</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E66">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B67">
-        <v>-0.03800000000000002</v>
+        <v>-0.04600000000000003</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E67">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B68">
-        <v>-0.03600000000000002</v>
+        <v>-0.04800000000000003</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E68">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B69">
-        <v>-0.034000000000000016</v>
+        <v>-0.05000000000000003</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E69">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B70">
-        <v>-0.032000000000000015</v>
+        <v>-0.05200000000000003</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E70">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B71">
-        <v>-0.030000000000000013</v>
+        <v>-0.054000000000000034</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E71">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B72">
-        <v>-0.02800000000000001</v>
+        <v>-0.056000000000000036</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E72">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.022000000000000006</v>
+        <v>0.016</v>
       </c>
       <c r="B73">
-        <v>-0.02600000000000001</v>
+        <v>-0.05800000000000004</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E73">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.03800000000000002</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="B74">
         <v>-0.012</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.012</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="B75">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E75">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.034000000000000016</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="B76">
-        <v>-0.012</v>
+        <v>-0.016</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.032000000000000015</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="B77">
-        <v>-0.012</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.030000000000000013</v>
+        <v>0.018000000000000002</v>
       </c>
       <c r="B78">
-        <v>-0.012</v>
+        <v>-0.020000000000000004</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
@@ -1714,13 +1714,13 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E79">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
@@ -1731,13 +1731,13 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E80">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
@@ -1748,13 +1748,13 @@
         <v>-0.02600000000000001</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E81">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82">
@@ -1765,13 +1765,13 @@
         <v>-0.02800000000000001</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E82">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
@@ -1782,13 +1782,13 @@
         <v>-0.030000000000000013</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E83">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
@@ -1799,13 +1799,13 @@
         <v>-0.032000000000000015</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E84">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85">
@@ -1816,13 +1816,13 @@
         <v>-0.034000000000000016</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E85">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86">
@@ -1833,13 +1833,13 @@
         <v>-0.03600000000000002</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E86">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87">
@@ -1850,13 +1850,13 @@
         <v>-0.03800000000000002</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E87">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88">
@@ -1867,13 +1867,13 @@
         <v>-0.04000000000000002</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E88">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89">
@@ -1884,13 +1884,13 @@
         <v>-0.04200000000000002</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E89">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90">
@@ -1901,13 +1901,13 @@
         <v>-0.044000000000000025</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E90">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91">
@@ -1918,13 +1918,13 @@
         <v>-0.04600000000000003</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E91">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92">
@@ -1935,13 +1935,13 @@
         <v>-0.04800000000000003</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E92">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93">
@@ -1952,13 +1952,13 @@
         <v>-0.05000000000000003</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E93">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
@@ -1969,13 +1969,13 @@
         <v>-0.05200000000000003</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E94">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
@@ -1986,13 +1986,13 @@
         <v>-0.054000000000000034</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E95">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
@@ -2003,13 +2003,13 @@
         <v>-0.056000000000000036</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E96">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
@@ -2020,506 +2020,506 @@
         <v>-0.05800000000000004</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E97">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.02800000000000001</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B98">
         <v>-0.012</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.02600000000000001</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B99">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B100">
-        <v>-0.05800000000000004</v>
+        <v>-0.016</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="E100">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B101">
-        <v>-0.056000000000000036</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E101">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B102">
-        <v>-0.054000000000000034</v>
+        <v>-0.020000000000000004</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E102">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.012</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B103">
-        <v>-0.018000000000000002</v>
+        <v>-0.022000000000000006</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E103">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.05800000000000004</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B104">
-        <v>-0.012</v>
+        <v>-0.024000000000000007</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.056000000000000036</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B105">
-        <v>-0.012</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.014</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B106">
-        <v>-0.018000000000000002</v>
+        <v>-0.02800000000000001</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E106">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.014</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B107">
-        <v>-0.020000000000000004</v>
+        <v>-0.030000000000000013</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E107">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B108">
-        <v>-0.05200000000000003</v>
+        <v>-0.032000000000000015</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E108">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B109">
-        <v>-0.05000000000000003</v>
+        <v>-0.034000000000000016</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E109">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B110">
-        <v>-0.04800000000000003</v>
+        <v>-0.03600000000000002</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E110">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B111">
-        <v>-0.04600000000000003</v>
+        <v>-0.03800000000000002</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E111">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B112">
-        <v>-0.044000000000000025</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E112">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B113">
         <v>-0.04200000000000002</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E113">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B114">
-        <v>-0.04000000000000002</v>
+        <v>-0.044000000000000025</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E114">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B115">
-        <v>-0.03800000000000002</v>
+        <v>-0.04600000000000003</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E115">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B116">
-        <v>-0.03600000000000002</v>
+        <v>-0.04800000000000003</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E116">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B117">
-        <v>-0.034000000000000016</v>
+        <v>-0.05000000000000003</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E117">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B118">
-        <v>-0.032000000000000015</v>
+        <v>-0.05200000000000003</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E118">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B119">
-        <v>-0.030000000000000013</v>
+        <v>-0.054000000000000034</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E119">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B120">
-        <v>-0.02800000000000001</v>
+        <v>-0.056000000000000036</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E120">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.024000000000000007</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B121">
-        <v>-0.02600000000000001</v>
+        <v>-0.05800000000000004</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E121">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.024000000000000007</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B122">
-        <v>-0.024000000000000007</v>
+        <v>-0.012</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E122">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.024000000000000007</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B123">
-        <v>-0.022000000000000006</v>
+        <v>-0.014</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="E123">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.054000000000000034</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B124">
-        <v>-0.012</v>
+        <v>-0.016</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.05200000000000003</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B125">
-        <v>-0.012</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.05000000000000003</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B126">
-        <v>-0.012</v>
+        <v>-0.020000000000000004</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
@@ -2530,13 +2530,13 @@
         <v>-0.022000000000000006</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E127">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
@@ -2547,778 +2547,778 @@
         <v>-0.024000000000000007</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E128">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B129">
-        <v>-0.05800000000000004</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E129">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.012</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B130">
-        <v>-0.020000000000000004</v>
+        <v>-0.02800000000000001</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="E130">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B131">
-        <v>-0.05200000000000003</v>
+        <v>-0.030000000000000013</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E131">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B132">
-        <v>-0.05000000000000003</v>
+        <v>-0.032000000000000015</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E132">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B133">
-        <v>-0.04800000000000003</v>
+        <v>-0.034000000000000016</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E133">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B134">
-        <v>-0.04600000000000003</v>
+        <v>-0.03600000000000002</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E134">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B135">
-        <v>-0.044000000000000025</v>
+        <v>-0.03800000000000002</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E135">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B136">
-        <v>-0.04200000000000002</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E136">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B137">
-        <v>-0.04000000000000002</v>
+        <v>-0.04200000000000002</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E137">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B138">
-        <v>-0.03800000000000002</v>
+        <v>-0.044000000000000025</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E138">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B139">
-        <v>-0.03600000000000002</v>
+        <v>-0.04600000000000003</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E139">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B140">
-        <v>-0.034000000000000016</v>
+        <v>-0.04800000000000003</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E140">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B141">
-        <v>-0.032000000000000015</v>
+        <v>-0.05000000000000003</v>
       </c>
       <c r="C141">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E141">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B142">
-        <v>-0.030000000000000013</v>
+        <v>-0.05200000000000003</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E142">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B143">
-        <v>-0.02800000000000001</v>
+        <v>-0.054000000000000034</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E143">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B144">
-        <v>-0.02600000000000001</v>
+        <v>-0.056000000000000036</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E144">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.016</v>
+        <v>0.022000000000000006</v>
       </c>
       <c r="B145">
-        <v>-0.024000000000000007</v>
+        <v>-0.05800000000000004</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E145">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.016</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B146">
-        <v>-0.022000000000000006</v>
+        <v>-0.012</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="E146">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.016</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B147">
-        <v>-0.056000000000000036</v>
+        <v>-0.014</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="E147">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.016</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B148">
-        <v>-0.054000000000000034</v>
+        <v>-0.016</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="E148">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B149">
-        <v>-0.022000000000000006</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="E149">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.02600000000000001</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B150">
-        <v>-0.05200000000000003</v>
+        <v>-0.020000000000000004</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B151">
-        <v>-0.05200000000000003</v>
+        <v>-0.022000000000000006</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E151">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B152">
-        <v>-0.04800000000000003</v>
+        <v>-0.024000000000000007</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E152">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B153">
-        <v>-0.04600000000000003</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="E153">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B154">
-        <v>-0.044000000000000025</v>
+        <v>-0.02800000000000001</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E154">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B155">
-        <v>-0.04200000000000002</v>
+        <v>-0.030000000000000013</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E155">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B156">
-        <v>-0.04000000000000002</v>
+        <v>-0.032000000000000015</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E156">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B157">
-        <v>-0.03800000000000002</v>
+        <v>-0.034000000000000016</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E157">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B158">
         <v>-0.03600000000000002</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E158">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B159">
-        <v>-0.034000000000000016</v>
+        <v>-0.03800000000000002</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E159">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B160">
-        <v>-0.032000000000000015</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E160">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B161">
-        <v>-0.030000000000000013</v>
+        <v>-0.04200000000000002</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E161">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B162">
-        <v>-0.02800000000000001</v>
+        <v>-0.044000000000000025</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E162">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B163">
-        <v>-0.02600000000000001</v>
+        <v>-0.04600000000000003</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E163">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B164">
-        <v>-0.024000000000000007</v>
+        <v>-0.04800000000000003</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E164">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B165">
-        <v>-0.054000000000000034</v>
+        <v>-0.05000000000000003</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E165">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.012</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B166">
-        <v>-0.022000000000000006</v>
+        <v>-0.05200000000000003</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E166">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.014</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B167">
-        <v>-0.05800000000000004</v>
+        <v>-0.054000000000000034</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E167">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.02800000000000001</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B168">
-        <v>-0.05800000000000004</v>
+        <v>-0.056000000000000036</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.02800000000000001</v>
+        <v>0.024000000000000007</v>
       </c>
       <c r="B169">
-        <v>-0.056000000000000036</v>
+        <v>-0.05800000000000004</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.02800000000000001</v>
+        <v>0.02600000000000001</v>
       </c>
       <c r="B170">
-        <v>-0.054000000000000034</v>
+        <v>-0.012</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.02800000000000001</v>
+        <v>0.02600000000000001</v>
       </c>
       <c r="B171">
-        <v>-0.05200000000000003</v>
+        <v>-0.014</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.02800000000000001</v>
+        <v>0.02600000000000001</v>
       </c>
       <c r="B172">
-        <v>-0.05000000000000003</v>
+        <v>-0.016</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.02800000000000001</v>
+        <v>0.02600000000000001</v>
       </c>
       <c r="B173">
-        <v>-0.04800000000000003</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174">
@@ -3326,16 +3326,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B174">
-        <v>-0.022000000000000006</v>
+        <v>-0.020000000000000004</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="175">
@@ -3343,16 +3343,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B175">
-        <v>-0.024000000000000007</v>
+        <v>-0.022000000000000006</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E175">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176">
@@ -3360,16 +3360,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B176">
-        <v>-0.02600000000000001</v>
+        <v>-0.024000000000000007</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E176">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177">
@@ -3377,16 +3377,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B177">
-        <v>-0.02800000000000001</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E177">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178">
@@ -3394,33 +3394,33 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B178">
-        <v>-0.030000000000000013</v>
+        <v>-0.02800000000000001</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E178">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.014</v>
+        <v>0.02600000000000001</v>
       </c>
       <c r="B179">
-        <v>-0.056000000000000036</v>
+        <v>-0.030000000000000013</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D179">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E179">
-        <v>95</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180">
@@ -3428,16 +3428,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B180">
-        <v>-0.034000000000000016</v>
+        <v>-0.032000000000000015</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E180">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181">
@@ -3445,16 +3445,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B181">
-        <v>-0.03600000000000002</v>
+        <v>-0.034000000000000016</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D181">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E181">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182">
@@ -3462,16 +3462,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B182">
-        <v>-0.03800000000000002</v>
+        <v>-0.03600000000000002</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E182">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="183">
@@ -3479,16 +3479,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B183">
-        <v>-0.04000000000000002</v>
+        <v>-0.03800000000000002</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D183">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E183">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="184">
@@ -3496,16 +3496,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B184">
-        <v>-0.04200000000000002</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E184">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="185">
@@ -3513,16 +3513,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B185">
-        <v>-0.044000000000000025</v>
+        <v>-0.04200000000000002</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E185">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186">
@@ -3530,16 +3530,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B186">
-        <v>-0.04600000000000003</v>
+        <v>-0.044000000000000025</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D186">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E186">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187">
@@ -3547,16 +3547,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B187">
-        <v>-0.04800000000000003</v>
+        <v>-0.04600000000000003</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E187">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188">
@@ -3564,33 +3564,33 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B188">
-        <v>-0.05000000000000003</v>
+        <v>-0.04800000000000003</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E188">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.014</v>
+        <v>0.02600000000000001</v>
       </c>
       <c r="B189">
         <v>-0.05000000000000003</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E189">
-        <v>95</v>
+        <v>131</v>
       </c>
     </row>
     <row r="190">
@@ -3598,16 +3598,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B190">
-        <v>-0.054000000000000034</v>
+        <v>-0.05200000000000003</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E190">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="191">
@@ -3615,16 +3615,16 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B191">
-        <v>-0.056000000000000036</v>
+        <v>-0.054000000000000034</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E191">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="192">
@@ -3632,33 +3632,33 @@
         <v>0.02600000000000001</v>
       </c>
       <c r="B192">
-        <v>-0.05800000000000004</v>
+        <v>-0.056000000000000036</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D192">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E192">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.02800000000000001</v>
+        <v>0.02600000000000001</v>
       </c>
       <c r="B193">
-        <v>-0.04600000000000003</v>
+        <v>-0.05800000000000004</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D193">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="194">
@@ -3666,16 +3666,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B194">
-        <v>-0.022000000000000006</v>
+        <v>-0.012</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D194">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195">
@@ -3683,16 +3683,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B195">
-        <v>-0.024000000000000007</v>
+        <v>-0.014</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D195">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="196">
@@ -3700,16 +3700,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B196">
-        <v>-0.02600000000000001</v>
+        <v>-0.016</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D196">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="197">
@@ -3717,16 +3717,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B197">
-        <v>-0.02800000000000001</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D197">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198">
@@ -3734,16 +3734,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B198">
-        <v>-0.030000000000000013</v>
+        <v>-0.020000000000000004</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D198">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="199">
@@ -3751,16 +3751,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B199">
-        <v>-0.032000000000000015</v>
+        <v>-0.022000000000000006</v>
       </c>
       <c r="C199">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D199">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="200">
@@ -3768,16 +3768,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B200">
-        <v>-0.034000000000000016</v>
+        <v>-0.024000000000000007</v>
       </c>
       <c r="C200">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D200">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="201">
@@ -3785,16 +3785,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B201">
-        <v>-0.03600000000000002</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D201">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="202">
@@ -3802,16 +3802,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B202">
-        <v>-0.03800000000000002</v>
+        <v>-0.02800000000000001</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D202">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="203">
@@ -3819,16 +3819,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B203">
-        <v>-0.04000000000000002</v>
+        <v>-0.030000000000000013</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D203">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="204">
@@ -3836,16 +3836,16 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B204">
-        <v>-0.04200000000000002</v>
+        <v>-0.032000000000000015</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="205">
@@ -3853,407 +3853,407 @@
         <v>0.02800000000000001</v>
       </c>
       <c r="B205">
-        <v>-0.044000000000000025</v>
+        <v>-0.034000000000000016</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D205">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.02600000000000001</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B206">
-        <v>-0.032000000000000015</v>
+        <v>-0.03600000000000002</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D206">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E206">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B207">
-        <v>-0.05000000000000003</v>
+        <v>-0.03800000000000002</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D207">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E207">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B208">
-        <v>-0.05800000000000004</v>
+        <v>-0.04000000000000002</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D208">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E208">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B209">
-        <v>-0.024000000000000007</v>
+        <v>-0.04200000000000002</v>
       </c>
       <c r="C209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D209">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E209">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B210">
-        <v>-0.02600000000000001</v>
+        <v>-0.044000000000000025</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D210">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E210">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B211">
-        <v>-0.05200000000000003</v>
+        <v>-0.04600000000000003</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D211">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E211">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B212">
-        <v>-0.054000000000000034</v>
+        <v>-0.04800000000000003</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D212">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E212">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B213">
-        <v>-0.04800000000000003</v>
+        <v>-0.05000000000000003</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D213">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E213">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B214">
-        <v>-0.04600000000000003</v>
+        <v>-0.05200000000000003</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E214">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B215">
-        <v>-0.044000000000000025</v>
+        <v>-0.054000000000000034</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D215">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E215">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B216">
-        <v>-0.04200000000000002</v>
+        <v>-0.056000000000000036</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E216">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.012</v>
+        <v>0.02800000000000001</v>
       </c>
       <c r="B217">
-        <v>-0.02800000000000001</v>
+        <v>-0.05800000000000004</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D217">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E217">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.012</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B218">
-        <v>-0.03800000000000002</v>
+        <v>-0.012</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D218">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="E218">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.012</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B219">
-        <v>-0.056000000000000036</v>
+        <v>-0.014</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D219">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="E219">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.012</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B220">
-        <v>-0.03600000000000002</v>
+        <v>-0.016</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D220">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E220">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.012</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B221">
-        <v>-0.034000000000000016</v>
+        <v>-0.018000000000000002</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D221">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E221">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.012</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B222">
-        <v>-0.032000000000000015</v>
+        <v>-0.020000000000000004</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D222">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E222">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.012</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B223">
-        <v>-0.030000000000000013</v>
+        <v>-0.022000000000000006</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D223">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E223">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.012</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B224">
-        <v>-0.04000000000000002</v>
+        <v>-0.024000000000000007</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E224">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.02600000000000001</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B225">
-        <v>-0.020000000000000004</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E225">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.02600000000000001</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B226">
-        <v>-0.014</v>
+        <v>-0.02800000000000001</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E226">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.02600000000000001</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B227">
-        <v>-0.016</v>
+        <v>-0.030000000000000013</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E227">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.02600000000000001</v>
+        <v>0.030000000000000013</v>
       </c>
       <c r="B228">
-        <v>-0.018000000000000002</v>
+        <v>-0.032000000000000015</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D228">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E228">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="229">
@@ -4267,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230">
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231">
@@ -4301,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="232">
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="233">
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="234">
@@ -4352,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="235">
@@ -4369,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="236">
@@ -4386,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="237">
@@ -4403,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="238">
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="239">
@@ -4437,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="240">
@@ -4454,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="241">
@@ -4471,27 +4471,27 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.05800000000000004</v>
+        <v>0.032000000000000015</v>
       </c>
       <c r="B242">
-        <v>-0.05800000000000004</v>
+        <v>-0.012</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="243">
@@ -4505,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="244">
@@ -4522,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="245">
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="246">
@@ -4556,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="247">
@@ -4573,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="248">
@@ -4590,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="249">
@@ -4607,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="250">
@@ -4624,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="251">
@@ -4641,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="252">
@@ -4658,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="253">
@@ -4675,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="254">
@@ -4692,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="255">
@@ -4709,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="256">
@@ -4726,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="257">
@@ -4743,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="258">
@@ -4760,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="259">
@@ -4777,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="260">
@@ -4794,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="261">
@@ -4811,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="D261">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="262">
@@ -4828,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="263">
@@ -4845,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="264">
@@ -4862,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="265">
@@ -4879,27 +4879,27 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.02800000000000001</v>
+        <v>0.034000000000000016</v>
       </c>
       <c r="B266">
-        <v>-0.014</v>
+        <v>-0.012</v>
       </c>
       <c r="C266">
         <v>0</v>
       </c>
       <c r="D266">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="267">
@@ -4913,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="268">
@@ -4930,10 +4930,10 @@
         <v>0</v>
       </c>
       <c r="D268">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="269">
@@ -4947,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="270">
@@ -4964,10 +4964,10 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="271">
@@ -4981,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="272">
@@ -4998,10 +4998,10 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="273">
@@ -5015,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274">
@@ -5032,10 +5032,10 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="275">
@@ -5049,10 +5049,10 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="276">
@@ -5066,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="277">
@@ -5083,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278">
@@ -5100,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="279">
@@ -5117,10 +5117,10 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280">
@@ -5134,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="281">
@@ -5151,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="282">
@@ -5168,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="283">
@@ -5185,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="284">
@@ -5202,10 +5202,10 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="285">
@@ -5219,10 +5219,10 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="286">
@@ -5236,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="287">
@@ -5253,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="288">
@@ -5270,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="289">
@@ -5287,27 +5287,27 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.02800000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="B290">
-        <v>-0.016</v>
+        <v>-0.014</v>
       </c>
       <c r="C290">
         <v>0</v>
       </c>
       <c r="D290">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="291">
@@ -5321,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="292">
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="293">
@@ -5355,10 +5355,10 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="294">
@@ -5372,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="295">
@@ -5389,10 +5389,10 @@
         <v>0</v>
       </c>
       <c r="D295">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="296">
@@ -5406,10 +5406,10 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="297">
@@ -5423,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="298">
@@ -5440,10 +5440,10 @@
         <v>0</v>
       </c>
       <c r="D298">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="299">
@@ -5457,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="300">
@@ -5474,10 +5474,10 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="301">
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="302">
@@ -5508,10 +5508,10 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="303">
@@ -5525,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="D303">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="304">
@@ -5542,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="305">
@@ -5559,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="306">
@@ -5576,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E306">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="307">
@@ -5593,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="308">
@@ -5610,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="D308">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="309">
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="310">
@@ -5644,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="D310">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="311">
@@ -5661,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="312">
@@ -5678,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="313">
@@ -5695,27 +5695,27 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.02800000000000001</v>
+        <v>0.03800000000000002</v>
       </c>
       <c r="B314">
-        <v>-0.018000000000000002</v>
+        <v>-0.012</v>
       </c>
       <c r="C314">
         <v>0</v>
       </c>
       <c r="D314">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E314">
-        <v>1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="315">
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="316">
@@ -5746,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="317">
@@ -5763,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="318">
@@ -5780,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="319">
@@ -5797,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="D319">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="320">
@@ -5814,10 +5814,10 @@
         <v>0</v>
       </c>
       <c r="D320">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="321">
@@ -5831,10 +5831,10 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="322">
@@ -5848,10 +5848,10 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="323">
@@ -5865,10 +5865,10 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="324">
@@ -5882,10 +5882,10 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E324">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="325">
@@ -5899,10 +5899,10 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="326">
@@ -5916,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="327">
@@ -5933,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="328">
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="D328">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="329">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="330">
@@ -5984,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="D330">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="331">
@@ -6001,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="332">
@@ -6018,10 +6018,10 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="333">
@@ -6035,10 +6035,10 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="334">
@@ -6052,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="335">
@@ -6069,10 +6069,10 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="336">
@@ -6086,10 +6086,10 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337">
@@ -6103,27 +6103,27 @@
         <v>0</v>
       </c>
       <c r="D337">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.02800000000000001</v>
+        <v>0.04000000000000002</v>
       </c>
       <c r="B338">
-        <v>-0.020000000000000004</v>
+        <v>-0.012</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
       <c r="D338">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="339">
@@ -6137,10 +6137,10 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="340">
@@ -6154,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E340">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="341">
@@ -6171,10 +6171,10 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="342">
@@ -6188,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="343">
@@ -6205,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="344">
@@ -6222,10 +6222,10 @@
         <v>0</v>
       </c>
       <c r="D344">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="345">
@@ -6239,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="D345">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="346">
@@ -6256,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="D346">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="347">
@@ -6273,10 +6273,10 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="348">
@@ -6290,10 +6290,10 @@
         <v>0</v>
       </c>
       <c r="D348">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="349">
@@ -6307,10 +6307,10 @@
         <v>0</v>
       </c>
       <c r="D349">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="350">
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="D350">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E350">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="351">
@@ -6341,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="D351">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="352">
@@ -6358,27 +6358,27 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>0.030000000000000013</v>
+        <v>0.04000000000000002</v>
       </c>
       <c r="B353">
-        <v>-0.014</v>
+        <v>-0.04200000000000002</v>
       </c>
       <c r="C353">
         <v>0</v>
       </c>
       <c r="D353">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="354">
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355">
@@ -6409,10 +6409,10 @@
         <v>0</v>
       </c>
       <c r="D355">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="356">
@@ -6426,10 +6426,10 @@
         <v>0</v>
       </c>
       <c r="D356">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="357">
@@ -6443,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="D357">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="358">
@@ -6460,10 +6460,10 @@
         <v>0</v>
       </c>
       <c r="D358">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="359">
@@ -6477,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="D359">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="360">
@@ -6494,10 +6494,10 @@
         <v>0</v>
       </c>
       <c r="D360">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="361">
@@ -6511,27 +6511,27 @@
         <v>0</v>
       </c>
       <c r="D361">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>0.030000000000000013</v>
+        <v>0.04200000000000002</v>
       </c>
       <c r="B362">
-        <v>-0.016</v>
+        <v>-0.012</v>
       </c>
       <c r="C362">
         <v>0</v>
       </c>
       <c r="D362">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="363">
@@ -6545,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="D363">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E363">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="364">
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="D364">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E364">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="365">
@@ -6579,10 +6579,10 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="366">
@@ -6596,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="D366">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="367">
@@ -6613,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="D367">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="368">
@@ -6630,10 +6630,10 @@
         <v>0</v>
       </c>
       <c r="D368">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="369">
@@ -6647,10 +6647,10 @@
         <v>0</v>
       </c>
       <c r="D369">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="370">
@@ -6664,10 +6664,10 @@
         <v>0</v>
       </c>
       <c r="D370">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E370">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="371">
@@ -6681,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="D371">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="372">
@@ -6698,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="D372">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E372">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="373">
@@ -6715,10 +6715,10 @@
         <v>0</v>
       </c>
       <c r="D373">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="374">
@@ -6732,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="D374">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E374">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="375">
@@ -6749,10 +6749,10 @@
         <v>0</v>
       </c>
       <c r="D375">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E375">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="376">
@@ -6766,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="D376">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E376">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="377">
@@ -6783,10 +6783,10 @@
         <v>0</v>
       </c>
       <c r="D377">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E377">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="378">
@@ -6800,10 +6800,10 @@
         <v>0</v>
       </c>
       <c r="D378">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="379">
@@ -6817,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="D379">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E379">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="380">
@@ -6834,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="D380">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="381">
@@ -6851,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="D381">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="382">
@@ -6868,10 +6868,10 @@
         <v>0</v>
       </c>
       <c r="D382">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="383">
@@ -6885,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="D383">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="384">
@@ -6902,10 +6902,10 @@
         <v>0</v>
       </c>
       <c r="D384">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="385">
@@ -6919,27 +6919,27 @@
         <v>0</v>
       </c>
       <c r="D385">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>0.030000000000000013</v>
+        <v>0.044000000000000025</v>
       </c>
       <c r="B386">
-        <v>-0.018000000000000002</v>
+        <v>-0.012</v>
       </c>
       <c r="C386">
         <v>0</v>
       </c>
       <c r="D386">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="387">
@@ -6953,10 +6953,10 @@
         <v>0</v>
       </c>
       <c r="D387">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E387">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="388">
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="D388">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="389">
@@ -6987,10 +6987,10 @@
         <v>0</v>
       </c>
       <c r="D389">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="390">
@@ -7004,10 +7004,10 @@
         <v>0</v>
       </c>
       <c r="D390">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="391">
@@ -7021,10 +7021,10 @@
         <v>0</v>
       </c>
       <c r="D391">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="392">
@@ -7038,10 +7038,10 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E392">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="393">
@@ -7055,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="D393">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="394">
@@ -7072,10 +7072,10 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E394">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="395">
@@ -7089,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="D395">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="396">
@@ -7106,10 +7106,10 @@
         <v>0</v>
       </c>
       <c r="D396">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="397">
@@ -7123,10 +7123,10 @@
         <v>0</v>
       </c>
       <c r="D397">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="398">
@@ -7140,10 +7140,10 @@
         <v>0</v>
       </c>
       <c r="D398">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="399">
@@ -7157,10 +7157,10 @@
         <v>0</v>
       </c>
       <c r="D399">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="400">
@@ -7174,10 +7174,10 @@
         <v>0</v>
       </c>
       <c r="D400">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="401">
@@ -7191,10 +7191,10 @@
         <v>0</v>
       </c>
       <c r="D401">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="402">
@@ -7208,10 +7208,10 @@
         <v>0</v>
       </c>
       <c r="D402">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E402">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="403">
@@ -7225,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="404">
@@ -7242,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="D404">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E404">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="405">
@@ -7259,10 +7259,10 @@
         <v>0</v>
       </c>
       <c r="D405">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E405">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="406">
@@ -7276,10 +7276,10 @@
         <v>0</v>
       </c>
       <c r="D406">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="407">
@@ -7293,10 +7293,10 @@
         <v>0</v>
       </c>
       <c r="D407">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E407">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="408">
@@ -7310,10 +7310,10 @@
         <v>0</v>
       </c>
       <c r="D408">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="409">
@@ -7327,27 +7327,27 @@
         <v>0</v>
       </c>
       <c r="D409">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>0.030000000000000013</v>
+        <v>0.04600000000000003</v>
       </c>
       <c r="B410">
-        <v>-0.020000000000000004</v>
+        <v>-0.012</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
       <c r="D410">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="411">
@@ -7361,10 +7361,10 @@
         <v>0</v>
       </c>
       <c r="D411">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="412">
@@ -7378,10 +7378,10 @@
         <v>0</v>
       </c>
       <c r="D412">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="413">
@@ -7395,10 +7395,10 @@
         <v>0</v>
       </c>
       <c r="D413">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="414">
@@ -7412,10 +7412,10 @@
         <v>0</v>
       </c>
       <c r="D414">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="415">
@@ -7429,10 +7429,10 @@
         <v>0</v>
       </c>
       <c r="D415">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="416">
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="D416">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="417">
@@ -7463,10 +7463,10 @@
         <v>0</v>
       </c>
       <c r="D417">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="418">
@@ -7480,10 +7480,10 @@
         <v>0</v>
       </c>
       <c r="D418">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E418">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="419">
@@ -7497,10 +7497,10 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E419">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="420">
@@ -7514,10 +7514,10 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E420">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="421">
@@ -7531,10 +7531,10 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E421">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="422">
@@ -7548,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="423">
@@ -7565,10 +7565,10 @@
         <v>0</v>
       </c>
       <c r="D423">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="424">
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="425">
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="D425">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="426">
@@ -7616,10 +7616,10 @@
         <v>0</v>
       </c>
       <c r="D426">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="427">
@@ -7633,10 +7633,10 @@
         <v>0</v>
       </c>
       <c r="D427">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E427">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="428">
@@ -7650,10 +7650,10 @@
         <v>0</v>
       </c>
       <c r="D428">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E428">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="429">
@@ -7667,10 +7667,10 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E429">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="430">
@@ -7684,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="D430">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="431">
@@ -7701,10 +7701,10 @@
         <v>0</v>
       </c>
       <c r="D431">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E431">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="432">
@@ -7718,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="D432">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="433">
@@ -7735,27 +7735,27 @@
         <v>0</v>
       </c>
       <c r="D433">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E433">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>0.030000000000000013</v>
+        <v>0.04800000000000003</v>
       </c>
       <c r="B434">
-        <v>-0.022000000000000006</v>
+        <v>-0.012</v>
       </c>
       <c r="C434">
         <v>0</v>
       </c>
       <c r="D434">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="435">
@@ -7769,10 +7769,10 @@
         <v>0</v>
       </c>
       <c r="D435">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="436">
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="D436">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="437">
@@ -7803,10 +7803,10 @@
         <v>0</v>
       </c>
       <c r="D437">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="438">
@@ -7820,10 +7820,10 @@
         <v>0</v>
       </c>
       <c r="D438">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E438">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="439">
@@ -7837,10 +7837,10 @@
         <v>0</v>
       </c>
       <c r="D439">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="440">
@@ -7854,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E440">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="441">
@@ -7871,10 +7871,10 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E441">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="442">
@@ -7888,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="D442">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E442">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="443">
@@ -7905,10 +7905,10 @@
         <v>0</v>
       </c>
       <c r="D443">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E443">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="444">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="D444">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="445">
@@ -7939,10 +7939,10 @@
         <v>0</v>
       </c>
       <c r="D445">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E445">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="446">
@@ -7956,10 +7956,10 @@
         <v>0</v>
       </c>
       <c r="D446">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E446">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="447">
@@ -7973,10 +7973,10 @@
         <v>0</v>
       </c>
       <c r="D447">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E447">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="448">
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="D448">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E448">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="449">
@@ -8007,10 +8007,10 @@
         <v>0</v>
       </c>
       <c r="D449">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="450">
@@ -8024,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E450">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="451">
@@ -8041,10 +8041,10 @@
         <v>0</v>
       </c>
       <c r="D451">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E451">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="452">
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="D452">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="453">
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="D453">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E453">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="454">
@@ -8092,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="D454">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="455">
@@ -8109,10 +8109,10 @@
         <v>0</v>
       </c>
       <c r="D455">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="456">
@@ -8126,10 +8126,10 @@
         <v>0</v>
       </c>
       <c r="D456">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="457">
@@ -8143,27 +8143,27 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E457">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>0.030000000000000013</v>
+        <v>0.05000000000000003</v>
       </c>
       <c r="B458">
-        <v>-0.024000000000000007</v>
+        <v>-0.012</v>
       </c>
       <c r="C458">
         <v>0</v>
       </c>
       <c r="D458">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="459">
@@ -8177,10 +8177,10 @@
         <v>0</v>
       </c>
       <c r="D459">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E459">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="460">
@@ -8194,10 +8194,10 @@
         <v>0</v>
       </c>
       <c r="D460">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E460">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="461">
@@ -8211,10 +8211,10 @@
         <v>0</v>
       </c>
       <c r="D461">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E461">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="462">
@@ -8228,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="D462">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E462">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="463">
@@ -8245,10 +8245,10 @@
         <v>0</v>
       </c>
       <c r="D463">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E463">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="464">
@@ -8262,10 +8262,10 @@
         <v>0</v>
       </c>
       <c r="D464">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E464">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="465">
@@ -8279,10 +8279,10 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E465">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="466">
@@ -8296,10 +8296,10 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E466">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="467">
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E467">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="468">
@@ -8330,10 +8330,10 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E468">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="469">
@@ -8347,10 +8347,10 @@
         <v>0</v>
       </c>
       <c r="D469">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E469">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="470">
@@ -8364,10 +8364,10 @@
         <v>0</v>
       </c>
       <c r="D470">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E470">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="471">
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E471">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="472">
@@ -8398,10 +8398,10 @@
         <v>0</v>
       </c>
       <c r="D472">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E472">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="473">
@@ -8415,10 +8415,10 @@
         <v>0</v>
       </c>
       <c r="D473">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="474">
@@ -8432,10 +8432,10 @@
         <v>0</v>
       </c>
       <c r="D474">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E474">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="475">
@@ -8449,10 +8449,10 @@
         <v>0</v>
       </c>
       <c r="D475">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E475">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="476">
@@ -8466,10 +8466,10 @@
         <v>0</v>
       </c>
       <c r="D476">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E476">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="477">
@@ -8483,10 +8483,10 @@
         <v>0</v>
       </c>
       <c r="D477">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="478">
@@ -8500,10 +8500,10 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E478">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="479">
@@ -8517,10 +8517,10 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E479">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="480">
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="D480">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E480">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="481">
@@ -8551,27 +8551,27 @@
         <v>0</v>
       </c>
       <c r="D481">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E481">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="482">
       <c r="A482">
-        <v>0.030000000000000013</v>
+        <v>0.05200000000000003</v>
       </c>
       <c r="B482">
-        <v>-0.02600000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="C482">
         <v>0</v>
       </c>
       <c r="D482">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E482">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="483">
@@ -8585,10 +8585,10 @@
         <v>0</v>
       </c>
       <c r="D483">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E483">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="484">
@@ -8602,10 +8602,10 @@
         <v>0</v>
       </c>
       <c r="D484">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E484">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="485">
@@ -8619,10 +8619,10 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E485">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="486">
@@ -8636,10 +8636,10 @@
         <v>0</v>
       </c>
       <c r="D486">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E486">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="487">
@@ -8653,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="D487">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E487">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="488">
@@ -8670,10 +8670,10 @@
         <v>0</v>
       </c>
       <c r="D488">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E488">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="489">
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="D489">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E489">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="490">
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="D490">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E490">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="491">
@@ -8721,10 +8721,10 @@
         <v>0</v>
       </c>
       <c r="D491">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E491">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="492">
@@ -8738,10 +8738,10 @@
         <v>0</v>
       </c>
       <c r="D492">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E492">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="493">
@@ -8755,10 +8755,10 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E493">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="494">
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="D494">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E494">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="495">
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="D495">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E495">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="496">
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="D496">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="497">
@@ -8823,10 +8823,10 @@
         <v>0</v>
       </c>
       <c r="D497">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E497">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="498">
@@ -8840,10 +8840,10 @@
         <v>0</v>
       </c>
       <c r="D498">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E498">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="499">
@@ -8857,10 +8857,10 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E499">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="500">
@@ -8874,10 +8874,10 @@
         <v>0</v>
       </c>
       <c r="D500">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E500">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="501">
@@ -8891,10 +8891,10 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E501">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="502">
@@ -8908,10 +8908,10 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E502">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="503">
@@ -8925,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E503">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="504">
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E504">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="505">
@@ -8959,27 +8959,27 @@
         <v>0</v>
       </c>
       <c r="D505">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E505">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="506">
       <c r="A506">
-        <v>0.030000000000000013</v>
+        <v>0.054000000000000034</v>
       </c>
       <c r="B506">
-        <v>-0.02800000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="C506">
         <v>0</v>
       </c>
       <c r="D506">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E506">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="507">
@@ -8993,10 +8993,10 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="508">
@@ -9010,10 +9010,10 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="509">
@@ -9027,10 +9027,10 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E509">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="510">
@@ -9044,10 +9044,10 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="511">
@@ -9061,10 +9061,10 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E511">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="512">
@@ -9078,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E512">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="513">
@@ -9095,10 +9095,10 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E513">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="514">
@@ -9112,10 +9112,10 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E514">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="515">
@@ -9129,10 +9129,10 @@
         <v>0</v>
       </c>
       <c r="D515">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E515">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="516">
@@ -9146,10 +9146,10 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E516">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="517">
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E517">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="518">
@@ -9180,10 +9180,10 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="519">
@@ -9197,10 +9197,10 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E519">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="520">
@@ -9214,10 +9214,10 @@
         <v>0</v>
       </c>
       <c r="D520">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E520">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="521">
@@ -9231,10 +9231,10 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E521">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="522">
@@ -9248,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="D522">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E522">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="523">
@@ -9265,10 +9265,10 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E523">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="524">
@@ -9282,10 +9282,10 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E524">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="525">
@@ -9299,10 +9299,10 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E525">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="526">
@@ -9316,10 +9316,10 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E526">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="527">
@@ -9333,10 +9333,10 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E527">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="528">
@@ -9350,10 +9350,10 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E528">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="529">
@@ -9367,27 +9367,27 @@
         <v>0</v>
       </c>
       <c r="D529">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E529">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="530">
       <c r="A530">
-        <v>0.030000000000000013</v>
+        <v>0.056000000000000036</v>
       </c>
       <c r="B530">
-        <v>-0.030000000000000013</v>
+        <v>-0.012</v>
       </c>
       <c r="C530">
         <v>0</v>
       </c>
       <c r="D530">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E530">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="531">
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E531">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="532">
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E532">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="533">
@@ -9435,10 +9435,10 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E533">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="534">
@@ -9452,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="D534">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E534">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="535">
@@ -9469,10 +9469,10 @@
         <v>0</v>
       </c>
       <c r="D535">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="536">
@@ -9486,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="D536">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E536">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="537">
@@ -9503,10 +9503,10 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E537">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="538">
@@ -9520,10 +9520,10 @@
         <v>0</v>
       </c>
       <c r="D538">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E538">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="539">
@@ -9537,10 +9537,10 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E539">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="540">
@@ -9554,10 +9554,10 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E540">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="541">
@@ -9571,10 +9571,10 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E541">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="542">
@@ -9588,10 +9588,10 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E542">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="543">
@@ -9605,10 +9605,10 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E543">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="544">
@@ -9622,10 +9622,10 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E544">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="545">
@@ -9639,10 +9639,10 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E545">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="546">
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="D546">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E546">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="547">
@@ -9673,10 +9673,10 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E547">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="548">
@@ -9690,10 +9690,10 @@
         <v>0</v>
       </c>
       <c r="D548">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E548">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="549">
@@ -9707,10 +9707,10 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E549">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="550">
@@ -9724,10 +9724,10 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E550">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="551">
@@ -9741,10 +9741,10 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E551">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="552">
@@ -9758,10 +9758,10 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E552">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="553">
@@ -9775,27 +9775,27 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E553">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="554">
       <c r="A554">
-        <v>0.030000000000000013</v>
+        <v>0.05800000000000004</v>
       </c>
       <c r="B554">
-        <v>-0.032000000000000015</v>
+        <v>-0.012</v>
       </c>
       <c r="C554">
         <v>0</v>
       </c>
       <c r="D554">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="E554">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="555">
@@ -9809,10 +9809,10 @@
         <v>0</v>
       </c>
       <c r="D555">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E555">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="556">
@@ -9826,10 +9826,10 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E556">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="557">
@@ -9843,10 +9843,10 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E557">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="558">
@@ -9860,10 +9860,10 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E558">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="559">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E559">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="560">
@@ -9894,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E560">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="561">
@@ -9911,10 +9911,10 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E561">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="562">
@@ -9928,10 +9928,10 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E562">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="563">
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="D563">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E563">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="564">
@@ -9962,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E564">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="565">
@@ -9979,10 +9979,10 @@
         <v>0</v>
       </c>
       <c r="D565">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E565">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="566">
@@ -9996,10 +9996,10 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E566">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="567">
@@ -10013,10 +10013,10 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E567">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="568">
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="D568">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E568">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="569">
@@ -10047,10 +10047,10 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E569">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="570">
@@ -10064,10 +10064,10 @@
         <v>0</v>
       </c>
       <c r="D570">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E570">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="571">
@@ -10081,10 +10081,10 @@
         <v>0</v>
       </c>
       <c r="D571">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E571">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="572">
@@ -10098,10 +10098,10 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E572">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="573">
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E573">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="574">
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E574">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="575">
@@ -10149,10 +10149,10 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E575">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="576">
@@ -10166,27 +10166,27 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E576">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="577">
       <c r="A577">
-        <v>0.04000000000000002</v>
+        <v>0.05800000000000004</v>
       </c>
       <c r="B577">
-        <v>-0.04200000000000002</v>
+        <v>-0.05800000000000004</v>
       </c>
       <c r="C577">
         <v>0</v>
       </c>
       <c r="D577">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E577">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/tran2.xlsx
+++ b/public/download/tran2.xlsx
@@ -399,682 +399,682 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.060000000000000026</v>
+        <v>0.012</v>
       </c>
       <c r="B2">
-        <v>-0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>465</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.06800000000000003</v>
+        <v>0.012</v>
       </c>
       <c r="B3">
-        <v>-0.04000000000000001</v>
+        <v>-0.004</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>347</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.06800000000000003</v>
+        <v>0.016</v>
       </c>
       <c r="B4">
-        <v>-0.036000000000000004</v>
+        <v>-0.004</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.060000000000000026</v>
+        <v>0.016</v>
       </c>
       <c r="B5">
-        <v>-0.036000000000000004</v>
+        <v>-0.008</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.06400000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="B6">
-        <v>-0.036000000000000004</v>
+        <v>-0.008</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.06400000000000003</v>
+        <v>0.016</v>
       </c>
       <c r="B7">
-        <v>-0.04000000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.04400000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="B8">
-        <v>-0.036000000000000004</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>465</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.06400000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="B9">
-        <v>-0.04400000000000001</v>
+        <v>-0.004</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
       <c r="B10">
-        <v>-0.036000000000000004</v>
+        <v>-0.008</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="E10">
-        <v>87</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.06800000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="B11">
-        <v>-0.04400000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.06400000000000003</v>
+        <v>0.024</v>
       </c>
       <c r="B12">
-        <v>-0.032</v>
+        <v>-0.012</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.060000000000000026</v>
+        <v>0.028</v>
       </c>
       <c r="B13">
-        <v>-0.04400000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.06800000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="B14">
-        <v>-0.032</v>
+        <v>-0.016</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="E14">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="B15">
-        <v>-0.036000000000000004</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>465</v>
       </c>
       <c r="E15">
-        <v>97</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.060000000000000026</v>
+        <v>0.008</v>
       </c>
       <c r="B16">
-        <v>-0.032</v>
+        <v>-0.004</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.004</v>
+        <v>0.02</v>
       </c>
       <c r="B17">
-        <v>-0.032</v>
+        <v>-0.02</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="E17">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.04400000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="B18">
-        <v>-0.04000000000000001</v>
+        <v>-0.024</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="E18">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.05600000000000002</v>
+        <v>0.024</v>
       </c>
       <c r="B19">
-        <v>-0.04000000000000001</v>
+        <v>-0.008</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.05600000000000002</v>
+        <v>0.016</v>
       </c>
       <c r="B20">
-        <v>-0.036000000000000004</v>
+        <v>-0.016</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="B21">
-        <v>-0.032</v>
+        <v>-0.016</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="E21">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.05200000000000002</v>
+        <v>0.024</v>
       </c>
       <c r="B22">
-        <v>-0.04000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.05200000000000002</v>
+        <v>0.024</v>
       </c>
       <c r="B23">
-        <v>-0.036000000000000004</v>
+        <v>-0.024</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="E23">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.048000000000000015</v>
+        <v>0.024</v>
       </c>
       <c r="B24">
-        <v>-0.036000000000000004</v>
+        <v>-0.028</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E24">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.048000000000000015</v>
+        <v>0.032</v>
       </c>
       <c r="B25">
-        <v>-0.04000000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.06800000000000003</v>
+        <v>0.028</v>
       </c>
       <c r="B26">
-        <v>-0.028</v>
+        <v>-0.016</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E26">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.06400000000000003</v>
+        <v>0.028</v>
       </c>
       <c r="B27">
-        <v>-0.028</v>
+        <v>-0.02</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.032</v>
+        <v>0.012</v>
       </c>
       <c r="B28">
-        <v>-0.036000000000000004</v>
+        <v>-0.012</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="E28">
-        <v>45</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.04000000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="B29">
-        <v>-0.036000000000000004</v>
+        <v>-0.016</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.04000000000000001</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B30">
-        <v>-0.04000000000000001</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="B31">
         <v>-0.028</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E31">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.008</v>
+        <v>0.024</v>
       </c>
       <c r="B32">
         <v>-0.032</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E32">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.008</v>
+        <v>0.024</v>
       </c>
       <c r="B33">
         <v>-0.036000000000000004</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E33">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.008</v>
+        <v>0.024</v>
       </c>
       <c r="B34">
         <v>-0.04000000000000001</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.04400000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="B35">
         <v>-0.032</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E35">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.060000000000000026</v>
+        <v>0.016</v>
       </c>
       <c r="B36">
-        <v>-0.048000000000000015</v>
+        <v>-0.02</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="E36">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.06800000000000003</v>
+        <v>0.016</v>
       </c>
       <c r="B37">
-        <v>-0.048000000000000015</v>
+        <v>-0.024</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E37">
-        <v>21</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="B38">
         <v>-0.024</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E38">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.06400000000000003</v>
+        <v>0.028</v>
       </c>
       <c r="B39">
-        <v>-0.048000000000000015</v>
+        <v>-0.028</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="B40">
-        <v>-0.028</v>
+        <v>-0.032</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E40">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.060000000000000026</v>
+        <v>0.028</v>
       </c>
       <c r="B41">
-        <v>-0.028</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -1085,914 +1085,914 @@
         <v>-0.04000000000000001</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E42">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.028</v>
+        <v>0.016</v>
       </c>
       <c r="B43">
-        <v>-0.036000000000000004</v>
+        <v>-0.028</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E43">
-        <v>46</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.012</v>
+        <v>0.02</v>
       </c>
       <c r="B44">
-        <v>-0.032</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>465</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.012</v>
+        <v>0.032</v>
       </c>
       <c r="B45">
-        <v>-0.036000000000000004</v>
+        <v>-0.02</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E45">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.012</v>
+        <v>0.032</v>
       </c>
       <c r="B46">
-        <v>-0.04000000000000001</v>
+        <v>-0.024</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="E46">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.036000000000000004</v>
+        <v>0.032</v>
       </c>
       <c r="B47">
-        <v>-0.04000000000000001</v>
+        <v>-0.028</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E47">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.004</v>
+        <v>0.032</v>
       </c>
       <c r="B48">
-        <v>-0.02</v>
+        <v>-0.032</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E48">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.05600000000000002</v>
+        <v>0.032</v>
       </c>
       <c r="B49">
-        <v>-0.04400000000000001</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E49">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.004</v>
+        <v>0.032</v>
       </c>
       <c r="B50">
-        <v>-0.024</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E50">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.004</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B51">
         <v>-0.028</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E51">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.05600000000000002</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B52">
         <v>-0.032</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E52">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B53">
-        <v>-0.02</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E53">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.04400000000000001</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B54">
-        <v>-0.04400000000000001</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E54">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.016</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B55">
         <v>-0.032</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E55">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.016</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B56">
         <v>-0.036000000000000004</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E56">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.016</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B57">
         <v>-0.04000000000000001</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E57">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.048000000000000015</v>
+        <v>0.004</v>
       </c>
       <c r="B58">
-        <v>-0.032</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>465</v>
       </c>
       <c r="E58">
-        <v>36</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.024</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B59">
-        <v>-0.04000000000000001</v>
+        <v>-0.032</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E59">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.05200000000000002</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B60">
-        <v>-0.04400000000000001</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E60">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B61">
         <v>-0.04000000000000001</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E61">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.004</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B62">
-        <v>-0.04000000000000001</v>
+        <v>-0.032</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E62">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.05200000000000002</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B63">
-        <v>-0.032</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E63">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.02</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B64">
-        <v>-0.032</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E64">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.02</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B65">
-        <v>-0.036000000000000004</v>
+        <v>-0.032</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E65">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.02</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B66">
-        <v>-0.04000000000000001</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66">
+        <v>46</v>
+      </c>
+      <c r="E66">
         <v>23</v>
-      </c>
-      <c r="E66">
-        <v>53</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.024</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B67">
-        <v>-0.036000000000000004</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E67">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.032</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B68">
-        <v>-0.04000000000000001</v>
+        <v>-0.032</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E68">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.036000000000000004</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B69">
         <v>-0.036000000000000004</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E69">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.048000000000000015</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B70">
-        <v>-0.04400000000000001</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E70">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.04400000000000001</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B71">
-        <v>-0.028</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E71">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.048000000000000015</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B72">
-        <v>-0.048000000000000015</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E72">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.024</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B73">
-        <v>-0.032</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E73">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.02</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B74">
         <v>-0.04400000000000001</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E74">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.05200000000000002</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B75">
-        <v>-0.048000000000000015</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E75">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.024</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B76">
-        <v>-0.04400000000000001</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E76">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.016</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B77">
-        <v>-0.04400000000000001</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E77">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.048000000000000015</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B78">
-        <v>-0.028</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E78">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.04400000000000001</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B79">
-        <v>-0.048000000000000015</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E79">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.016</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B80">
-        <v>-0.028</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E80">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.05600000000000002</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B81">
-        <v>-0.048000000000000015</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E81">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.012</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B82">
-        <v>-0.04400000000000001</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E82">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.028</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B83">
-        <v>-0.032</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E83">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.012</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B84">
-        <v>-0.028</v>
+        <v>-0.016</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E84">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.060000000000000026</v>
+        <v>0.028</v>
       </c>
       <c r="B85">
-        <v>-0.024</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E85">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.028</v>
+        <v>0.02</v>
       </c>
       <c r="B86">
-        <v>-0.04400000000000001</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>46</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="B87">
-        <v>-0.04400000000000001</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E87">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.05200000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="B88">
-        <v>-0.028</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E88">
-        <v>32</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.04000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="B89">
-        <v>-0.048000000000000015</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E89">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.04000000000000001</v>
+        <v>0.024</v>
       </c>
       <c r="B90">
-        <v>-0.04400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>19</v>
+        <v>465</v>
       </c>
       <c r="E90">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.008</v>
+        <v>0.024</v>
       </c>
       <c r="B91">
-        <v>-0.024</v>
+        <v>-0.004</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="E91">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.060000000000000026</v>
+        <v>0.016</v>
       </c>
       <c r="B92">
-        <v>-0.05200000000000002</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E92">
-        <v>23</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.032</v>
+        <v>0.016</v>
       </c>
       <c r="B93">
-        <v>-0.032</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E93">
-        <v>45</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.06400000000000003</v>
+        <v>0.032</v>
       </c>
       <c r="B94">
-        <v>-0.024</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E94">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.004</v>
+        <v>0.032</v>
       </c>
       <c r="B95">
-        <v>-0.04400000000000001</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E95">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96">
@@ -2000,492 +2000,492 @@
         <v>0.032</v>
       </c>
       <c r="B96">
-        <v>-0.04400000000000001</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E96">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.04000000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="B97">
-        <v>-0.032</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E97">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.06400000000000003</v>
+        <v>0.032</v>
       </c>
       <c r="B98">
-        <v>-0.05200000000000002</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E98">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.06800000000000003</v>
+        <v>0.032</v>
       </c>
       <c r="B99">
-        <v>-0.024</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E99">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.06800000000000003</v>
+        <v>0.032</v>
       </c>
       <c r="B100">
-        <v>-0.05200000000000002</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E100">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.036000000000000004</v>
+        <v>0.032</v>
       </c>
       <c r="B101">
-        <v>-0.04400000000000001</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E101">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.036000000000000004</v>
+        <v>0.032</v>
       </c>
       <c r="B102">
-        <v>-0.032</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E102">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B103">
-        <v>-0.04400000000000001</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E103">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.05600000000000002</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B104">
-        <v>-0.028</v>
+        <v>-0.016</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E104">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.008</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B105">
         <v>-0.02</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="E105">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.06800000000000003</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B106">
-        <v>-0.02</v>
+        <v>-0.024</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E106">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="B107">
-        <v>-0.048000000000000015</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E107">
-        <v>53</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.02</v>
+        <v>0.008</v>
       </c>
       <c r="B108">
-        <v>-0.05200000000000002</v>
+        <v>-0.012</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="E108">
-        <v>53</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="B109">
-        <v>-0.05600000000000002</v>
+        <v>-0.008</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="E109">
-        <v>53</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.06400000000000003</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B110">
-        <v>-0.06800000000000003</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E110">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.05200000000000002</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B111">
-        <v>-0.024</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E111">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.048000000000000015</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B112">
-        <v>-0.06800000000000003</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E112">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.048000000000000015</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B113">
-        <v>-0.06400000000000003</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E113">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.048000000000000015</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B114">
-        <v>-0.060000000000000026</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.048000000000000015</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B115">
-        <v>-0.05600000000000002</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.048000000000000015</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B116">
-        <v>-0.05200000000000002</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E116">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.004</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B117">
-        <v>-0.048000000000000015</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E117">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.012</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B118">
-        <v>-0.048000000000000015</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E118">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.012</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B119">
-        <v>-0.05200000000000002</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E119">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.012</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B120">
-        <v>-0.05600000000000002</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E120">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.024</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B121">
-        <v>-0.028</v>
+        <v>-0.016</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E121">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.05600000000000002</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B122">
-        <v>-0.060000000000000026</v>
+        <v>-0.02</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E122">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.05600000000000002</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B123">
-        <v>-0.05600000000000002</v>
+        <v>-0.024</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E123">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.05600000000000002</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B124">
-        <v>-0.05200000000000002</v>
+        <v>-0.028</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E124">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
@@ -2493,441 +2493,441 @@
         <v>0.004</v>
       </c>
       <c r="B125">
-        <v>-0.05200000000000002</v>
+        <v>-0.004</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="E125">
-        <v>87</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="B126">
-        <v>-0.048000000000000015</v>
+        <v>-0.008</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="E126">
-        <v>48</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.024</v>
+        <v>0.012</v>
       </c>
       <c r="B127">
-        <v>-0.05200000000000002</v>
+        <v>-0.016</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E127">
-        <v>48</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.024</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B128">
-        <v>-0.05600000000000002</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E128">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.06400000000000003</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B129">
-        <v>-0.06400000000000003</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E129">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.06400000000000003</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B130">
-        <v>-0.060000000000000026</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.048000000000000015</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B131">
-        <v>-0.024</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E131">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.04400000000000001</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B132">
-        <v>-0.06800000000000003</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E132">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.04400000000000001</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B133">
         <v>-0.06400000000000003</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E133">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.04400000000000001</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B134">
-        <v>-0.060000000000000026</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E134">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.04400000000000001</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B135">
-        <v>-0.05600000000000002</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E135">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.04400000000000001</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B136">
-        <v>-0.05200000000000002</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E136">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.008</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B137">
-        <v>-0.048000000000000015</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E137">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.008</v>
+        <v>0.024</v>
       </c>
       <c r="B138">
-        <v>-0.05200000000000002</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E138">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.008</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B139">
-        <v>-0.05600000000000002</v>
+        <v>-0.02</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="E139">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.05600000000000002</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B140">
         <v>-0.024</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E140">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.028</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B141">
         <v>-0.028</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E141">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.016</v>
+        <v>0.024</v>
       </c>
       <c r="B142">
-        <v>-0.024</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E142">
-        <v>57</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.06400000000000003</v>
+        <v>0.024</v>
       </c>
       <c r="B143">
-        <v>-0.05600000000000002</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E143">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="B144">
-        <v>-0.05200000000000002</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.06400000000000003</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B145">
-        <v>-0.02</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E145">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.028</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B146">
         <v>-0.048000000000000015</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E146">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.028</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B147">
         <v>-0.05200000000000002</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E147">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.028</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B148">
         <v>-0.05600000000000002</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.060000000000000026</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B149">
-        <v>-0.06800000000000003</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E149">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.060000000000000026</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B150">
         <v>-0.06400000000000003</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E150">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
@@ -2935,616 +2935,616 @@
         <v>0.04400000000000001</v>
       </c>
       <c r="B151">
-        <v>-0.024</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E151">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.04000000000000001</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B152">
-        <v>-0.06400000000000003</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E152">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.04000000000000001</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B153">
-        <v>-0.060000000000000026</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E153">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.04000000000000001</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B154">
-        <v>-0.05600000000000002</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E154">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.04000000000000001</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B155">
-        <v>-0.05200000000000002</v>
+        <v>-0.016</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E155">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.016</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B156">
-        <v>-0.048000000000000015</v>
+        <v>-0.02</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="E156">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.016</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B157">
-        <v>-0.05200000000000002</v>
+        <v>-0.024</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="E157">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.016</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B158">
-        <v>-0.05600000000000002</v>
+        <v>-0.028</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E158">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.05200000000000002</v>
+        <v>0.024</v>
       </c>
       <c r="B159">
-        <v>-0.06800000000000003</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E159">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="B160">
-        <v>-0.028</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E160">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.05200000000000002</v>
+        <v>0.024</v>
       </c>
       <c r="B161">
-        <v>-0.06400000000000003</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E161">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.05200000000000002</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B162">
-        <v>-0.060000000000000026</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E162">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.05200000000000002</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B163">
-        <v>-0.05600000000000002</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E163">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.05200000000000002</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B164">
         <v>-0.05200000000000002</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E164">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.032</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B165">
-        <v>-0.048000000000000015</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.060000000000000026</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B166">
         <v>-0.060000000000000026</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E166">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.032</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B167">
-        <v>-0.05600000000000002</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E167">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.04000000000000001</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B168">
-        <v>-0.028</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E168">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.060000000000000026</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B169">
-        <v>-0.05600000000000002</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E169">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.060000000000000026</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B170">
-        <v>-0.02</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E170">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.05600000000000002</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B171">
-        <v>-0.06800000000000003</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E171">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.036000000000000004</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B172">
-        <v>-0.05600000000000002</v>
+        <v>-0.016</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="E172">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.06800000000000003</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B173">
-        <v>-0.06800000000000003</v>
+        <v>-0.02</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="E173">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.06800000000000003</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B174">
-        <v>-0.06400000000000003</v>
+        <v>-0.024</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E174">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.06800000000000003</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B175">
-        <v>-0.060000000000000026</v>
+        <v>-0.028</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E175">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.06800000000000003</v>
+        <v>0.024</v>
       </c>
       <c r="B176">
-        <v>-0.05600000000000002</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E176">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.036000000000000004</v>
+        <v>0.024</v>
       </c>
       <c r="B177">
-        <v>-0.05200000000000002</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E177">
-        <v>42</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.036000000000000004</v>
+        <v>0.028</v>
       </c>
       <c r="B178">
-        <v>-0.048000000000000015</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>16</v>
+        <v>465</v>
       </c>
       <c r="E178">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.05600000000000002</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B179">
-        <v>-0.06400000000000003</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E179">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.036000000000000004</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B180">
-        <v>-0.028</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E180">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.02</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B181">
-        <v>-0.028</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E181">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.012</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B182">
-        <v>-0.024</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E182">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B183">
-        <v>-0.048000000000000015</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E183">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.016</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B184">
-        <v>-0.07200000000000004</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.036000000000000004</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B185">
-        <v>-0.024</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E185">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B186">
-        <v>-0.05200000000000002</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E186">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.032</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B187">
         <v>-0.07600000000000004</v>
@@ -3553,228 +3553,228 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E187">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.036000000000000004</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B188">
-        <v>-0.060000000000000026</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
+        <v>29</v>
+      </c>
+      <c r="E188">
         <v>8</v>
-      </c>
-      <c r="E188">
-        <v>42</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.036000000000000004</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B189">
-        <v>-0.06400000000000003</v>
+        <v>-0.016</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E189">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.036000000000000004</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B190">
-        <v>-0.06800000000000003</v>
+        <v>-0.02</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="E190">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.036000000000000004</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B191">
-        <v>-0.07200000000000004</v>
+        <v>-0.024</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="E191">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.036000000000000004</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B192">
-        <v>-0.07600000000000004</v>
+        <v>-0.028</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E192">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="B193">
-        <v>-0.07200000000000004</v>
+        <v>-0.008</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="E193">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.032</v>
+        <v>0.012</v>
       </c>
       <c r="B194">
-        <v>-0.06800000000000003</v>
+        <v>-0.02</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="E194">
-        <v>45</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.032</v>
+        <v>0.012</v>
       </c>
       <c r="B195">
-        <v>-0.06400000000000003</v>
+        <v>-0.024</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E195">
-        <v>45</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B196">
-        <v>-0.05600000000000002</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E196">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>0</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B197">
-        <v>-0.060000000000000026</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E197">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.04000000000000001</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B198">
-        <v>-0.024</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E198">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.032</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B199">
-        <v>-0.060000000000000026</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E199">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.06400000000000003</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B200">
-        <v>-0.07600000000000004</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E200">
         <v>22</v>
@@ -3782,33 +3782,33 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.032</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B201">
-        <v>-0.024</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E201">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.06400000000000003</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B202">
-        <v>-0.07200000000000004</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E202">
         <v>22</v>
@@ -3816,245 +3816,245 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>0</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B203">
-        <v>-0.06400000000000003</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E203">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.06800000000000003</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B204">
-        <v>-0.07200000000000004</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E204">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.06800000000000003</v>
+        <v>0.016</v>
       </c>
       <c r="B205">
-        <v>-0.07600000000000004</v>
+        <v>-0.032</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E205">
-        <v>21</v>
+        <v>188</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B206">
-        <v>-0.06800000000000003</v>
+        <v>-0.016</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="E206">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.028</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B207">
-        <v>-0.07600000000000004</v>
+        <v>-0.02</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="E207">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.028</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B208">
-        <v>-0.07200000000000004</v>
+        <v>-0.024</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="E208">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.04000000000000001</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B209">
-        <v>-0.06800000000000003</v>
+        <v>-0.028</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E209">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.04000000000000001</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B210">
-        <v>-0.07200000000000004</v>
+        <v>-0.032</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E210">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.04000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="B211">
-        <v>-0.07600000000000004</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E211">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B212">
-        <v>-0.07200000000000004</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E212">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.004</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B213">
-        <v>-0.05600000000000002</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E213">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.04400000000000001</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B214">
-        <v>-0.02</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E214">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.028</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B215">
-        <v>-0.06800000000000003</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E215">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.028</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B216">
-        <v>-0.06400000000000003</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E216">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.028</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B217">
         <v>-0.060000000000000026</v>
@@ -4063,287 +4063,287 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E217">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.028</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B218">
-        <v>-0.024</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E218">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.004</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B219">
-        <v>-0.060000000000000026</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E219">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.004</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B220">
-        <v>-0.06400000000000003</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E220">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.004</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B221">
-        <v>-0.06800000000000003</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E221">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.004</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B222">
-        <v>-0.07200000000000004</v>
+        <v>0</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>6</v>
+        <v>465</v>
       </c>
       <c r="E222">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.060000000000000026</v>
+        <v>0.02</v>
       </c>
       <c r="B223">
-        <v>-0.07600000000000004</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E223">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.060000000000000026</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B224">
-        <v>-0.07200000000000004</v>
+        <v>-0.016</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="E224">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.024</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B225">
-        <v>-0.07600000000000004</v>
+        <v>-0.024</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E225">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.024</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B226">
-        <v>-0.07200000000000004</v>
+        <v>-0.028</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E226">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.04400000000000001</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B227">
-        <v>-0.07200000000000004</v>
+        <v>-0.032</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E227">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.04400000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="B228">
-        <v>-0.07600000000000004</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E228">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="B229">
-        <v>-0.060000000000000026</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E229">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.008</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B230">
-        <v>-0.06400000000000003</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E230">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.048000000000000015</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B231">
-        <v>-0.02</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E231">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.024</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B232">
-        <v>-0.06800000000000003</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E232">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.024</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B233">
-        <v>-0.06400000000000003</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E233">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.024</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B234">
         <v>-0.060000000000000026</v>
@@ -4352,32 +4352,32 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E234">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.024</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B235">
-        <v>-0.024</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E235">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.008</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B236">
         <v>-0.06800000000000003</v>
@@ -4386,15 +4386,15 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E236">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.008</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B237">
         <v>-0.07200000000000004</v>
@@ -4403,15 +4403,15 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E237">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.008</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B238">
         <v>-0.07600000000000004</v>
@@ -4420,503 +4420,503 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E238">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.05600000000000002</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B239">
-        <v>-0.07600000000000004</v>
+        <v>0</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>465</v>
       </c>
       <c r="E239">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.05600000000000002</v>
+        <v>0.028</v>
       </c>
       <c r="B240">
-        <v>-0.07200000000000004</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E240">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.02</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B241">
-        <v>-0.07600000000000004</v>
+        <v>-0.016</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="E241">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.02</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B242">
-        <v>-0.07200000000000004</v>
+        <v>-0.024</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="E242">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.02</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B243">
-        <v>-0.06800000000000003</v>
+        <v>-0.028</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E243">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.048000000000000015</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B244">
-        <v>-0.07200000000000004</v>
+        <v>-0.032</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E244">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.048000000000000015</v>
+        <v>0.028</v>
       </c>
       <c r="B245">
-        <v>-0.07600000000000004</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E245">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.012</v>
+        <v>0.028</v>
       </c>
       <c r="B246">
-        <v>-0.02</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E246">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.012</v>
+        <v>0.028</v>
       </c>
       <c r="B247">
-        <v>-0.060000000000000026</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E247">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.05200000000000002</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B248">
-        <v>-0.02</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E248">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.02</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B249">
-        <v>-0.06400000000000003</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E249">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.02</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B250">
-        <v>-0.060000000000000026</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E250">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.02</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B251">
-        <v>-0.024</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E251">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.02</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B252">
-        <v>-0.02</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E252">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>0.012</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B253">
-        <v>-0.06400000000000003</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E253">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>0.012</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B254">
-        <v>-0.06800000000000003</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E254">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.012</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B255">
-        <v>-0.07200000000000004</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E255">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.016</v>
+        <v>0.028</v>
       </c>
       <c r="B256">
-        <v>-0.07600000000000004</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E256">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>0.012</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B257">
-        <v>-0.07600000000000004</v>
+        <v>-0.016</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="E257">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>0.016</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B258">
-        <v>-0.06800000000000003</v>
+        <v>-0.024</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E258">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>0.016</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B259">
-        <v>-0.06400000000000003</v>
+        <v>-0.028</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E259">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>0.016</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B260">
-        <v>-0.060000000000000026</v>
+        <v>-0.032</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E260">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.05200000000000002</v>
+        <v>0.028</v>
       </c>
       <c r="B261">
-        <v>-0.07200000000000004</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E261">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.05200000000000002</v>
+        <v>0.028</v>
       </c>
       <c r="B262">
-        <v>-0.07600000000000004</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E262">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>0.016</v>
+        <v>0.028</v>
       </c>
       <c r="B263">
-        <v>-0.02</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E263">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>0.05600000000000002</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B264">
-        <v>-0.02</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E264">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B265">
-        <v>-0.07600000000000004</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E265">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.07600000000000004</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B266">
-        <v>-0.07600000000000004</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E266">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>0.036000000000000004</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B267">
-        <v>-0.02</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E267">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -4924,16 +4924,16 @@
         <v>0.07200000000000004</v>
       </c>
       <c r="B268">
-        <v>-0.07600000000000004</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E268">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269">
@@ -4941,203 +4941,203 @@
         <v>0.07200000000000004</v>
       </c>
       <c r="B269">
-        <v>-0.07200000000000004</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E269">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>0.04000000000000001</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B270">
-        <v>-0.02</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E270">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.06800000000000003</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B271">
-        <v>-0.016</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E271">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.032</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B272">
-        <v>-0.02</v>
+        <v>-0.032</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E272">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>0.07200000000000004</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B273">
-        <v>-0.06800000000000003</v>
+        <v>-0.016</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="E273">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>0</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B274">
-        <v>-0.016</v>
+        <v>-0.028</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E274">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.07600000000000004</v>
+        <v>0.004</v>
       </c>
       <c r="B275">
-        <v>-0.07200000000000004</v>
+        <v>-0.028</v>
       </c>
       <c r="C275">
         <v>0</v>
       </c>
       <c r="D275">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E275">
-        <v>16</v>
+        <v>422</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.004</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B276">
-        <v>-0.016</v>
+        <v>0</v>
       </c>
       <c r="C276">
         <v>0</v>
       </c>
       <c r="D276">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="E276">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>0.060000000000000026</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B277">
-        <v>-0.016</v>
+        <v>-0.004</v>
       </c>
       <c r="C277">
         <v>0</v>
       </c>
       <c r="D277">
-        <v>88</v>
+        <v>347</v>
       </c>
       <c r="E277">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>0.024</v>
+        <v>0.004</v>
       </c>
       <c r="B278">
-        <v>-0.02</v>
+        <v>-0.032</v>
       </c>
       <c r="C278">
         <v>0</v>
       </c>
       <c r="D278">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E278">
-        <v>48</v>
+        <v>422</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>0.028</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B279">
-        <v>-0.02</v>
+        <v>-0.012</v>
       </c>
       <c r="C279">
         <v>0</v>
       </c>
       <c r="D279">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="E279">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>0.07600000000000004</v>
+        <v>0.004</v>
       </c>
       <c r="B280">
-        <v>-0.06800000000000003</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C280">
         <v>0</v>
       </c>
       <c r="D280">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E280">
-        <v>16</v>
+        <v>422</v>
       </c>
     </row>
     <row r="281">
@@ -5145,30 +5145,30 @@
         <v>0.004</v>
       </c>
       <c r="B281">
-        <v>-0.07600000000000004</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C281">
         <v>0</v>
       </c>
       <c r="D281">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E281">
-        <v>87</v>
+        <v>422</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.06400000000000003</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B282">
-        <v>-0.016</v>
+        <v>0</v>
       </c>
       <c r="C282">
         <v>0</v>
       </c>
       <c r="D282">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="E282">
         <v>22</v>
@@ -5176,1311 +5176,1311 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>0</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B283">
-        <v>-0.012</v>
+        <v>-0.004</v>
       </c>
       <c r="C283">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D283">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="E283">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>0.05600000000000002</v>
+        <v>0.004</v>
       </c>
       <c r="B284">
-        <v>-0.016</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C284">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="E284">
-        <v>27</v>
+        <v>422</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.07600000000000004</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B285">
-        <v>-0.05200000000000002</v>
+        <v>-0.012</v>
       </c>
       <c r="C285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D285">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="E285">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.07600000000000004</v>
+        <v>0.004</v>
       </c>
       <c r="B286">
-        <v>-0.05600000000000002</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C286">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D286">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E286">
-        <v>16</v>
+        <v>422</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>0.07600000000000004</v>
+        <v>0.004</v>
       </c>
       <c r="B287">
-        <v>-0.060000000000000026</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C287">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D287">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>16</v>
+        <v>422</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>0.07200000000000004</v>
+        <v>0.004</v>
       </c>
       <c r="B288">
-        <v>-0.060000000000000026</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C288">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D288">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E288">
-        <v>18</v>
+        <v>422</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>0.04400000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="B289">
-        <v>-0.016</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C289">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D289">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E289">
-        <v>37</v>
+        <v>422</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.07600000000000004</v>
+        <v>0.004</v>
       </c>
       <c r="B290">
-        <v>-0.04400000000000001</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C290">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D290">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E290">
-        <v>16</v>
+        <v>422</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.048000000000000015</v>
+        <v>0.004</v>
       </c>
       <c r="B291">
-        <v>-0.016</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C291">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D291">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="E291">
-        <v>36</v>
+        <v>422</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.07200000000000004</v>
+        <v>0.004</v>
       </c>
       <c r="B292">
-        <v>-0.06400000000000003</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C292">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D292">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E292">
-        <v>18</v>
+        <v>422</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="B293">
-        <v>-0.016</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C293">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D293">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E293">
-        <v>68</v>
+        <v>422</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>0.07200000000000004</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>-0.04400000000000001</v>
+        <v>-0.016</v>
       </c>
       <c r="C294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E294">
-        <v>18</v>
+        <v>535</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.07600000000000004</v>
+        <v>0</v>
       </c>
       <c r="B295">
-        <v>-0.06400000000000003</v>
+        <v>-0.02</v>
       </c>
       <c r="C295">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D295">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E295">
-        <v>16</v>
+        <v>535</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.07600000000000004</v>
+        <v>0</v>
       </c>
       <c r="B296">
-        <v>-0.048000000000000015</v>
+        <v>-0.024</v>
       </c>
       <c r="C296">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D296">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E296">
-        <v>16</v>
+        <v>535</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>0.05200000000000002</v>
+        <v>0</v>
       </c>
       <c r="B297">
-        <v>-0.016</v>
+        <v>-0.028</v>
       </c>
       <c r="C297">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D297">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E297">
-        <v>32</v>
+        <v>535</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>0.07200000000000004</v>
+        <v>0.008</v>
       </c>
       <c r="B298">
-        <v>-0.048000000000000015</v>
+        <v>-0.016</v>
       </c>
       <c r="C298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D298">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="E298">
-        <v>18</v>
+        <v>324</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>0.07200000000000004</v>
+        <v>0</v>
       </c>
       <c r="B299">
-        <v>-0.05200000000000002</v>
+        <v>-0.004</v>
       </c>
       <c r="C299">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D299">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="E299">
-        <v>18</v>
+        <v>535</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>0.004</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B300">
-        <v>-0.012</v>
+        <v>-0.004</v>
       </c>
       <c r="C300">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D300">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="E300">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.07200000000000004</v>
+        <v>0.02</v>
       </c>
       <c r="B301">
-        <v>-0.05600000000000002</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C301">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D301">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E301">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.06400000000000003</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B302">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="C302">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D302">
-        <v>181</v>
+        <v>465</v>
       </c>
       <c r="E302">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>0.06400000000000003</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B303">
-        <v>-0.012</v>
+        <v>-0.004</v>
       </c>
       <c r="C303">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D303">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="E303">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>0.06400000000000003</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="C304">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E304">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.05600000000000002</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B305">
         <v>-0.012</v>
       </c>
       <c r="C305">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D305">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="E305">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="B306">
-        <v>-0.012</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C306">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D306">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="E306">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>0.028</v>
+        <v>0.008</v>
       </c>
       <c r="B307">
-        <v>-0.016</v>
+        <v>-0.02</v>
       </c>
       <c r="C307">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D307">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="E307">
-        <v>46</v>
+        <v>324</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>0.048000000000000015</v>
+        <v>0.008</v>
       </c>
       <c r="B308">
-        <v>-0.012</v>
+        <v>-0.024</v>
       </c>
       <c r="C308">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D308">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E308">
-        <v>36</v>
+        <v>324</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="B309">
-        <v>-0.016</v>
+        <v>-0.028</v>
       </c>
       <c r="C309">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D309">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E309">
-        <v>48</v>
+        <v>324</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>0.060000000000000026</v>
+        <v>0.008</v>
       </c>
       <c r="B310">
-        <v>-0.012</v>
+        <v>-0.032</v>
       </c>
       <c r="C310">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D310">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E310">
-        <v>23</v>
+        <v>324</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.060000000000000026</v>
+        <v>0.008</v>
       </c>
       <c r="B311">
-        <v>-0.008</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C311">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D311">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="E311">
-        <v>23</v>
+        <v>324</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="B312">
-        <v>-0.008</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C312">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D312">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="E312">
-        <v>87</v>
+        <v>324</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>0.060000000000000026</v>
+        <v>0.008</v>
       </c>
       <c r="B313">
-        <v>-0.004</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C313">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D313">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="E313">
-        <v>23</v>
+        <v>324</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.060000000000000026</v>
+        <v>0.008</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C314">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D314">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="E314">
-        <v>23</v>
+        <v>324</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.04400000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="B315">
-        <v>-0.012</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C315">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D315">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="E315">
-        <v>37</v>
+        <v>324</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.06400000000000003</v>
+        <v>0.008</v>
       </c>
       <c r="B316">
-        <v>-0.008</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C316">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D316">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="E316">
-        <v>22</v>
+        <v>324</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>0.032</v>
+        <v>0.008</v>
       </c>
       <c r="B317">
-        <v>-0.016</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C317">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D317">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E317">
-        <v>45</v>
+        <v>324</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="B318">
-        <v>-0.016</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C318">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D318">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E318">
-        <v>61</v>
+        <v>324</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="B319">
-        <v>-0.008</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C319">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D319">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="E319">
-        <v>97</v>
+        <v>324</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>0.06800000000000003</v>
+        <v>0.008</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C320">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D320">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="E320">
-        <v>21</v>
+        <v>324</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.06800000000000003</v>
+        <v>0.008</v>
       </c>
       <c r="B321">
-        <v>-0.004</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C321">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D321">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="E321">
-        <v>21</v>
+        <v>324</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.06800000000000003</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B322">
-        <v>-0.008</v>
+        <v>0</v>
       </c>
       <c r="C322">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D322">
-        <v>152</v>
+        <v>465</v>
       </c>
       <c r="E322">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>0.06800000000000003</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B323">
-        <v>-0.012</v>
+        <v>-0.004</v>
       </c>
       <c r="C323">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D323">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="E323">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.05200000000000002</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B324">
-        <v>-0.012</v>
+        <v>-0.004</v>
       </c>
       <c r="C324">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="E324">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.02</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B325">
-        <v>-0.016</v>
+        <v>-0.012</v>
       </c>
       <c r="C325">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D325">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="E325">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="B326">
-        <v>-0.016</v>
+        <v>-0.032</v>
       </c>
       <c r="C326">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D326">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E326">
-        <v>40</v>
+        <v>535</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.036000000000000004</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B327">
-        <v>-0.016</v>
+        <v>-0.02</v>
       </c>
       <c r="C327">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D327">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="E327">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.07600000000000004</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B328">
-        <v>-0.04000000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="C328">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D328">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="E328">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="B329">
-        <v>-0.016</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C329">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D329">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E329">
-        <v>57</v>
+        <v>535</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.07200000000000004</v>
+        <v>0</v>
       </c>
       <c r="B330">
         <v>-0.04000000000000001</v>
       </c>
       <c r="C330">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D330">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E330">
-        <v>18</v>
+        <v>535</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="B331">
-        <v>-0.012</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C331">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D331">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="E331">
-        <v>57</v>
+        <v>535</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="B332">
-        <v>-0.012</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C332">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D332">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="E332">
-        <v>61</v>
+        <v>535</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.07200000000000004</v>
+        <v>0</v>
       </c>
       <c r="B333">
-        <v>-0.036000000000000004</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C333">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D333">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E333">
-        <v>18</v>
+        <v>535</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.07600000000000004</v>
+        <v>0.028</v>
       </c>
       <c r="B334">
-        <v>-0.036000000000000004</v>
+        <v>-0.004</v>
       </c>
       <c r="C334">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D334">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="E334">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="B335">
-        <v>-0.008</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C335">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D335">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="E335">
-        <v>68</v>
+        <v>535</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.04400000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>-0.028</v>
       </c>
       <c r="C336">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D336">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="E336">
-        <v>37</v>
+        <v>249</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.04400000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="B337">
-        <v>-0.004</v>
+        <v>-0.032</v>
       </c>
       <c r="C337">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D337">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="E337">
-        <v>37</v>
+        <v>249</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.04400000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="B338">
-        <v>-0.008</v>
+        <v>-0.036000000000000004</v>
       </c>
       <c r="C338">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D338">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="E338">
-        <v>37</v>
+        <v>249</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="B339">
-        <v>-0.004</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="C339">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D339">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="E339">
-        <v>97</v>
+        <v>249</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.024</v>
+        <v>0.012</v>
       </c>
       <c r="B340">
-        <v>-0.012</v>
+        <v>-0.04400000000000001</v>
       </c>
       <c r="C340">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D340">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="E340">
-        <v>48</v>
+        <v>249</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C341">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D341">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="E341">
-        <v>53</v>
+        <v>249</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="B342">
-        <v>-0.012</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C342">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D342">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="E342">
-        <v>53</v>
+        <v>249</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.048000000000000015</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="C343">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D343">
-        <v>203</v>
+        <v>347</v>
       </c>
       <c r="E343">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.048000000000000015</v>
+        <v>0.012</v>
       </c>
       <c r="B344">
-        <v>-0.004</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C344">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D344">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="E344">
-        <v>36</v>
+        <v>249</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>0.048000000000000015</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B345">
-        <v>-0.008</v>
+        <v>-0.012</v>
       </c>
       <c r="C345">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D345">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="E345">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
       <c r="B346">
-        <v>-0.004</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C346">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D346">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E346">
-        <v>87</v>
+        <v>249</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>0.05200000000000002</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="C347">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D347">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="E347">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>0.05600000000000002</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B348">
         <v>0</v>
       </c>
       <c r="C348">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D348">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="E348">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>0.05600000000000002</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B349">
         <v>-0.004</v>
       </c>
       <c r="C349">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D349">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="E349">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>0.05600000000000002</v>
+        <v>0.012</v>
       </c>
       <c r="B350">
-        <v>-0.008</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C350">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D350">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="E350">
-        <v>27</v>
+        <v>249</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>0.05200000000000002</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B351">
-        <v>-0.004</v>
+        <v>-0.012</v>
       </c>
       <c r="C351">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D351">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="E351">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>0.05200000000000002</v>
+        <v>0.012</v>
       </c>
       <c r="B352">
-        <v>-0.008</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C352">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D352">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="E352">
-        <v>32</v>
+        <v>249</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>0.024</v>
+        <v>0.012</v>
       </c>
       <c r="B353">
-        <v>-0.008</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C353">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D353">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="E353">
-        <v>48</v>
+        <v>249</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>0.04000000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="B354">
-        <v>-0.012</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C354">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D354">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="E354">
-        <v>40</v>
+        <v>249</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="B355">
-        <v>-0.004</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C355">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D355">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E355">
-        <v>40</v>
+        <v>535</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>0.036000000000000004</v>
+        <v>0</v>
       </c>
       <c r="B356">
-        <v>-0.012</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C356">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D356">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="E356">
-        <v>42</v>
+        <v>535</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>0.036000000000000004</v>
+        <v>0</v>
       </c>
       <c r="B357">
-        <v>-0.008</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C357">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D357">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="E357">
-        <v>42</v>
+        <v>535</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>0.036000000000000004</v>
+        <v>0</v>
       </c>
       <c r="B358">
-        <v>-0.004</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C358">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D358">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="E358">
-        <v>42</v>
+        <v>535</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>0.036000000000000004</v>
+        <v>0.032</v>
       </c>
       <c r="B359">
         <v>0</v>
       </c>
       <c r="C359">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D359">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="E359">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="360">
@@ -6488,16 +6488,16 @@
         <v>0.032</v>
       </c>
       <c r="B360">
-        <v>-0.012</v>
+        <v>-0.004</v>
       </c>
       <c r="C360">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D360">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="E360">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="361">
@@ -6508,404 +6508,404 @@
         <v>-0.008</v>
       </c>
       <c r="C361">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D361">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="E361">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>0.004</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B362">
         <v>0</v>
       </c>
       <c r="C362">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D362">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="E362">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>0.008</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="C363">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D363">
-        <v>203</v>
+        <v>347</v>
       </c>
       <c r="E363">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="B364">
-        <v>-0.004</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C364">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D364">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="E364">
-        <v>68</v>
+        <v>535</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>0.012</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="C365">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D365">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E365">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="B366">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="C366">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D366">
-        <v>181</v>
+        <v>451</v>
       </c>
       <c r="E366">
-        <v>61</v>
+        <v>490</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>0.012</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B367">
-        <v>-0.008</v>
+        <v>-0.02</v>
       </c>
       <c r="C367">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D367">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E367">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>-0.008</v>
       </c>
       <c r="C368">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D368">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E368">
-        <v>57</v>
+        <v>535</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>0.07200000000000004</v>
+        <v>0</v>
       </c>
       <c r="B369">
-        <v>-0.028</v>
+        <v>-0.012</v>
       </c>
       <c r="C369">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D369">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="E369">
-        <v>18</v>
+        <v>535</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>0.07200000000000004</v>
+        <v>0.004</v>
       </c>
       <c r="B370">
-        <v>-0.032</v>
+        <v>-0.012</v>
       </c>
       <c r="C370">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D370">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="E370">
-        <v>18</v>
+        <v>422</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>0.032</v>
+        <v>0.004</v>
       </c>
       <c r="B371">
-        <v>-0.004</v>
+        <v>-0.016</v>
       </c>
       <c r="C371">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D371">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E371">
-        <v>45</v>
+        <v>422</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>0.032</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B372">
         <v>0</v>
       </c>
       <c r="C372">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D372">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="E372">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>0.028</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B373">
-        <v>-0.012</v>
+        <v>-0.004</v>
       </c>
       <c r="C373">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D373">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="E373">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>0.028</v>
+        <v>0.004</v>
       </c>
       <c r="B374">
-        <v>-0.008</v>
+        <v>-0.02</v>
       </c>
       <c r="C374">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D374">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E374">
-        <v>46</v>
+        <v>422</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>0.028</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B375">
-        <v>-0.004</v>
+        <v>-0.012</v>
       </c>
       <c r="C375">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D375">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="E375">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>0.028</v>
+        <v>0.004</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>-0.024</v>
       </c>
       <c r="C376">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D376">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="E376">
-        <v>46</v>
+        <v>422</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>0.04000000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="B377">
-        <v>-0.008</v>
+        <v>-0.048000000000000015</v>
       </c>
       <c r="C377">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D377">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="E377">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="B378">
-        <v>-0.004</v>
+        <v>-0.05200000000000002</v>
       </c>
       <c r="C378">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D378">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="E378">
-        <v>48</v>
+        <v>188</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>-0.05600000000000002</v>
       </c>
       <c r="C379">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D379">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="E379">
-        <v>48</v>
+        <v>188</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="B380">
-        <v>-0.008</v>
+        <v>-0.060000000000000026</v>
       </c>
       <c r="C380">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D380">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="E380">
-        <v>53</v>
+        <v>188</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="B381">
-        <v>-0.004</v>
+        <v>-0.06400000000000003</v>
       </c>
       <c r="C381">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D381">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E381">
-        <v>53</v>
+        <v>188</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>0.016</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B382">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="C382">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D382">
-        <v>181</v>
+        <v>465</v>
       </c>
       <c r="E382">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>0.016</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B383">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="C383">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D383">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="E383">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>-0.06800000000000003</v>
       </c>
       <c r="C384">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D384">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="E384">
-        <v>53</v>
+        <v>188</v>
       </c>
     </row>
     <row r="385">
@@ -6913,50 +6913,50 @@
         <v>0.07600000000000004</v>
       </c>
       <c r="B385">
-        <v>-0.032</v>
+        <v>-0.012</v>
       </c>
       <c r="C385">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D385">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="E385">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>0.07600000000000004</v>
+        <v>0.016</v>
       </c>
       <c r="B386">
-        <v>-0.028</v>
+        <v>-0.07200000000000004</v>
       </c>
       <c r="C386">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D386">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E386">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>0.04000000000000001</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="C387">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D387">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="E387">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388">
@@ -6964,237 +6964,237 @@
         <v>0.07600000000000004</v>
       </c>
       <c r="B388">
-        <v>-0.02</v>
+        <v>-0.024</v>
       </c>
       <c r="C388">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D388">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E388">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>0.07200000000000004</v>
+        <v>0.016</v>
       </c>
       <c r="B389">
-        <v>-0.02</v>
+        <v>-0.07600000000000004</v>
       </c>
       <c r="C389">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D389">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E389">
-        <v>18</v>
+        <v>188</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>0.07600000000000004</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B390">
-        <v>-0.024</v>
+        <v>0</v>
       </c>
       <c r="C390">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D390">
-        <v>53</v>
+        <v>465</v>
       </c>
       <c r="E390">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>0.07200000000000004</v>
+        <v>0.07600000000000004</v>
       </c>
       <c r="B391">
-        <v>-0.024</v>
+        <v>-0.008</v>
       </c>
       <c r="C391">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D391">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="E391">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>0.07200000000000004</v>
+        <v>0.06800000000000003</v>
       </c>
       <c r="B392">
-        <v>-0.016</v>
+        <v>-0.008</v>
       </c>
       <c r="C392">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D392">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="E392">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>0.07600000000000004</v>
+        <v>0.06400000000000003</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>-0.008</v>
       </c>
       <c r="C393">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D393">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E393">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>0.07600000000000004</v>
+        <v>0.060000000000000026</v>
       </c>
       <c r="B394">
-        <v>-0.012</v>
+        <v>-0.008</v>
       </c>
       <c r="C394">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D394">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="E394">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>0.07600000000000004</v>
+        <v>0.05600000000000002</v>
       </c>
       <c r="B395">
-        <v>-0.016</v>
+        <v>-0.008</v>
       </c>
       <c r="C395">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D395">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="E395">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>0.07600000000000004</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="B396">
-        <v>-0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="C396">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D396">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="E396">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>0.07200000000000004</v>
+        <v>0.048000000000000015</v>
       </c>
       <c r="B397">
-        <v>-0.012</v>
+        <v>-0.008</v>
       </c>
       <c r="C397">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D397">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="E397">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>0.07200000000000004</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>-0.008</v>
       </c>
       <c r="C398">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D398">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E398">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>0.07200000000000004</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="B399">
-        <v>-0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="C399">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D399">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="E399">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>0.07200000000000004</v>
+        <v>0.036000000000000004</v>
       </c>
       <c r="B400">
         <v>-0.008</v>
       </c>
       <c r="C400">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="D400">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="E400">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>0.07600000000000004</v>
+        <v>0.05200000000000002</v>
       </c>
       <c r="B401">
         <v>-0.008</v>
       </c>
       <c r="C401">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="D401">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="E401">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
